--- a/dataanalysis/source/0509-1.xlsx
+++ b/dataanalysis/source/0509-1.xlsx
@@ -62,19 +62,19 @@
     <t>consecutive_upper_days</t>
   </si>
   <si>
-    <t>upper_days_counts</t>
-  </si>
-  <si>
-    <t>ma_amount_days_ratio_3</t>
-  </si>
-  <si>
-    <t>ma_amount_days_ratio_5</t>
-  </si>
-  <si>
-    <t>ma_amount_days_ratio_8</t>
-  </si>
-  <si>
-    <t>ma_amount_days_ratio_11</t>
+    <t>upper_count_in_days</t>
+  </si>
+  <si>
+    <t>ma_amount_3_days_ratio</t>
+  </si>
+  <si>
+    <t>ma_amount_5_days_ratio</t>
+  </si>
+  <si>
+    <t>ma_amount_8_days_ratio</t>
+  </si>
+  <si>
+    <t>ma_amount_11_days_ratio</t>
   </si>
   <si>
     <t>total_score</t>
@@ -342,14 +342,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -845,13 +838,16 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -860,128 +856,128 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1511,6696 +1507,6719 @@
   <dimension ref="A1:BQ32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD32"/>
+      <selection activeCell="M1" sqref="M1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="4" max="4" width="11.5"/>
+    <col min="5" max="6" width="12.625"/>
+    <col min="9" max="9" width="12.625"/>
+    <col min="19" max="19" width="10.375"/>
+    <col min="21" max="21" width="12.625"/>
+    <col min="23" max="23" width="12.625"/>
+    <col min="38" max="38" width="9.375"/>
+    <col min="40" max="40" width="12.625"/>
+    <col min="41" max="41" width="13.75"/>
+    <col min="47" max="47" width="9.375"/>
+    <col min="48" max="48" width="12.625"/>
+    <col min="49" max="49" width="11.5"/>
+    <col min="50" max="50" width="13.75"/>
+    <col min="51" max="51" width="12.625"/>
+    <col min="56" max="56" width="9.375"/>
+    <col min="57" max="58" width="11.5"/>
+    <col min="59" max="60" width="13.75"/>
+    <col min="65" max="65" width="9.375"/>
+    <col min="66" max="66" width="13.75"/>
+    <col min="67" max="67" width="12.625"/>
+    <col min="68" max="69" width="13.75"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:69">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" ht="54" spans="1:69">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AE1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AF1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AG1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AH1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AI1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AK1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AL1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AM1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AN1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AO1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AP1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AR1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AS1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AT1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AU1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AV1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AW1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AX1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="AY1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BA1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BB1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BC1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BD1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BE1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BF1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="BG1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="BH1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="BI1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="2" t="s">
+      <c r="BJ1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="2" t="s">
+      <c r="BK1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="2" t="s">
+      <c r="BL1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="2" t="s">
+      <c r="BM1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="2" t="s">
+      <c r="BN1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="2" t="s">
+      <c r="BO1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="2" t="s">
+      <c r="BP1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="2" t="s">
+      <c r="BQ1" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:69">
-      <c r="A2" s="1" t="s">
+    <row r="2" s="2" customFormat="1" spans="1:69">
+      <c r="A2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>36.51</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>0.84220832</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>0.000273972602739672</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="2">
         <v>0.047486033519553</v>
       </c>
-      <c r="G2" s="1">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1</v>
-      </c>
-      <c r="I2" s="1">
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2">
         <v>0.753968241151642</v>
       </c>
-      <c r="J2" s="1">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1">
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2">
         <v>4</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="2">
         <v>8</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2" s="2">
         <v>0.809</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N2" s="2">
         <v>0.658</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2" s="2">
         <v>1.267</v>
       </c>
-      <c r="P2" s="1">
+      <c r="P2" s="2">
         <v>1.515</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="Q2" s="2">
         <v>35</v>
       </c>
-      <c r="R2" s="1">
-        <v>0</v>
-      </c>
-      <c r="S2" s="1">
+      <c r="R2" s="2">
+        <v>0</v>
+      </c>
+      <c r="S2" s="2">
         <v>49.558966</v>
       </c>
-      <c r="T2" s="1">
+      <c r="T2" s="2">
         <v>100</v>
       </c>
-      <c r="U2" s="1">
+      <c r="U2" s="2">
         <v>39.9923312883435</v>
       </c>
-      <c r="V2" s="1">
-        <v>0</v>
-      </c>
-      <c r="W2" s="1">
+      <c r="V2" s="2">
+        <v>0</v>
+      </c>
+      <c r="W2" s="2">
         <v>65.0021710811984</v>
       </c>
-      <c r="X2" s="1">
+      <c r="X2" s="2">
         <v>100</v>
       </c>
-      <c r="Y2" s="1">
+      <c r="Y2" s="2">
         <v>21.3309</v>
       </c>
-      <c r="Z2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="1">
+      <c r="Z2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="2">
         <v>71.531</v>
       </c>
-      <c r="AB2" s="1">
+      <c r="AB2" s="2">
         <v>100</v>
       </c>
-      <c r="AC2" s="1">
+      <c r="AC2" s="2">
         <v>67.4667</v>
       </c>
-      <c r="AD2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG2" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH2" s="1">
+      <c r="AD2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="2">
         <v>36.51</v>
       </c>
-      <c r="AI2" s="1">
+      <c r="AI2" s="2">
         <v>37.5</v>
       </c>
-      <c r="AJ2" s="1">
+      <c r="AJ2" s="2">
         <v>35.8</v>
       </c>
-      <c r="AK2" s="1">
+      <c r="AK2" s="2">
         <v>36.51</v>
       </c>
-      <c r="AL2" s="1">
+      <c r="AL2" s="2">
         <v>70896136</v>
       </c>
-      <c r="AM2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN2" s="1">
+      <c r="AM2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="2">
         <v>2.71158586688579</v>
       </c>
-      <c r="AO2" s="1">
+      <c r="AO2" s="2">
         <v>-1.94467269241302</v>
       </c>
-      <c r="AP2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ2" s="1">
+      <c r="AP2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="2">
         <v>36.62</v>
       </c>
-      <c r="AR2" s="1">
+      <c r="AR2" s="2">
         <v>37.97</v>
       </c>
-      <c r="AS2" s="1">
+      <c r="AS2" s="2">
         <v>35.81</v>
       </c>
-      <c r="AT2" s="1">
+      <c r="AT2" s="2">
         <v>37.59</v>
       </c>
-      <c r="AU2" s="1">
+      <c r="AU2" s="2">
         <v>96179208</v>
       </c>
-      <c r="AV2" s="1">
+      <c r="AV2" s="2">
         <v>0.301287318542863</v>
       </c>
-      <c r="AW2" s="1">
+      <c r="AW2" s="2">
         <v>3.99890440975076</v>
       </c>
-      <c r="AX2" s="1">
+      <c r="AX2" s="2">
         <v>-1.91728293618186</v>
       </c>
-      <c r="AY2" s="1">
+      <c r="AY2" s="2">
         <v>2.95809367296633</v>
       </c>
-      <c r="AZ2" s="1">
+      <c r="AZ2" s="2">
         <v>37.81</v>
       </c>
-      <c r="BA2" s="1">
+      <c r="BA2" s="2">
         <v>37.81</v>
       </c>
-      <c r="BB2" s="1">
+      <c r="BB2" s="2">
         <v>36.31</v>
       </c>
-      <c r="BC2" s="1">
+      <c r="BC2" s="2">
         <v>36.47</v>
       </c>
-      <c r="BD2" s="1">
+      <c r="BD2" s="2">
         <v>75506992</v>
       </c>
-      <c r="BE2" s="1">
+      <c r="BE2" s="2">
         <v>3.56066831005205</v>
       </c>
-      <c r="BF2" s="1">
+      <c r="BF2" s="2">
         <v>3.56066831005205</v>
       </c>
-      <c r="BG2" s="1">
+      <c r="BG2" s="2">
         <v>-0.547795124623379</v>
       </c>
-      <c r="BH2" s="1">
+      <c r="BH2" s="2">
         <v>-0.109559024924676</v>
       </c>
-      <c r="BI2" s="1">
+      <c r="BI2" s="2">
         <v>36.3</v>
       </c>
-      <c r="BJ2" s="1">
+      <c r="BJ2" s="2">
         <v>36.6</v>
       </c>
-      <c r="BK2" s="1">
+      <c r="BK2" s="2">
         <v>35.33</v>
       </c>
-      <c r="BL2" s="1">
+      <c r="BL2" s="2">
         <v>35.59</v>
       </c>
-      <c r="BM2" s="1">
+      <c r="BM2" s="2">
         <v>66995828</v>
       </c>
-      <c r="BN2" s="1">
+      <c r="BN2" s="2">
         <v>-0.575184880854543</v>
       </c>
-      <c r="BO2" s="1">
+      <c r="BO2" s="2">
         <v>0.246507806080535</v>
       </c>
-      <c r="BP2" s="1">
+      <c r="BP2" s="2">
         <v>-3.231991235278</v>
       </c>
-      <c r="BQ2" s="1">
+      <c r="BQ2" s="2">
         <v>-2.51985757326758</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:69">
-      <c r="A3" s="1" t="s">
+    <row r="3" s="2" customFormat="1" spans="1:69">
+      <c r="A3" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>31.86</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>2.06349728</v>
       </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
         <v>0.0362480127186011</v>
       </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1">
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2">
         <v>0.648132200884218</v>
       </c>
-      <c r="J3" s="1">
-        <v>1</v>
-      </c>
-      <c r="K3" s="1">
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2">
         <v>4</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="2">
         <v>5</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="2">
         <v>1.095</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3" s="2">
         <v>1.073</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3" s="2">
         <v>1.229</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3" s="2">
         <v>0.783</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="Q3" s="2">
         <v>23</v>
       </c>
-      <c r="R3" s="1">
-        <v>0</v>
-      </c>
-      <c r="S3" s="1">
+      <c r="R3" s="2">
+        <v>0</v>
+      </c>
+      <c r="S3" s="2">
         <v>25.766333</v>
       </c>
-      <c r="T3" s="1">
-        <v>0</v>
-      </c>
-      <c r="U3" s="1">
+      <c r="T3" s="2">
+        <v>0</v>
+      </c>
+      <c r="U3" s="2">
         <v>16.9174311926606</v>
       </c>
-      <c r="V3" s="1">
-        <v>0</v>
-      </c>
-      <c r="W3" s="1">
+      <c r="V3" s="2">
+        <v>0</v>
+      </c>
+      <c r="W3" s="2">
         <v>30.8243727598566</v>
       </c>
-      <c r="X3" s="1">
+      <c r="X3" s="2">
         <v>50</v>
       </c>
-      <c r="Y3" s="1">
+      <c r="Y3" s="2">
         <v>36.5727</v>
       </c>
-      <c r="Z3" s="1">
+      <c r="Z3" s="2">
         <v>80</v>
       </c>
-      <c r="AA3" s="1">
+      <c r="AA3" s="2">
         <v>71.5704</v>
       </c>
-      <c r="AB3" s="1">
+      <c r="AB3" s="2">
         <v>100</v>
       </c>
-      <c r="AC3" s="1">
+      <c r="AC3" s="2">
         <v>67.8667</v>
       </c>
-      <c r="AD3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="1">
+      <c r="AD3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="2">
         <v>32.07</v>
       </c>
-      <c r="AI3" s="1">
+      <c r="AI3" s="2">
         <v>32.59</v>
       </c>
-      <c r="AJ3" s="1">
+      <c r="AJ3" s="2">
         <v>31.45</v>
       </c>
-      <c r="AK3" s="1">
+      <c r="AK3" s="2">
         <v>31.86</v>
       </c>
-      <c r="AL3" s="1">
+      <c r="AL3" s="2">
         <v>179609536</v>
       </c>
-      <c r="AM3" s="1">
+      <c r="AM3" s="2">
         <v>0.65913370998117</v>
       </c>
-      <c r="AN3" s="1">
+      <c r="AN3" s="2">
         <v>2.29127432517264</v>
       </c>
-      <c r="AO3" s="1">
+      <c r="AO3" s="2">
         <v>-1.28688010043942</v>
       </c>
-      <c r="AP3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="1">
+      <c r="AP3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="2">
         <v>31.66</v>
       </c>
-      <c r="AR3" s="1">
+      <c r="AR3" s="2">
         <v>32.59</v>
       </c>
-      <c r="AS3" s="1">
+      <c r="AS3" s="2">
         <v>31.02</v>
       </c>
-      <c r="AT3" s="1">
+      <c r="AT3" s="2">
         <v>32.37</v>
       </c>
-      <c r="AU3" s="1">
+      <c r="AU3" s="2">
         <v>186467600</v>
       </c>
-      <c r="AV3" s="1">
+      <c r="AV3" s="2">
         <v>-0.627746390458253</v>
       </c>
-      <c r="AW3" s="1">
+      <c r="AW3" s="2">
         <v>2.29127432517264</v>
       </c>
-      <c r="AX3" s="1">
+      <c r="AX3" s="2">
         <v>-2.63653483992467</v>
       </c>
-      <c r="AY3" s="1">
+      <c r="AY3" s="2">
         <v>1.60075329566854</v>
       </c>
-      <c r="AZ3" s="1">
+      <c r="AZ3" s="2">
         <v>32.58</v>
       </c>
-      <c r="BA3" s="1">
+      <c r="BA3" s="2">
         <v>33.3</v>
       </c>
-      <c r="BB3" s="1">
+      <c r="BB3" s="2">
         <v>31.91</v>
       </c>
-      <c r="BC3" s="1">
+      <c r="BC3" s="2">
         <v>32.45</v>
       </c>
-      <c r="BD3" s="1">
+      <c r="BD3" s="2">
         <v>147578320</v>
       </c>
-      <c r="BE3" s="1">
+      <c r="BE3" s="2">
         <v>2.25988700564971</v>
       </c>
-      <c r="BF3" s="1">
+      <c r="BF3" s="2">
         <v>4.51977401129943</v>
       </c>
-      <c r="BG3" s="1">
+      <c r="BG3" s="2">
         <v>0.156936597614566</v>
       </c>
-      <c r="BH3" s="1">
+      <c r="BH3" s="2">
         <v>1.85185185185186</v>
       </c>
-      <c r="BI3" s="1">
+      <c r="BI3" s="2">
         <v>32.17</v>
       </c>
-      <c r="BJ3" s="1">
+      <c r="BJ3" s="2">
         <v>33.01</v>
       </c>
-      <c r="BK3" s="1">
+      <c r="BK3" s="2">
         <v>31.67</v>
       </c>
-      <c r="BL3" s="1">
+      <c r="BL3" s="2">
         <v>31.99</v>
       </c>
-      <c r="BM3" s="1">
+      <c r="BM3" s="2">
         <v>158872016</v>
       </c>
-      <c r="BN3" s="1">
+      <c r="BN3" s="2">
         <v>0.973006905210302</v>
       </c>
-      <c r="BO3" s="1">
+      <c r="BO3" s="2">
         <v>3.60954174513496</v>
       </c>
-      <c r="BP3" s="1">
+      <c r="BP3" s="2">
         <v>-0.596359070935335</v>
       </c>
-      <c r="BQ3" s="1">
+      <c r="BQ3" s="2">
         <v>0.408035153797874</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:69">
-      <c r="A4" s="1" t="s">
+    <row r="4" s="2" customFormat="1" spans="1:69">
+      <c r="A4" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>54.68</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>7.2095296</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>-0.0520110957004161</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <v>0.0588560885608856</v>
       </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1">
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2">
         <v>4.44761949220148</v>
       </c>
-      <c r="J4" s="1">
-        <v>1</v>
-      </c>
-      <c r="K4" s="1">
+      <c r="J4" s="2">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2">
         <v>3</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="2">
         <v>3</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="2">
         <v>1.332</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N4" s="2">
         <v>3.061</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4" s="2">
         <v>3.197</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P4" s="2">
         <v>2.839</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="Q4" s="2">
         <v>57</v>
       </c>
-      <c r="R4" s="1">
+      <c r="R4" s="2">
         <v>60</v>
       </c>
-      <c r="S4" s="1">
+      <c r="S4" s="2">
         <v>39.853076</v>
       </c>
-      <c r="T4" s="1">
+      <c r="T4" s="2">
         <v>100</v>
       </c>
-      <c r="U4" s="1">
+      <c r="U4" s="2">
         <v>78.6344331917674</v>
       </c>
-      <c r="V4" s="1">
+      <c r="V4" s="2">
         <v>100</v>
       </c>
-      <c r="W4" s="1">
+      <c r="W4" s="2">
         <v>128.624813153961</v>
       </c>
-      <c r="X4" s="1">
+      <c r="X4" s="2">
         <v>100</v>
       </c>
-      <c r="Y4" s="1">
+      <c r="Y4" s="2">
         <v>50.2484</v>
       </c>
-      <c r="Z4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="1">
+      <c r="Z4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="2">
         <v>61.9092</v>
       </c>
-      <c r="AB4" s="1">
+      <c r="AB4" s="2">
         <v>50</v>
       </c>
-      <c r="AC4" s="1">
+      <c r="AC4" s="2">
         <v>72</v>
       </c>
-      <c r="AD4" s="1">
+      <c r="AD4" s="2">
         <v>50</v>
       </c>
-      <c r="AE4" s="1">
+      <c r="AE4" s="2">
         <v>-3.1</v>
       </c>
-      <c r="AF4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="1">
+      <c r="AF4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="2">
         <v>55.68</v>
       </c>
-      <c r="AI4" s="1">
+      <c r="AI4" s="2">
         <v>57.39</v>
       </c>
-      <c r="AJ4" s="1">
+      <c r="AJ4" s="2">
         <v>54.2</v>
       </c>
-      <c r="AK4" s="1">
+      <c r="AK4" s="2">
         <v>54.68</v>
       </c>
-      <c r="AL4" s="1">
+      <c r="AL4" s="2">
         <v>596273792</v>
       </c>
-      <c r="AM4" s="1">
+      <c r="AM4" s="2">
         <v>1.82882223847842</v>
       </c>
-      <c r="AN4" s="1">
+      <c r="AN4" s="2">
         <v>4.95610826627652</v>
       </c>
-      <c r="AO4" s="1">
+      <c r="AO4" s="2">
         <v>-0.877834674469636</v>
       </c>
-      <c r="AP4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ4" s="1">
+      <c r="AP4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="2">
         <v>54.8</v>
       </c>
-      <c r="AR4" s="1">
+      <c r="AR4" s="2">
         <v>57.8</v>
       </c>
-      <c r="AS4" s="1">
+      <c r="AS4" s="2">
         <v>53.5</v>
       </c>
-      <c r="AT4" s="1">
+      <c r="AT4" s="2">
         <v>56.99</v>
       </c>
-      <c r="AU4" s="1">
+      <c r="AU4" s="2">
         <v>520392640</v>
       </c>
-      <c r="AV4" s="1">
+      <c r="AV4" s="2">
         <v>0.219458668617419</v>
       </c>
-      <c r="AW4" s="1">
+      <c r="AW4" s="2">
         <v>5.70592538405268</v>
       </c>
-      <c r="AX4" s="1">
+      <c r="AX4" s="2">
         <v>-2.15801024140453</v>
       </c>
-      <c r="AY4" s="1">
+      <c r="AY4" s="2">
         <v>4.22457937088515</v>
       </c>
-      <c r="AZ4" s="1">
+      <c r="AZ4" s="2">
         <v>57.2</v>
       </c>
-      <c r="BA4" s="1">
+      <c r="BA4" s="2">
         <v>63.74</v>
       </c>
-      <c r="BB4" s="1">
+      <c r="BB4" s="2">
         <v>57.2</v>
       </c>
-      <c r="BC4" s="1">
+      <c r="BC4" s="2">
         <v>60.48</v>
       </c>
-      <c r="BD4" s="1">
+      <c r="BD4" s="2">
         <v>691936256</v>
       </c>
-      <c r="BE4" s="1">
+      <c r="BE4" s="2">
         <v>4.60863204096562</v>
       </c>
-      <c r="BF4" s="1">
+      <c r="BF4" s="2">
         <v>16.5691294806145</v>
       </c>
-      <c r="BG4" s="1">
+      <c r="BG4" s="2">
         <v>4.60863204096562</v>
       </c>
-      <c r="BH4" s="1">
+      <c r="BH4" s="2">
         <v>10.6071689831748</v>
       </c>
-      <c r="BI4" s="1">
+      <c r="BI4" s="2">
         <v>59.67</v>
       </c>
-      <c r="BJ4" s="1">
+      <c r="BJ4" s="2">
         <v>63.3</v>
       </c>
-      <c r="BK4" s="1">
+      <c r="BK4" s="2">
         <v>58.43</v>
       </c>
-      <c r="BL4" s="1">
+      <c r="BL4" s="2">
         <v>59.53</v>
       </c>
-      <c r="BM4" s="1">
+      <c r="BM4" s="2">
         <v>534034976</v>
       </c>
-      <c r="BN4" s="1">
+      <c r="BN4" s="2">
         <v>9.12582297000732</v>
       </c>
-      <c r="BO4" s="1">
+      <c r="BO4" s="2">
         <v>15.764447695684</v>
       </c>
-      <c r="BP4" s="1">
+      <c r="BP4" s="2">
         <v>6.85808339429407</v>
       </c>
-      <c r="BQ4" s="1">
+      <c r="BQ4" s="2">
         <v>8.86978785662034</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:69">
-      <c r="A5" s="1" t="s">
+    <row r="5" s="2" customFormat="1" spans="1:69">
+      <c r="A5" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>23.73</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>0.558403066666667</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>-0.0108378491037933</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="2">
         <v>0.0387931034482759</v>
       </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1">
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2">
         <v>0.81633561121143</v>
       </c>
-      <c r="J5" s="1">
-        <v>1</v>
-      </c>
-      <c r="K5" s="1">
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2">
         <v>5</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="2">
         <v>5</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="2">
         <v>0.63</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5" s="2">
         <v>1.481</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="2">
         <v>2.145</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5" s="2">
         <v>1.314</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5" s="2">
         <v>18</v>
       </c>
-      <c r="R5" s="1">
-        <v>0</v>
-      </c>
-      <c r="S5" s="1">
+      <c r="R5" s="2">
+        <v>0</v>
+      </c>
+      <c r="S5" s="2">
         <v>13.1066675</v>
       </c>
-      <c r="T5" s="1">
-        <v>0</v>
-      </c>
-      <c r="U5" s="1">
+      <c r="T5" s="2">
+        <v>0</v>
+      </c>
+      <c r="U5" s="2">
         <v>27.03426124197</v>
       </c>
-      <c r="V5" s="1">
-        <v>0</v>
-      </c>
-      <c r="W5" s="1">
+      <c r="V5" s="2">
+        <v>0</v>
+      </c>
+      <c r="W5" s="2">
         <v>51.1084481725584</v>
       </c>
-      <c r="X5" s="1">
+      <c r="X5" s="2">
         <v>100</v>
       </c>
-      <c r="Y5" s="1">
+      <c r="Y5" s="2">
         <v>31.5182</v>
       </c>
-      <c r="Z5" s="1">
+      <c r="Z5" s="2">
         <v>80</v>
       </c>
-      <c r="AA5" s="1">
+      <c r="AA5" s="2">
         <v>57.6886</v>
       </c>
-      <c r="AB5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="1">
+      <c r="AB5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="2">
         <v>62.9333</v>
       </c>
-      <c r="AD5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="1">
+      <c r="AD5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="2">
         <v>23.89</v>
       </c>
-      <c r="AI5" s="1">
+      <c r="AI5" s="2">
         <v>24.1</v>
       </c>
-      <c r="AJ5" s="1">
+      <c r="AJ5" s="2">
         <v>23.2</v>
       </c>
-      <c r="AK5" s="1">
+      <c r="AK5" s="2">
         <v>23.73</v>
       </c>
-      <c r="AL5" s="1">
+      <c r="AL5" s="2">
         <v>34804032</v>
       </c>
-      <c r="AM5" s="1">
+      <c r="AM5" s="2">
         <v>0.674252001685631</v>
       </c>
-      <c r="AN5" s="1">
+      <c r="AN5" s="2">
         <v>1.55920775389802</v>
       </c>
-      <c r="AO5" s="1">
+      <c r="AO5" s="2">
         <v>-2.23345975558365</v>
       </c>
-      <c r="AP5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ5" s="1">
+      <c r="AP5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="2">
         <v>23.85</v>
       </c>
-      <c r="AR5" s="1">
+      <c r="AR5" s="2">
         <v>25.22</v>
       </c>
-      <c r="AS5" s="1">
+      <c r="AS5" s="2">
         <v>23.51</v>
       </c>
-      <c r="AT5" s="1">
+      <c r="AT5" s="2">
         <v>23.98</v>
       </c>
-      <c r="AU5" s="1">
+      <c r="AU5" s="2">
         <v>67812792</v>
       </c>
-      <c r="AV5" s="1">
+      <c r="AV5" s="2">
         <v>0.505689001264227</v>
       </c>
-      <c r="AW5" s="1">
+      <c r="AW5" s="2">
         <v>6.27897176569742</v>
       </c>
-      <c r="AX5" s="1">
+      <c r="AX5" s="2">
         <v>-0.927096502317737</v>
       </c>
-      <c r="AY5" s="1">
+      <c r="AY5" s="2">
         <v>1.0535187526338</v>
       </c>
-      <c r="AZ5" s="1">
+      <c r="AZ5" s="2">
         <v>23.98</v>
       </c>
-      <c r="BA5" s="1">
+      <c r="BA5" s="2">
         <v>24.18</v>
       </c>
-      <c r="BB5" s="1">
+      <c r="BB5" s="2">
         <v>23.22</v>
       </c>
-      <c r="BC5" s="1">
+      <c r="BC5" s="2">
         <v>23.39</v>
       </c>
-      <c r="BD5" s="1">
+      <c r="BD5" s="2">
         <v>39486548</v>
       </c>
-      <c r="BE5" s="1">
+      <c r="BE5" s="2">
         <v>1.0535187526338</v>
       </c>
-      <c r="BF5" s="1">
+      <c r="BF5" s="2">
         <v>1.89633375474083</v>
       </c>
-      <c r="BG5" s="1">
+      <c r="BG5" s="2">
         <v>-2.14917825537295</v>
       </c>
-      <c r="BH5" s="1">
+      <c r="BH5" s="2">
         <v>-1.43278550358196</v>
       </c>
-      <c r="BI5" s="1">
+      <c r="BI5" s="2">
         <v>23.71</v>
       </c>
-      <c r="BJ5" s="1">
+      <c r="BJ5" s="2">
         <v>23.71</v>
       </c>
-      <c r="BK5" s="1">
+      <c r="BK5" s="2">
         <v>23.06</v>
       </c>
-      <c r="BL5" s="1">
+      <c r="BL5" s="2">
         <v>23.51</v>
       </c>
-      <c r="BM5" s="1">
+      <c r="BM5" s="2">
         <v>24406004</v>
       </c>
-      <c r="BN5" s="1">
+      <c r="BN5" s="2">
         <v>-0.084281500210702</v>
       </c>
-      <c r="BO5" s="1">
+      <c r="BO5" s="2">
         <v>-0.084281500210702</v>
       </c>
-      <c r="BP5" s="1">
+      <c r="BP5" s="2">
         <v>-2.82343025705858</v>
       </c>
-      <c r="BQ5" s="1">
+      <c r="BQ5" s="2">
         <v>-0.927096502317737</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:69">
-      <c r="A6" s="1" t="s">
+    <row r="6" s="2" customFormat="1" spans="1:69">
+      <c r="A6" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>19.51</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>2.91863925333333</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>0.0193312434691746</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>0.0341925302472382</v>
       </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1">
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2">
         <v>0.608276335962629</v>
       </c>
-      <c r="J6" s="1">
-        <v>1</v>
-      </c>
-      <c r="K6" s="1">
+      <c r="J6" s="2">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2">
         <v>4</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="2">
         <v>4</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="2">
         <v>0.955</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6" s="2">
         <v>1.546</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="2">
         <v>1.116</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6" s="2">
         <v>1.358</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="Q6" s="2">
         <v>43</v>
       </c>
-      <c r="R6" s="1">
-        <v>0</v>
-      </c>
-      <c r="S6" s="1">
+      <c r="R6" s="2">
+        <v>0</v>
+      </c>
+      <c r="S6" s="2">
         <v>48.188097</v>
       </c>
-      <c r="T6" s="1">
+      <c r="T6" s="2">
         <v>100</v>
       </c>
-      <c r="U6" s="1">
+      <c r="U6" s="2">
         <v>27.2667971298108</v>
       </c>
-      <c r="V6" s="1">
-        <v>0</v>
-      </c>
-      <c r="W6" s="1">
+      <c r="V6" s="2">
+        <v>0</v>
+      </c>
+      <c r="W6" s="2">
         <v>51.0752688172043</v>
       </c>
-      <c r="X6" s="1">
+      <c r="X6" s="2">
         <v>100</v>
       </c>
-      <c r="Y6" s="1">
+      <c r="Y6" s="2">
         <v>38.4035</v>
       </c>
-      <c r="Z6" s="1">
+      <c r="Z6" s="2">
         <v>80</v>
       </c>
-      <c r="AA6" s="1">
+      <c r="AA6" s="2">
         <v>69.1922</v>
       </c>
-      <c r="AB6" s="1">
+      <c r="AB6" s="2">
         <v>100</v>
       </c>
-      <c r="AC6" s="1">
+      <c r="AC6" s="2">
         <v>69.7333</v>
       </c>
-      <c r="AD6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="1">
+      <c r="AD6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="2">
         <v>-1.73</v>
       </c>
-      <c r="AF6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="1">
+      <c r="AF6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="2">
         <v>19.1</v>
       </c>
-      <c r="AI6" s="1">
+      <c r="AI6" s="2">
         <v>19.66</v>
       </c>
-      <c r="AJ6" s="1">
+      <c r="AJ6" s="2">
         <v>19.01</v>
       </c>
-      <c r="AK6" s="1">
+      <c r="AK6" s="2">
         <v>19.51</v>
       </c>
-      <c r="AL6" s="1">
+      <c r="AL6" s="2">
         <v>271323424</v>
       </c>
-      <c r="AM6" s="1">
+      <c r="AM6" s="2">
         <v>-2.10148641722194</v>
       </c>
-      <c r="AN6" s="1">
+      <c r="AN6" s="2">
         <v>0.76883649410558</v>
       </c>
-      <c r="AO6" s="1">
+      <c r="AO6" s="2">
         <v>-2.56278831368529</v>
       </c>
-      <c r="AP6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ6" s="1">
+      <c r="AP6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="2">
         <v>20</v>
       </c>
-      <c r="AR6" s="1">
+      <c r="AR6" s="2">
         <v>20.49</v>
       </c>
-      <c r="AS6" s="1">
+      <c r="AS6" s="2">
         <v>19.69</v>
       </c>
-      <c r="AT6" s="1">
+      <c r="AT6" s="2">
         <v>20.34</v>
       </c>
-      <c r="AU6" s="1">
+      <c r="AU6" s="2">
         <v>402027520</v>
       </c>
-      <c r="AV6" s="1">
+      <c r="AV6" s="2">
         <v>2.51153254741158</v>
       </c>
-      <c r="AW6" s="1">
+      <c r="AW6" s="2">
         <v>5.02306509482317</v>
       </c>
-      <c r="AX6" s="1">
+      <c r="AX6" s="2">
         <v>0.922603792926703</v>
       </c>
-      <c r="AY6" s="1">
+      <c r="AY6" s="2">
         <v>4.25422860071757</v>
       </c>
-      <c r="AZ6" s="1">
+      <c r="AZ6" s="2">
         <v>20.4</v>
       </c>
-      <c r="BA6" s="1">
+      <c r="BA6" s="2">
         <v>20.46</v>
       </c>
-      <c r="BB6" s="1">
+      <c r="BB6" s="2">
         <v>19.75</v>
       </c>
-      <c r="BC6" s="1">
+      <c r="BC6" s="2">
         <v>20.1</v>
       </c>
-      <c r="BD6" s="1">
+      <c r="BD6" s="2">
         <v>244649776</v>
       </c>
-      <c r="BE6" s="1">
+      <c r="BE6" s="2">
         <v>4.56176319835982</v>
       </c>
-      <c r="BF6" s="1">
+      <c r="BF6" s="2">
         <v>4.86929779600205</v>
       </c>
-      <c r="BG6" s="1">
+      <c r="BG6" s="2">
         <v>1.23013839056893</v>
       </c>
-      <c r="BH6" s="1">
+      <c r="BH6" s="2">
         <v>3.02409021014864</v>
       </c>
-      <c r="BI6" s="1">
+      <c r="BI6" s="2">
         <v>20.2</v>
       </c>
-      <c r="BJ6" s="1">
+      <c r="BJ6" s="2">
         <v>21.17</v>
       </c>
-      <c r="BK6" s="1">
+      <c r="BK6" s="2">
         <v>19.95</v>
       </c>
-      <c r="BL6" s="1">
+      <c r="BL6" s="2">
         <v>20.89</v>
       </c>
-      <c r="BM6" s="1">
+      <c r="BM6" s="2">
         <v>340391872</v>
       </c>
-      <c r="BN6" s="1">
+      <c r="BN6" s="2">
         <v>3.53664787288569</v>
       </c>
-      <c r="BO6" s="1">
+      <c r="BO6" s="2">
         <v>8.50845720143516</v>
       </c>
-      <c r="BP6" s="1">
+      <c r="BP6" s="2">
         <v>2.25525371604304</v>
       </c>
-      <c r="BQ6" s="1">
+      <c r="BQ6" s="2">
         <v>7.07329574577139</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:69">
-      <c r="A7" s="1" t="s">
+    <row r="7" s="2" customFormat="1" spans="1:69">
+      <c r="A7" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <v>66.29</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>1.20918344</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>-0.0438482619356699</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="2">
         <v>0.0817013463892289</v>
       </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1">
-        <v>1</v>
-      </c>
-      <c r="I7" s="1">
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2">
         <v>2.36752181346483</v>
       </c>
-      <c r="J7" s="1">
-        <v>1</v>
-      </c>
-      <c r="K7" s="1">
+      <c r="J7" s="2">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2">
         <v>4</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="2">
         <v>4</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="2">
         <v>1.84</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N7" s="2">
         <v>1.566</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7" s="2">
         <v>1.666</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P7" s="2">
         <v>1.157</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="Q7" s="2">
         <v>38</v>
       </c>
-      <c r="R7" s="1">
-        <v>0</v>
-      </c>
-      <c r="S7" s="1">
+      <c r="R7" s="2">
+        <v>0</v>
+      </c>
+      <c r="S7" s="2">
         <v>42.156485</v>
       </c>
-      <c r="T7" s="1">
+      <c r="T7" s="2">
         <v>100</v>
       </c>
-      <c r="U7" s="1">
+      <c r="U7" s="2">
         <v>31.6845450933651</v>
       </c>
-      <c r="V7" s="1">
-        <v>0</v>
-      </c>
-      <c r="W7" s="1">
+      <c r="V7" s="2">
+        <v>0</v>
+      </c>
+      <c r="W7" s="2">
         <v>57.1111111111111</v>
       </c>
-      <c r="X7" s="1">
+      <c r="X7" s="2">
         <v>100</v>
       </c>
-      <c r="Y7" s="1">
+      <c r="Y7" s="2">
         <v>39.9803</v>
       </c>
-      <c r="Z7" s="1">
+      <c r="Z7" s="2">
         <v>80</v>
       </c>
-      <c r="AA7" s="1">
+      <c r="AA7" s="2">
         <v>62.478</v>
       </c>
-      <c r="AB7" s="1">
+      <c r="AB7" s="2">
         <v>50</v>
       </c>
-      <c r="AC7" s="1">
+      <c r="AC7" s="2">
         <v>65.0667</v>
       </c>
-      <c r="AD7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="1">
+      <c r="AD7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="2">
         <v>-1.79</v>
       </c>
-      <c r="AF7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="1">
+      <c r="AF7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="2">
         <v>69.17</v>
       </c>
-      <c r="AI7" s="1">
+      <c r="AI7" s="2">
         <v>70.7</v>
       </c>
-      <c r="AJ7" s="1">
+      <c r="AJ7" s="2">
         <v>65.36</v>
       </c>
-      <c r="AK7" s="1">
+      <c r="AK7" s="2">
         <v>66.29</v>
       </c>
-      <c r="AL7" s="1">
+      <c r="AL7" s="2">
         <v>133815168</v>
       </c>
-      <c r="AM7" s="1">
+      <c r="AM7" s="2">
         <v>4.34454668879167</v>
       </c>
-      <c r="AN7" s="1">
+      <c r="AN7" s="2">
         <v>6.65258711721224</v>
       </c>
-      <c r="AO7" s="1">
+      <c r="AO7" s="2">
         <v>-1.40292653492232</v>
       </c>
-      <c r="AP7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ7" s="1">
+      <c r="AP7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="2">
         <v>66.88</v>
       </c>
-      <c r="AR7" s="1">
+      <c r="AR7" s="2">
         <v>69.3</v>
       </c>
-      <c r="AS7" s="1">
+      <c r="AS7" s="2">
         <v>66.88</v>
       </c>
-      <c r="AT7" s="1">
+      <c r="AT7" s="2">
         <v>67.48</v>
       </c>
-      <c r="AU7" s="1">
+      <c r="AU7" s="2">
         <v>67718704</v>
       </c>
-      <c r="AV7" s="1">
+      <c r="AV7" s="2">
         <v>0.890028661939944</v>
       </c>
-      <c r="AW7" s="1">
+      <c r="AW7" s="2">
         <v>4.54065469904962</v>
       </c>
-      <c r="AX7" s="1">
+      <c r="AX7" s="2">
         <v>0.890028661939944</v>
       </c>
-      <c r="AY7" s="1">
+      <c r="AY7" s="2">
         <v>1.79514255543822</v>
       </c>
-      <c r="AZ7" s="1">
+      <c r="AZ7" s="2">
         <v>68.16</v>
       </c>
-      <c r="BA7" s="1">
+      <c r="BA7" s="2">
         <v>68.87</v>
       </c>
-      <c r="BB7" s="1">
+      <c r="BB7" s="2">
         <v>66.05</v>
       </c>
-      <c r="BC7" s="1">
+      <c r="BC7" s="2">
         <v>68.28</v>
       </c>
-      <c r="BD7" s="1">
+      <c r="BD7" s="2">
         <v>78166568</v>
       </c>
-      <c r="BE7" s="1">
+      <c r="BE7" s="2">
         <v>2.82093830140291</v>
       </c>
-      <c r="BF7" s="1">
+      <c r="BF7" s="2">
         <v>3.89198974204254</v>
       </c>
-      <c r="BG7" s="1">
+      <c r="BG7" s="2">
         <v>-0.36204555739932</v>
       </c>
-      <c r="BH7" s="1">
+      <c r="BH7" s="2">
         <v>3.00196108010257</v>
       </c>
-      <c r="BI7" s="1">
+      <c r="BI7" s="2">
         <v>69.38</v>
       </c>
-      <c r="BJ7" s="1">
+      <c r="BJ7" s="2">
         <v>69.38</v>
       </c>
-      <c r="BK7" s="1">
+      <c r="BK7" s="2">
         <v>64.86</v>
       </c>
-      <c r="BL7" s="1">
+      <c r="BL7" s="2">
         <v>66.31</v>
       </c>
-      <c r="BM7" s="1">
+      <c r="BM7" s="2">
         <v>96851776</v>
       </c>
-      <c r="BN7" s="1">
+      <c r="BN7" s="2">
         <v>4.66133655151605</v>
       </c>
-      <c r="BO7" s="1">
+      <c r="BO7" s="2">
         <v>4.66133655151605</v>
       </c>
-      <c r="BP7" s="1">
+      <c r="BP7" s="2">
         <v>-2.15718811283754</v>
       </c>
-      <c r="BQ7" s="1">
+      <c r="BQ7" s="2">
         <v>0.0301704631166028</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:69">
-      <c r="A8" s="1" t="s">
+    <row r="8" s="2" customFormat="1" spans="1:69">
+      <c r="A8" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <v>55.09</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>1.60512538666667</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <v>-0.0439083651509892</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="2">
         <v>0.0656307129798902</v>
       </c>
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1</v>
-      </c>
-      <c r="I8" s="1">
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2">
         <v>2.94116548893079</v>
       </c>
-      <c r="J8" s="1">
-        <v>1</v>
-      </c>
-      <c r="K8" s="1">
+      <c r="J8" s="2">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2">
         <v>5</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="2">
         <v>5</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="2">
         <v>1.392</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N8" s="2">
         <v>11.455</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8" s="2">
         <v>8.04</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P8" s="2">
         <v>5.208</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="Q8" s="2">
         <v>28</v>
       </c>
-      <c r="R8" s="1">
-        <v>0</v>
-      </c>
-      <c r="S8" s="1">
+      <c r="R8" s="2">
+        <v>0</v>
+      </c>
+      <c r="S8" s="2">
         <v>25.066713</v>
       </c>
-      <c r="T8" s="1">
-        <v>0</v>
-      </c>
-      <c r="U8" s="1">
+      <c r="T8" s="2">
+        <v>0</v>
+      </c>
+      <c r="U8" s="2">
         <v>27.5526742301459</v>
       </c>
-      <c r="V8" s="1">
-        <v>0</v>
-      </c>
-      <c r="W8" s="1">
+      <c r="V8" s="2">
+        <v>0</v>
+      </c>
+      <c r="W8" s="2">
         <v>71.2213740458015</v>
       </c>
-      <c r="X8" s="1">
+      <c r="X8" s="2">
         <v>100</v>
       </c>
-      <c r="Y8" s="1">
+      <c r="Y8" s="2">
         <v>31.499</v>
       </c>
-      <c r="Z8" s="1">
+      <c r="Z8" s="2">
         <v>80</v>
       </c>
-      <c r="AA8" s="1">
+      <c r="AA8" s="2">
         <v>61.4383</v>
       </c>
-      <c r="AB8" s="1">
+      <c r="AB8" s="2">
         <v>50</v>
       </c>
-      <c r="AC8" s="1">
+      <c r="AC8" s="2">
         <v>70.2667</v>
       </c>
-      <c r="AD8" s="1">
+      <c r="AD8" s="2">
         <v>50</v>
       </c>
-      <c r="AE8" s="1">
+      <c r="AE8" s="2">
         <v>-1.91</v>
       </c>
-      <c r="AF8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="1">
+      <c r="AF8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="2">
         <v>57.89</v>
       </c>
-      <c r="AI8" s="1">
+      <c r="AI8" s="2">
         <v>58.29</v>
       </c>
-      <c r="AJ8" s="1">
+      <c r="AJ8" s="2">
         <v>54.7</v>
       </c>
-      <c r="AK8" s="1">
+      <c r="AK8" s="2">
         <v>55.09</v>
       </c>
-      <c r="AL8" s="1">
+      <c r="AL8" s="2">
         <v>102711136</v>
       </c>
-      <c r="AM8" s="1">
+      <c r="AM8" s="2">
         <v>5.08259212198221</v>
       </c>
-      <c r="AN8" s="1">
+      <c r="AN8" s="2">
         <v>5.8086767108368</v>
       </c>
-      <c r="AO8" s="1">
+      <c r="AO8" s="2">
         <v>-0.707932474133238</v>
       </c>
-      <c r="AP8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ8" s="1">
+      <c r="AP8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="2">
         <v>55.56</v>
       </c>
-      <c r="AR8" s="1">
+      <c r="AR8" s="2">
         <v>56.4</v>
       </c>
-      <c r="AS8" s="1">
+      <c r="AS8" s="2">
         <v>55.02</v>
       </c>
-      <c r="AT8" s="1">
+      <c r="AT8" s="2">
         <v>56.07</v>
       </c>
-      <c r="AU8" s="1">
+      <c r="AU8" s="2">
         <v>65374136</v>
       </c>
-      <c r="AV8" s="1">
+      <c r="AV8" s="2">
         <v>0.853149391904155</v>
       </c>
-      <c r="AW8" s="1">
+      <c r="AW8" s="2">
         <v>2.37792702849881</v>
       </c>
-      <c r="AX8" s="1">
+      <c r="AX8" s="2">
         <v>-0.127064803049556</v>
       </c>
-      <c r="AY8" s="1">
+      <c r="AY8" s="2">
         <v>1.77890724269377</v>
       </c>
-      <c r="AZ8" s="1">
+      <c r="AZ8" s="2">
         <v>56.41</v>
       </c>
-      <c r="BA8" s="1">
+      <c r="BA8" s="2">
         <v>56.98</v>
       </c>
-      <c r="BB8" s="1">
+      <c r="BB8" s="2">
         <v>55.2</v>
       </c>
-      <c r="BC8" s="1">
+      <c r="BC8" s="2">
         <v>55.43</v>
       </c>
-      <c r="BD8" s="1">
+      <c r="BD8" s="2">
         <v>50272768</v>
       </c>
-      <c r="BE8" s="1">
+      <c r="BE8" s="2">
         <v>2.39607914322019</v>
       </c>
-      <c r="BF8" s="1">
+      <c r="BF8" s="2">
         <v>3.43074968233799</v>
       </c>
-      <c r="BG8" s="1">
+      <c r="BG8" s="2">
         <v>0.199673261935014</v>
       </c>
-      <c r="BH8" s="1">
+      <c r="BH8" s="2">
         <v>0.617171900526405</v>
       </c>
-      <c r="BI8" s="1">
+      <c r="BI8" s="2">
         <v>55.43</v>
       </c>
-      <c r="BJ8" s="1">
+      <c r="BJ8" s="2">
         <v>55.97</v>
       </c>
-      <c r="BK8" s="1">
+      <c r="BK8" s="2">
         <v>54.26</v>
       </c>
-      <c r="BL8" s="1">
+      <c r="BL8" s="2">
         <v>54.52</v>
       </c>
-      <c r="BM8" s="1">
+      <c r="BM8" s="2">
         <v>66350016</v>
       </c>
-      <c r="BN8" s="1">
+      <c r="BN8" s="2">
         <v>0.617171900526405</v>
       </c>
-      <c r="BO8" s="1">
+      <c r="BO8" s="2">
         <v>1.59738609548011</v>
       </c>
-      <c r="BP8" s="1">
+      <c r="BP8" s="2">
         <v>-1.50662552187331</v>
       </c>
-      <c r="BQ8" s="1">
+      <c r="BQ8" s="2">
         <v>-1.03467053911781</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:69">
-      <c r="A9" s="1" t="s">
+    <row r="9" s="2" customFormat="1" spans="1:69">
+      <c r="A9" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <v>23.5</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <v>6.11582218666667</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
         <v>0.0279965004374453</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="2">
         <v>0.106605922551253</v>
       </c>
-      <c r="G9" s="1">
-        <v>1</v>
-      </c>
-      <c r="H9" s="1">
-        <v>1</v>
-      </c>
-      <c r="I9" s="1">
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2">
         <v>1.10325230737837</v>
       </c>
-      <c r="J9" s="1">
-        <v>1</v>
-      </c>
-      <c r="K9" s="1">
+      <c r="J9" s="2">
+        <v>1</v>
+      </c>
+      <c r="K9" s="2">
         <v>4</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="2">
         <v>5</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9" s="2">
         <v>1.897</v>
       </c>
-      <c r="N9" s="1">
+      <c r="N9" s="2">
         <v>2.537</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9" s="2">
         <v>1.735</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P9" s="2">
         <v>1.476</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="Q9" s="2">
         <v>60</v>
       </c>
-      <c r="R9" s="1">
+      <c r="R9" s="2">
         <v>60</v>
       </c>
-      <c r="S9" s="1">
+      <c r="S9" s="2">
         <v>36.036116</v>
       </c>
-      <c r="T9" s="1">
+      <c r="T9" s="2">
         <v>100</v>
       </c>
-      <c r="U9" s="1">
+      <c r="U9" s="2">
         <v>34.6704871060172</v>
       </c>
-      <c r="V9" s="1">
-        <v>0</v>
-      </c>
-      <c r="W9" s="1">
+      <c r="V9" s="2">
+        <v>0</v>
+      </c>
+      <c r="W9" s="2">
         <v>70.4711347047113</v>
       </c>
-      <c r="X9" s="1">
+      <c r="X9" s="2">
         <v>100</v>
       </c>
-      <c r="Y9" s="1">
+      <c r="Y9" s="2">
         <v>38.6812</v>
       </c>
-      <c r="Z9" s="1">
+      <c r="Z9" s="2">
         <v>80</v>
       </c>
-      <c r="AA9" s="1">
+      <c r="AA9" s="2">
         <v>75.1647</v>
       </c>
-      <c r="AB9" s="1">
+      <c r="AB9" s="2">
         <v>100</v>
       </c>
-      <c r="AC9" s="1">
+      <c r="AC9" s="2">
         <v>72.6667</v>
       </c>
-      <c r="AD9" s="1">
+      <c r="AD9" s="2">
         <v>50</v>
       </c>
-      <c r="AE9" s="1">
+      <c r="AE9" s="2">
         <v>-3.09</v>
       </c>
-      <c r="AF9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="1">
+      <c r="AF9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="2">
         <v>23.13</v>
       </c>
-      <c r="AI9" s="1">
+      <c r="AI9" s="2">
         <v>24.29</v>
       </c>
-      <c r="AJ9" s="1">
+      <c r="AJ9" s="2">
         <v>21.95</v>
       </c>
-      <c r="AK9" s="1">
+      <c r="AK9" s="2">
         <v>23.5</v>
       </c>
-      <c r="AL9" s="1">
+      <c r="AL9" s="2">
         <v>587556672</v>
       </c>
-      <c r="AM9" s="1">
+      <c r="AM9" s="2">
         <v>-1.57446808510639</v>
       </c>
-      <c r="AN9" s="1">
+      <c r="AN9" s="2">
         <v>3.36170212765957</v>
       </c>
-      <c r="AO9" s="1">
+      <c r="AO9" s="2">
         <v>-6.59574468085107</v>
       </c>
-      <c r="AP9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ9" s="1">
+      <c r="AP9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="2">
         <v>24.22</v>
       </c>
-      <c r="AR9" s="1">
+      <c r="AR9" s="2">
         <v>26.6</v>
       </c>
-      <c r="AS9" s="1">
+      <c r="AS9" s="2">
         <v>24.22</v>
       </c>
-      <c r="AT9" s="1">
+      <c r="AT9" s="2">
         <v>24.99</v>
       </c>
-      <c r="AU9" s="1">
+      <c r="AU9" s="2">
         <v>706802880</v>
       </c>
-      <c r="AV9" s="1">
+      <c r="AV9" s="2">
         <v>3.06382978723404</v>
       </c>
-      <c r="AW9" s="1">
+      <c r="AW9" s="2">
         <v>13.1914893617021</v>
       </c>
-      <c r="AX9" s="1">
+      <c r="AX9" s="2">
         <v>3.06382978723404</v>
       </c>
-      <c r="AY9" s="1">
+      <c r="AY9" s="2">
         <v>6.3404255319149</v>
       </c>
-      <c r="AZ9" s="1">
+      <c r="AZ9" s="2">
         <v>25.3</v>
       </c>
-      <c r="BA9" s="1">
+      <c r="BA9" s="2">
         <v>25.67</v>
       </c>
-      <c r="BB9" s="1">
+      <c r="BB9" s="2">
         <v>23.88</v>
       </c>
-      <c r="BC9" s="1">
+      <c r="BC9" s="2">
         <v>24.4</v>
       </c>
-      <c r="BD9" s="1">
+      <c r="BD9" s="2">
         <v>421939904</v>
       </c>
-      <c r="BE9" s="1">
+      <c r="BE9" s="2">
         <v>7.65957446808511</v>
       </c>
-      <c r="BF9" s="1">
+      <c r="BF9" s="2">
         <v>9.2340425531915</v>
       </c>
-      <c r="BG9" s="1">
+      <c r="BG9" s="2">
         <v>1.61702127659574</v>
       </c>
-      <c r="BH9" s="1">
+      <c r="BH9" s="2">
         <v>3.82978723404256</v>
       </c>
-      <c r="BI9" s="1">
+      <c r="BI9" s="2">
         <v>24.5</v>
       </c>
-      <c r="BJ9" s="1">
+      <c r="BJ9" s="2">
         <v>24.6</v>
       </c>
-      <c r="BK9" s="1">
+      <c r="BK9" s="2">
         <v>23.2</v>
       </c>
-      <c r="BL9" s="1">
+      <c r="BL9" s="2">
         <v>23.75</v>
       </c>
-      <c r="BM9" s="1">
+      <c r="BM9" s="2">
         <v>336772032</v>
       </c>
-      <c r="BN9" s="1">
+      <c r="BN9" s="2">
         <v>4.25531914893617</v>
       </c>
-      <c r="BO9" s="1">
+      <c r="BO9" s="2">
         <v>4.68085106382979</v>
       </c>
-      <c r="BP9" s="1">
+      <c r="BP9" s="2">
         <v>-1.27659574468085</v>
       </c>
-      <c r="BQ9" s="1">
+      <c r="BQ9" s="2">
         <v>1.06382978723404</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:69">
-      <c r="A10" s="1" t="s">
+    <row r="10" s="2" customFormat="1" spans="1:69">
+      <c r="A10" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <v>2.89</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <v>5.30838656</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2">
         <v>-0.0493421052631579</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="2">
         <v>0.13588850174216</v>
       </c>
-      <c r="G10" s="1">
-        <v>1</v>
-      </c>
-      <c r="H10" s="1">
-        <v>1</v>
-      </c>
-      <c r="I10" s="1">
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2">
         <v>0.132646950165171</v>
       </c>
-      <c r="J10" s="1">
-        <v>1</v>
-      </c>
-      <c r="K10" s="1">
+      <c r="J10" s="2">
+        <v>1</v>
+      </c>
+      <c r="K10" s="2">
         <v>2</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="2">
         <v>2</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10" s="2">
         <v>5.597</v>
       </c>
-      <c r="N10" s="1">
+      <c r="N10" s="2">
         <v>3.571</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10" s="2">
         <v>2.791</v>
       </c>
-      <c r="P10" s="1">
+      <c r="P10" s="2">
         <v>1.608</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="Q10" s="2">
         <v>50</v>
       </c>
-      <c r="R10" s="1">
+      <c r="R10" s="2">
         <v>60</v>
       </c>
-      <c r="S10" s="1">
+      <c r="S10" s="2">
         <v>30.304222</v>
       </c>
-      <c r="T10" s="1">
+      <c r="T10" s="2">
         <v>100</v>
       </c>
-      <c r="U10" s="1">
+      <c r="U10" s="2">
         <v>20.4166666666667</v>
       </c>
-      <c r="V10" s="1">
-        <v>0</v>
-      </c>
-      <c r="W10" s="1">
+      <c r="V10" s="2">
+        <v>0</v>
+      </c>
+      <c r="W10" s="2">
         <v>50.9259259259259</v>
       </c>
-      <c r="X10" s="1">
+      <c r="X10" s="2">
         <v>100</v>
       </c>
-      <c r="Y10" s="1">
+      <c r="Y10" s="2">
         <v>36.0756</v>
       </c>
-      <c r="Z10" s="1">
+      <c r="Z10" s="2">
         <v>80</v>
       </c>
-      <c r="AA10" s="1">
+      <c r="AA10" s="2">
         <v>53.889</v>
       </c>
-      <c r="AB10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="1">
+      <c r="AB10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="2">
         <v>77.7333</v>
       </c>
-      <c r="AD10" s="1">
+      <c r="AD10" s="2">
         <v>50</v>
       </c>
-      <c r="AE10" s="1">
+      <c r="AE10" s="2">
         <v>-1.57</v>
       </c>
-      <c r="AF10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="1">
+      <c r="AF10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="2">
         <v>3.05</v>
       </c>
-      <c r="AI10" s="1">
+      <c r="AI10" s="2">
         <v>3.26</v>
       </c>
-      <c r="AJ10" s="1">
+      <c r="AJ10" s="2">
         <v>2.87</v>
       </c>
-      <c r="AK10" s="1">
+      <c r="AK10" s="2">
         <v>2.89</v>
       </c>
-      <c r="AL10" s="1">
+      <c r="AL10" s="2">
         <v>800903104</v>
       </c>
-      <c r="AM10" s="1">
+      <c r="AM10" s="2">
         <v>5.5363321799308</v>
       </c>
-      <c r="AN10" s="1">
+      <c r="AN10" s="2">
         <v>12.80276816609</v>
       </c>
-      <c r="AO10" s="1">
+      <c r="AO10" s="2">
         <v>-0.69204152249135</v>
       </c>
-      <c r="AP10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ10" s="1">
+      <c r="AP10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="2">
         <v>2.87</v>
       </c>
-      <c r="AR10" s="1">
+      <c r="AR10" s="2">
         <v>2.97</v>
       </c>
-      <c r="AS10" s="1">
+      <c r="AS10" s="2">
         <v>2.77</v>
       </c>
-      <c r="AT10" s="1">
+      <c r="AT10" s="2">
         <v>2.89</v>
       </c>
-      <c r="AU10" s="1">
+      <c r="AU10" s="2">
         <v>434510112</v>
       </c>
-      <c r="AV10" s="1">
+      <c r="AV10" s="2">
         <v>-0.69204152249135</v>
       </c>
-      <c r="AW10" s="1">
+      <c r="AW10" s="2">
         <v>2.7681660899654</v>
       </c>
-      <c r="AX10" s="1">
+      <c r="AX10" s="2">
         <v>-4.1522491349481</v>
       </c>
-      <c r="AY10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ10" s="1">
+      <c r="AY10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ10" s="2">
         <v>2.91</v>
       </c>
-      <c r="BA10" s="1">
+      <c r="BA10" s="2">
         <v>2.97</v>
       </c>
-      <c r="BB10" s="1">
+      <c r="BB10" s="2">
         <v>2.82</v>
       </c>
-      <c r="BC10" s="1">
+      <c r="BC10" s="2">
         <v>2.83</v>
       </c>
-      <c r="BD10" s="1">
+      <c r="BD10" s="2">
         <v>344549760</v>
       </c>
-      <c r="BE10" s="1">
+      <c r="BE10" s="2">
         <v>0.69204152249135</v>
       </c>
-      <c r="BF10" s="1">
+      <c r="BF10" s="2">
         <v>2.7681660899654</v>
       </c>
-      <c r="BG10" s="1">
+      <c r="BG10" s="2">
         <v>-2.42214532871973</v>
       </c>
-      <c r="BH10" s="1">
+      <c r="BH10" s="2">
         <v>-2.07612456747405</v>
       </c>
-      <c r="BI10" s="1">
+      <c r="BI10" s="2">
         <v>2.81</v>
       </c>
-      <c r="BJ10" s="1">
+      <c r="BJ10" s="2">
         <v>2.87</v>
       </c>
-      <c r="BK10" s="1">
+      <c r="BK10" s="2">
         <v>2.79</v>
       </c>
-      <c r="BL10" s="1">
+      <c r="BL10" s="2">
         <v>2.81</v>
       </c>
-      <c r="BM10" s="1">
+      <c r="BM10" s="2">
         <v>222031904</v>
       </c>
-      <c r="BN10" s="1">
+      <c r="BN10" s="2">
         <v>-2.7681660899654</v>
       </c>
-      <c r="BO10" s="1">
+      <c r="BO10" s="2">
         <v>-0.69204152249135</v>
       </c>
-      <c r="BP10" s="1">
+      <c r="BP10" s="2">
         <v>-3.46020761245675</v>
       </c>
-      <c r="BQ10" s="1">
+      <c r="BQ10" s="2">
         <v>-2.7681660899654</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:69">
-      <c r="A11" s="1" t="s">
+    <row r="11" s="2" customFormat="1" spans="1:69">
+      <c r="A11" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <v>25.99</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="2">
         <v>22.8239202133333</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2">
         <v>-0.0240330454374764</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="2">
         <v>0.0725868725868725</v>
       </c>
-      <c r="G11" s="1">
-        <v>1</v>
-      </c>
-      <c r="H11" s="1">
-        <v>1</v>
-      </c>
-      <c r="I11" s="1">
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2">
         <v>1.47620687864275</v>
       </c>
-      <c r="J11" s="1">
-        <v>1</v>
-      </c>
-      <c r="K11" s="1">
+      <c r="J11" s="2">
+        <v>1</v>
+      </c>
+      <c r="K11" s="2">
         <v>4</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="2">
         <v>4</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11" s="2">
         <v>4.15</v>
       </c>
-      <c r="N11" s="1">
+      <c r="N11" s="2">
         <v>5.813</v>
       </c>
-      <c r="O11" s="1">
+      <c r="O11" s="2">
         <v>3.041</v>
       </c>
-      <c r="P11" s="1">
+      <c r="P11" s="2">
         <v>2.077</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="Q11" s="2">
         <v>70</v>
       </c>
-      <c r="R11" s="1">
+      <c r="R11" s="2">
         <v>100</v>
       </c>
-      <c r="S11" s="1">
+      <c r="S11" s="2">
         <v>186.84547</v>
       </c>
-      <c r="T11" s="1">
+      <c r="T11" s="2">
         <v>100</v>
       </c>
-      <c r="U11" s="1">
+      <c r="U11" s="2">
         <v>48.5991995425958</v>
       </c>
-      <c r="V11" s="1">
+      <c r="V11" s="2">
         <v>50</v>
       </c>
-      <c r="W11" s="1">
+      <c r="W11" s="2">
         <v>89.8412698412698</v>
       </c>
-      <c r="X11" s="1">
+      <c r="X11" s="2">
         <v>100</v>
       </c>
-      <c r="Y11" s="1">
+      <c r="Y11" s="2">
         <v>44.0418</v>
       </c>
-      <c r="Z11" s="1">
+      <c r="Z11" s="2">
         <v>100</v>
       </c>
-      <c r="AA11" s="1">
+      <c r="AA11" s="2">
         <v>59.3991</v>
       </c>
-      <c r="AB11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="1">
+      <c r="AB11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="2">
         <v>89.0667</v>
       </c>
-      <c r="AD11" s="1">
+      <c r="AD11" s="2">
         <v>100</v>
       </c>
-      <c r="AE11" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="1">
+      <c r="AE11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="2">
         <v>26.34</v>
       </c>
-      <c r="AI11" s="1">
+      <c r="AI11" s="2">
         <v>27.78</v>
       </c>
-      <c r="AJ11" s="1">
+      <c r="AJ11" s="2">
         <v>25.9</v>
       </c>
-      <c r="AK11" s="1">
+      <c r="AK11" s="2">
         <v>25.99</v>
       </c>
-      <c r="AL11" s="1">
+      <c r="AL11" s="2">
         <v>1519100032</v>
       </c>
-      <c r="AM11" s="1">
+      <c r="AM11" s="2">
         <v>1.34667179684493</v>
       </c>
-      <c r="AN11" s="1">
+      <c r="AN11" s="2">
         <v>6.88726433243555</v>
       </c>
-      <c r="AO11" s="1">
+      <c r="AO11" s="2">
         <v>-0.346287033474413</v>
       </c>
-      <c r="AP11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ11" s="1">
+      <c r="AP11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="2">
         <v>26.35</v>
       </c>
-      <c r="AR11" s="1">
+      <c r="AR11" s="2">
         <v>26.85</v>
       </c>
-      <c r="AS11" s="1">
+      <c r="AS11" s="2">
         <v>25.85</v>
       </c>
-      <c r="AT11" s="1">
+      <c r="AT11" s="2">
         <v>25.91</v>
       </c>
-      <c r="AU11" s="1">
+      <c r="AU11" s="2">
         <v>1053418752</v>
       </c>
-      <c r="AV11" s="1">
+      <c r="AV11" s="2">
         <v>1.38514813389765</v>
       </c>
-      <c r="AW11" s="1">
+      <c r="AW11" s="2">
         <v>3.30896498653328</v>
       </c>
-      <c r="AX11" s="1">
+      <c r="AX11" s="2">
         <v>-0.538668718737978</v>
       </c>
-      <c r="AY11" s="1">
+      <c r="AY11" s="2">
         <v>-0.307810696421708</v>
       </c>
-      <c r="AZ11" s="1">
+      <c r="AZ11" s="2">
         <v>25.92</v>
       </c>
-      <c r="BA11" s="1">
+      <c r="BA11" s="2">
         <v>26.32</v>
       </c>
-      <c r="BB11" s="1">
+      <c r="BB11" s="2">
         <v>25.19</v>
       </c>
-      <c r="BC11" s="1">
+      <c r="BC11" s="2">
         <v>25.26</v>
       </c>
-      <c r="BD11" s="1">
+      <c r="BD11" s="2">
         <v>1042643584</v>
       </c>
-      <c r="BE11" s="1">
+      <c r="BE11" s="2">
         <v>-0.269334359368989</v>
       </c>
-      <c r="BF11" s="1">
+      <c r="BF11" s="2">
         <v>1.26971912273951</v>
       </c>
-      <c r="BG11" s="1">
+      <c r="BG11" s="2">
         <v>-3.07810696421701</v>
       </c>
-      <c r="BH11" s="1">
+      <c r="BH11" s="2">
         <v>-2.80877260484802</v>
       </c>
-      <c r="BI11" s="1">
+      <c r="BI11" s="2">
         <v>25.73</v>
       </c>
-      <c r="BJ11" s="1">
+      <c r="BJ11" s="2">
         <v>25.99</v>
       </c>
-      <c r="BK11" s="1">
+      <c r="BK11" s="2">
         <v>25.2</v>
       </c>
-      <c r="BL11" s="1">
+      <c r="BL11" s="2">
         <v>25.55</v>
       </c>
-      <c r="BM11" s="1">
+      <c r="BM11" s="2">
         <v>789019008</v>
       </c>
-      <c r="BN11" s="1">
+      <c r="BN11" s="2">
         <v>-1.00038476337053</v>
       </c>
-      <c r="BO11" s="1">
-        <v>0</v>
-      </c>
-      <c r="BP11" s="1">
+      <c r="BO11" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP11" s="2">
         <v>-3.0396306271643</v>
       </c>
-      <c r="BQ11" s="1">
+      <c r="BQ11" s="2">
         <v>-1.69295883031936</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:69">
-      <c r="A12" s="1" t="s">
+    <row r="12" s="2" customFormat="1" spans="1:69">
+      <c r="A12" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="2">
         <v>7.93</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="2">
         <v>7.09032277333333</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="2">
         <v>-0.0779069767441859</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="2">
         <v>0.107594936708861</v>
       </c>
-      <c r="G12" s="1">
-        <v>1</v>
-      </c>
-      <c r="H12" s="1">
-        <v>1</v>
-      </c>
-      <c r="I12" s="1">
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2">
         <v>0.368522011071211</v>
       </c>
-      <c r="J12" s="1">
-        <v>1</v>
-      </c>
-      <c r="K12" s="1">
+      <c r="J12" s="2">
+        <v>1</v>
+      </c>
+      <c r="K12" s="2">
         <v>4</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12" s="2">
         <v>4</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M12" s="2">
         <v>2.253</v>
       </c>
-      <c r="N12" s="1">
+      <c r="N12" s="2">
         <v>3.744</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O12" s="2">
         <v>1.955</v>
       </c>
-      <c r="P12" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="1">
+      <c r="P12" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="2">
         <v>38</v>
       </c>
-      <c r="R12" s="1">
+      <c r="R12" s="2">
         <v>60</v>
       </c>
-      <c r="S12" s="1">
+      <c r="S12" s="2">
         <v>24.356078</v>
       </c>
-      <c r="T12" s="1">
-        <v>0</v>
-      </c>
-      <c r="U12" s="1">
+      <c r="T12" s="2">
+        <v>0</v>
+      </c>
+      <c r="U12" s="2">
         <v>9.37931034482759</v>
       </c>
-      <c r="V12" s="1">
-        <v>0</v>
-      </c>
-      <c r="W12" s="1">
+      <c r="V12" s="2">
+        <v>0</v>
+      </c>
+      <c r="W12" s="2">
         <v>74.5387453874539</v>
       </c>
-      <c r="X12" s="1">
+      <c r="X12" s="2">
         <v>100</v>
       </c>
-      <c r="Y12" s="1">
+      <c r="Y12" s="2">
         <v>33.6243</v>
       </c>
-      <c r="Z12" s="1">
+      <c r="Z12" s="2">
         <v>80</v>
       </c>
-      <c r="AA12" s="1">
+      <c r="AA12" s="2">
         <v>59.8471</v>
       </c>
-      <c r="AB12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="1">
+      <c r="AB12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="2">
         <v>84.2667</v>
       </c>
-      <c r="AD12" s="1">
+      <c r="AD12" s="2">
         <v>80</v>
       </c>
-      <c r="AE12" s="1">
+      <c r="AE12" s="2">
         <v>-1.78</v>
       </c>
-      <c r="AF12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH12" s="1">
+      <c r="AF12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="2">
         <v>8.49</v>
       </c>
-      <c r="AI12" s="1">
+      <c r="AI12" s="2">
         <v>8.75</v>
       </c>
-      <c r="AJ12" s="1">
+      <c r="AJ12" s="2">
         <v>7.9</v>
       </c>
-      <c r="AK12" s="1">
+      <c r="AK12" s="2">
         <v>7.93</v>
       </c>
-      <c r="AL12" s="1">
+      <c r="AL12" s="2">
         <v>676949504</v>
       </c>
-      <c r="AM12" s="1">
+      <c r="AM12" s="2">
         <v>7.06179066834804</v>
       </c>
-      <c r="AN12" s="1">
+      <c r="AN12" s="2">
         <v>10.3404791929382</v>
       </c>
-      <c r="AO12" s="1">
+      <c r="AO12" s="2">
         <v>-0.378310214375791</v>
       </c>
-      <c r="AP12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ12" s="1">
+      <c r="AP12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="2">
         <v>7.85</v>
       </c>
-      <c r="AR12" s="1">
+      <c r="AR12" s="2">
         <v>8.09</v>
       </c>
-      <c r="AS12" s="1">
+      <c r="AS12" s="2">
         <v>7.78</v>
       </c>
-      <c r="AT12" s="1">
+      <c r="AT12" s="2">
         <v>7.89</v>
       </c>
-      <c r="AU12" s="1">
+      <c r="AU12" s="2">
         <v>442423712</v>
       </c>
-      <c r="AV12" s="1">
+      <c r="AV12" s="2">
         <v>-1.00882723833544</v>
       </c>
-      <c r="AW12" s="1">
+      <c r="AW12" s="2">
         <v>2.01765447667086</v>
       </c>
-      <c r="AX12" s="1">
+      <c r="AX12" s="2">
         <v>-1.89155107187894</v>
       </c>
-      <c r="AY12" s="1">
+      <c r="AY12" s="2">
         <v>-0.504413619167718</v>
       </c>
-      <c r="AZ12" s="1">
+      <c r="AZ12" s="2">
         <v>7.92</v>
       </c>
-      <c r="BA12" s="1">
+      <c r="BA12" s="2">
         <v>7.97</v>
       </c>
-      <c r="BB12" s="1">
+      <c r="BB12" s="2">
         <v>7.67</v>
       </c>
-      <c r="BC12" s="1">
+      <c r="BC12" s="2">
         <v>7.85</v>
       </c>
-      <c r="BD12" s="1">
+      <c r="BD12" s="2">
         <v>383374720</v>
       </c>
-      <c r="BE12" s="1">
+      <c r="BE12" s="2">
         <v>-0.126103404791938</v>
       </c>
-      <c r="BF12" s="1">
+      <c r="BF12" s="2">
         <v>0.504413619167707</v>
       </c>
-      <c r="BG12" s="1">
+      <c r="BG12" s="2">
         <v>-3.27868852459017</v>
       </c>
-      <c r="BH12" s="1">
+      <c r="BH12" s="2">
         <v>-1.00882723833544</v>
       </c>
-      <c r="BI12" s="1">
+      <c r="BI12" s="2">
         <v>7.83</v>
       </c>
-      <c r="BJ12" s="1">
+      <c r="BJ12" s="2">
         <v>8.29</v>
       </c>
-      <c r="BK12" s="1">
+      <c r="BK12" s="2">
         <v>7.76</v>
       </c>
-      <c r="BL12" s="1">
+      <c r="BL12" s="2">
         <v>8.29</v>
       </c>
-      <c r="BM12" s="1">
+      <c r="BM12" s="2">
         <v>592932288</v>
       </c>
-      <c r="BN12" s="1">
+      <c r="BN12" s="2">
         <v>-1.2610340479193</v>
       </c>
-      <c r="BO12" s="1">
+      <c r="BO12" s="2">
         <v>4.53972257250946</v>
       </c>
-      <c r="BP12" s="1">
+      <c r="BP12" s="2">
         <v>-2.14375788146281</v>
       </c>
-      <c r="BQ12" s="1">
+      <c r="BQ12" s="2">
         <v>4.53972257250946</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:69">
-      <c r="A13" s="1" t="s">
+    <row r="13" s="2" customFormat="1" spans="1:69">
+      <c r="A13" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="2">
         <v>8.55</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="2">
         <v>2.13396949333333</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="2">
         <v>-0.0172413793103449</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="2">
         <v>0.106205250596659</v>
       </c>
-      <c r="G13" s="1">
-        <v>1</v>
-      </c>
-      <c r="H13" s="1">
-        <v>1</v>
-      </c>
-      <c r="I13" s="1">
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2">
         <v>0.42189283292097</v>
       </c>
-      <c r="J13" s="1">
-        <v>1</v>
-      </c>
-      <c r="K13" s="1">
+      <c r="J13" s="2">
+        <v>1</v>
+      </c>
+      <c r="K13" s="2">
         <v>12</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13" s="2">
         <v>10</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13" s="2">
         <v>0.818</v>
       </c>
-      <c r="N13" s="1">
+      <c r="N13" s="2">
         <v>1.663</v>
       </c>
-      <c r="O13" s="1">
+      <c r="O13" s="2">
         <v>1.283</v>
       </c>
-      <c r="P13" s="1">
+      <c r="P13" s="2">
         <v>1.364</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="Q13" s="2">
         <v>38</v>
       </c>
-      <c r="R13" s="1">
-        <v>0</v>
-      </c>
-      <c r="S13" s="1">
+      <c r="R13" s="2">
+        <v>0</v>
+      </c>
+      <c r="S13" s="2">
         <v>25.350681</v>
       </c>
-      <c r="T13" s="1">
-        <v>0</v>
-      </c>
-      <c r="U13" s="1">
+      <c r="T13" s="2">
+        <v>0</v>
+      </c>
+      <c r="U13" s="2">
         <v>83.8709677419355</v>
       </c>
-      <c r="V13" s="1">
+      <c r="V13" s="2">
         <v>100</v>
       </c>
-      <c r="W13" s="1">
+      <c r="W13" s="2">
         <v>127.205882352941</v>
       </c>
-      <c r="X13" s="1">
+      <c r="X13" s="2">
         <v>100</v>
       </c>
-      <c r="Y13" s="1">
+      <c r="Y13" s="2">
         <v>34.2005</v>
       </c>
-      <c r="Z13" s="1">
+      <c r="Z13" s="2">
         <v>80</v>
       </c>
-      <c r="AA13" s="1">
+      <c r="AA13" s="2">
         <v>63.7983</v>
       </c>
-      <c r="AB13" s="1">
+      <c r="AB13" s="2">
         <v>50</v>
       </c>
-      <c r="AC13" s="1">
+      <c r="AC13" s="2">
         <v>76.5333</v>
       </c>
-      <c r="AD13" s="1">
+      <c r="AD13" s="2">
         <v>50</v>
       </c>
-      <c r="AE13" s="1">
+      <c r="AE13" s="2">
         <v>-1.64</v>
       </c>
-      <c r="AF13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH13" s="1">
+      <c r="AF13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="2">
         <v>8.72</v>
       </c>
-      <c r="AI13" s="1">
+      <c r="AI13" s="2">
         <v>9.27</v>
       </c>
-      <c r="AJ13" s="1">
+      <c r="AJ13" s="2">
         <v>8.38</v>
       </c>
-      <c r="AK13" s="1">
+      <c r="AK13" s="2">
         <v>8.55</v>
       </c>
-      <c r="AL13" s="1">
+      <c r="AL13" s="2">
         <v>220123456</v>
       </c>
-      <c r="AM13" s="1">
+      <c r="AM13" s="2">
         <v>1.98830409356725</v>
       </c>
-      <c r="AN13" s="1">
+      <c r="AN13" s="2">
         <v>8.42105263157893</v>
       </c>
-      <c r="AO13" s="1">
+      <c r="AO13" s="2">
         <v>-1.98830409356725</v>
       </c>
-      <c r="AP13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ13" s="1">
+      <c r="AP13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="2">
         <v>8.65</v>
       </c>
-      <c r="AR13" s="1">
+      <c r="AR13" s="2">
         <v>8.97</v>
       </c>
-      <c r="AS13" s="1">
+      <c r="AS13" s="2">
         <v>8.51</v>
       </c>
-      <c r="AT13" s="1">
+      <c r="AT13" s="2">
         <v>8.83</v>
       </c>
-      <c r="AU13" s="1">
+      <c r="AU13" s="2">
         <v>170875824</v>
       </c>
-      <c r="AV13" s="1">
+      <c r="AV13" s="2">
         <v>1.16959064327485</v>
       </c>
-      <c r="AW13" s="1">
+      <c r="AW13" s="2">
         <v>4.91228070175438</v>
       </c>
-      <c r="AX13" s="1">
+      <c r="AX13" s="2">
         <v>-0.467836257309952</v>
       </c>
-      <c r="AY13" s="1">
+      <c r="AY13" s="2">
         <v>3.27485380116958</v>
       </c>
-      <c r="AZ13" s="1">
+      <c r="AZ13" s="2">
         <v>8.88</v>
       </c>
-      <c r="BA13" s="1">
+      <c r="BA13" s="2">
         <v>9.08</v>
       </c>
-      <c r="BB13" s="1">
+      <c r="BB13" s="2">
         <v>8.75</v>
       </c>
-      <c r="BC13" s="1">
+      <c r="BC13" s="2">
         <v>8.98</v>
       </c>
-      <c r="BD13" s="1">
+      <c r="BD13" s="2">
         <v>140980720</v>
       </c>
-      <c r="BE13" s="1">
+      <c r="BE13" s="2">
         <v>3.85964912280702</v>
       </c>
-      <c r="BF13" s="1">
+      <c r="BF13" s="2">
         <v>6.19883040935672</v>
       </c>
-      <c r="BG13" s="1">
+      <c r="BG13" s="2">
         <v>2.3391812865497</v>
       </c>
-      <c r="BH13" s="1">
+      <c r="BH13" s="2">
         <v>5.02923976608187</v>
       </c>
-      <c r="BI13" s="1">
+      <c r="BI13" s="2">
         <v>8.88</v>
       </c>
-      <c r="BJ13" s="1">
+      <c r="BJ13" s="2">
         <v>8.92</v>
       </c>
-      <c r="BK13" s="1">
+      <c r="BK13" s="2">
         <v>7.93</v>
       </c>
-      <c r="BL13" s="1">
+      <c r="BL13" s="2">
         <v>8.38</v>
       </c>
-      <c r="BM13" s="1">
+      <c r="BM13" s="2">
         <v>298852640</v>
       </c>
-      <c r="BN13" s="1">
+      <c r="BN13" s="2">
         <v>3.85964912280702</v>
       </c>
-      <c r="BO13" s="1">
+      <c r="BO13" s="2">
         <v>4.32748538011695</v>
       </c>
-      <c r="BP13" s="1">
+      <c r="BP13" s="2">
         <v>-7.25146198830409</v>
       </c>
-      <c r="BQ13" s="1">
+      <c r="BQ13" s="2">
         <v>-1.98830409356725</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="1:69">
-      <c r="A14" s="1" t="s">
+    <row r="14" s="2" customFormat="1" spans="1:69">
+      <c r="A14" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="2">
         <v>6.83</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="2">
         <v>1.78478784</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="2">
         <v>0.00589101620029456</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="2">
         <v>0.0706921944035347</v>
       </c>
-      <c r="G14" s="1">
-        <v>1</v>
-      </c>
-      <c r="H14" s="1">
-        <v>1</v>
-      </c>
-      <c r="I14" s="1">
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2">
         <v>0.344780175266085</v>
       </c>
-      <c r="J14" s="1">
-        <v>1</v>
-      </c>
-      <c r="K14" s="1">
+      <c r="J14" s="2">
+        <v>1</v>
+      </c>
+      <c r="K14" s="2">
         <v>11</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14" s="2">
         <v>10</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14" s="2">
         <v>1.472</v>
       </c>
-      <c r="N14" s="1">
+      <c r="N14" s="2">
         <v>1.109</v>
       </c>
-      <c r="O14" s="1">
+      <c r="O14" s="2">
         <v>1.396</v>
       </c>
-      <c r="P14" s="1">
+      <c r="P14" s="2">
         <v>3.172</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="Q14" s="2">
         <v>36</v>
       </c>
-      <c r="R14" s="1">
-        <v>0</v>
-      </c>
-      <c r="S14" s="1">
+      <c r="R14" s="2">
+        <v>0</v>
+      </c>
+      <c r="S14" s="2">
         <v>24.754555</v>
       </c>
-      <c r="T14" s="1">
-        <v>0</v>
-      </c>
-      <c r="U14" s="1">
+      <c r="T14" s="2">
+        <v>0</v>
+      </c>
+      <c r="U14" s="2">
         <v>58.1018518518518</v>
       </c>
-      <c r="V14" s="1">
+      <c r="V14" s="2">
         <v>50</v>
       </c>
-      <c r="W14" s="1">
+      <c r="W14" s="2">
         <v>87.4358974358975</v>
       </c>
-      <c r="X14" s="1">
+      <c r="X14" s="2">
         <v>100</v>
       </c>
-      <c r="Y14" s="1">
+      <c r="Y14" s="2">
         <v>35.6076</v>
       </c>
-      <c r="Z14" s="1">
+      <c r="Z14" s="2">
         <v>80</v>
       </c>
-      <c r="AA14" s="1">
+      <c r="AA14" s="2">
         <v>64.2349</v>
       </c>
-      <c r="AB14" s="1">
+      <c r="AB14" s="2">
         <v>50</v>
       </c>
-      <c r="AC14" s="1">
+      <c r="AC14" s="2">
         <v>80.2667</v>
       </c>
-      <c r="AD14" s="1">
+      <c r="AD14" s="2">
         <v>80</v>
       </c>
-      <c r="AE14" s="1">
+      <c r="AE14" s="2">
         <v>1.43</v>
       </c>
-      <c r="AF14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG14" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH14" s="1">
+      <c r="AF14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="2">
         <v>6.79</v>
       </c>
-      <c r="AI14" s="1">
+      <c r="AI14" s="2">
         <v>7.27</v>
       </c>
-      <c r="AJ14" s="1">
+      <c r="AJ14" s="2">
         <v>6.79</v>
       </c>
-      <c r="AK14" s="1">
+      <c r="AK14" s="2">
         <v>6.83</v>
       </c>
-      <c r="AL14" s="1">
+      <c r="AL14" s="2">
         <v>177882800</v>
       </c>
-      <c r="AM14" s="1">
+      <c r="AM14" s="2">
         <v>-0.585651537335286</v>
       </c>
-      <c r="AN14" s="1">
+      <c r="AN14" s="2">
         <v>6.44216691068815</v>
       </c>
-      <c r="AO14" s="1">
+      <c r="AO14" s="2">
         <v>-0.585651537335286</v>
       </c>
-      <c r="AP14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ14" s="1">
+      <c r="AP14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="2">
         <v>6.7</v>
       </c>
-      <c r="AR14" s="1">
+      <c r="AR14" s="2">
         <v>7.03</v>
       </c>
-      <c r="AS14" s="1">
+      <c r="AS14" s="2">
         <v>6.55</v>
       </c>
-      <c r="AT14" s="1">
+      <c r="AT14" s="2">
         <v>6.99</v>
       </c>
-      <c r="AU14" s="1">
+      <c r="AU14" s="2">
         <v>150805504</v>
       </c>
-      <c r="AV14" s="1">
+      <c r="AV14" s="2">
         <v>-1.90336749633968</v>
       </c>
-      <c r="AW14" s="1">
+      <c r="AW14" s="2">
         <v>2.92825768667643</v>
       </c>
-      <c r="AX14" s="1">
+      <c r="AX14" s="2">
         <v>-4.099560761347</v>
       </c>
-      <c r="AY14" s="1">
+      <c r="AY14" s="2">
         <v>2.34260614934114</v>
       </c>
-      <c r="AZ14" s="1">
+      <c r="AZ14" s="2">
         <v>6.98</v>
       </c>
-      <c r="BA14" s="1">
+      <c r="BA14" s="2">
         <v>7</v>
       </c>
-      <c r="BB14" s="1">
+      <c r="BB14" s="2">
         <v>6.8</v>
       </c>
-      <c r="BC14" s="1">
+      <c r="BC14" s="2">
         <v>6.82</v>
       </c>
-      <c r="BD14" s="1">
+      <c r="BD14" s="2">
         <v>96458144</v>
       </c>
-      <c r="BE14" s="1">
+      <c r="BE14" s="2">
         <v>2.19619326500733</v>
       </c>
-      <c r="BF14" s="1">
+      <c r="BF14" s="2">
         <v>2.48901903367496</v>
       </c>
-      <c r="BG14" s="1">
+      <c r="BG14" s="2">
         <v>-0.439238653001468</v>
       </c>
-      <c r="BH14" s="1">
+      <c r="BH14" s="2">
         <v>-0.146412884333818</v>
       </c>
-      <c r="BI14" s="1">
+      <c r="BI14" s="2">
         <v>6.8</v>
       </c>
-      <c r="BJ14" s="1">
+      <c r="BJ14" s="2">
         <v>7.25</v>
       </c>
-      <c r="BK14" s="1">
+      <c r="BK14" s="2">
         <v>6.63</v>
       </c>
-      <c r="BL14" s="1">
+      <c r="BL14" s="2">
         <v>7.14</v>
       </c>
-      <c r="BM14" s="1">
+      <c r="BM14" s="2">
         <v>168214640</v>
       </c>
-      <c r="BN14" s="1">
+      <c r="BN14" s="2">
         <v>-0.439238653001468</v>
       </c>
-      <c r="BO14" s="1">
+      <c r="BO14" s="2">
         <v>6.1493411420205</v>
       </c>
-      <c r="BP14" s="1">
+      <c r="BP14" s="2">
         <v>-2.92825768667643</v>
       </c>
-      <c r="BQ14" s="1">
+      <c r="BQ14" s="2">
         <v>4.53879941434847</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:69">
-      <c r="A15" s="1" t="s">
+    <row r="15" s="2" customFormat="1" spans="1:69">
+      <c r="A15" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="2">
         <v>74.6</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="2">
         <v>5.90516416</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="2">
         <v>-0.0684315684315683</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="2">
         <v>0.0878552971576226</v>
       </c>
-      <c r="G15" s="1">
-        <v>1</v>
-      </c>
-      <c r="H15" s="1">
-        <v>1</v>
-      </c>
-      <c r="I15" s="1">
+      <c r="G15" s="2">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2">
         <v>5.2748786400105</v>
       </c>
-      <c r="J15" s="1">
-        <v>1</v>
-      </c>
-      <c r="K15" s="1">
+      <c r="J15" s="2">
+        <v>1</v>
+      </c>
+      <c r="K15" s="2">
         <v>8</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15" s="2">
         <v>8</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M15" s="2">
         <v>0.808</v>
       </c>
-      <c r="N15" s="1">
+      <c r="N15" s="2">
         <v>1.42</v>
       </c>
-      <c r="O15" s="1">
+      <c r="O15" s="2">
         <v>2.515</v>
       </c>
-      <c r="P15" s="1">
+      <c r="P15" s="2">
         <v>2.128</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="Q15" s="2">
         <v>62</v>
       </c>
-      <c r="R15" s="1">
+      <c r="R15" s="2">
         <v>60</v>
       </c>
-      <c r="S15" s="1">
+      <c r="S15" s="2">
         <v>45.584903</v>
       </c>
-      <c r="T15" s="1">
+      <c r="T15" s="2">
         <v>100</v>
       </c>
-      <c r="U15" s="1">
+      <c r="U15" s="2">
         <v>104.15982484948</v>
       </c>
-      <c r="V15" s="1">
+      <c r="V15" s="2">
         <v>100</v>
       </c>
-      <c r="W15" s="1">
+      <c r="W15" s="2">
         <v>174.828599412341</v>
       </c>
-      <c r="X15" s="1">
+      <c r="X15" s="2">
         <v>100</v>
       </c>
-      <c r="Y15" s="1">
+      <c r="Y15" s="2">
         <v>43.9218</v>
       </c>
-      <c r="Z15" s="1">
+      <c r="Z15" s="2">
         <v>100</v>
       </c>
-      <c r="AA15" s="1">
+      <c r="AA15" s="2">
         <v>58.9008</v>
       </c>
-      <c r="AB15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="1">
+      <c r="AB15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="2">
         <v>76.9333</v>
       </c>
-      <c r="AD15" s="1">
+      <c r="AD15" s="2">
         <v>50</v>
       </c>
-      <c r="AE15" s="1">
+      <c r="AE15" s="2">
         <v>-1.11</v>
       </c>
-      <c r="AF15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG15" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH15" s="1">
+      <c r="AF15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="2">
         <v>79.51</v>
       </c>
-      <c r="AI15" s="1">
+      <c r="AI15" s="2">
         <v>79.99</v>
       </c>
-      <c r="AJ15" s="1">
+      <c r="AJ15" s="2">
         <v>73.53</v>
       </c>
-      <c r="AK15" s="1">
+      <c r="AK15" s="2">
         <v>74.6</v>
       </c>
-      <c r="AL15" s="1">
+      <c r="AL15" s="2">
         <v>653478656</v>
       </c>
-      <c r="AM15" s="1">
+      <c r="AM15" s="2">
         <v>6.58176943699731</v>
       </c>
-      <c r="AN15" s="1">
+      <c r="AN15" s="2">
         <v>7.22520107238604</v>
       </c>
-      <c r="AO15" s="1">
+      <c r="AO15" s="2">
         <v>-1.43431635388741</v>
       </c>
-      <c r="AP15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ15" s="1">
+      <c r="AP15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="2">
         <v>76.5</v>
       </c>
-      <c r="AR15" s="1">
+      <c r="AR15" s="2">
         <v>86.78</v>
       </c>
-      <c r="AS15" s="1">
+      <c r="AS15" s="2">
         <v>75.07</v>
       </c>
-      <c r="AT15" s="1">
+      <c r="AT15" s="2">
         <v>85.03</v>
       </c>
-      <c r="AU15" s="1">
+      <c r="AU15" s="2">
         <v>722921664</v>
       </c>
-      <c r="AV15" s="1">
+      <c r="AV15" s="2">
         <v>2.54691689008042</v>
       </c>
-      <c r="AW15" s="1">
+      <c r="AW15" s="2">
         <v>16.3270777479893</v>
       </c>
-      <c r="AX15" s="1">
+      <c r="AX15" s="2">
         <v>0.630026809651473</v>
       </c>
-      <c r="AY15" s="1">
+      <c r="AY15" s="2">
         <v>13.9812332439678</v>
       </c>
-      <c r="AZ15" s="1">
+      <c r="AZ15" s="2">
         <v>85.71</v>
       </c>
-      <c r="BA15" s="1">
+      <c r="BA15" s="2">
         <v>88</v>
       </c>
-      <c r="BB15" s="1">
+      <c r="BB15" s="2">
         <v>81.88</v>
       </c>
-      <c r="BC15" s="1">
+      <c r="BC15" s="2">
         <v>83.79</v>
       </c>
-      <c r="BD15" s="1">
+      <c r="BD15" s="2">
         <v>515863072</v>
       </c>
-      <c r="BE15" s="1">
+      <c r="BE15" s="2">
         <v>14.8927613941019</v>
       </c>
-      <c r="BF15" s="1">
+      <c r="BF15" s="2">
         <v>17.9624664879356</v>
       </c>
-      <c r="BG15" s="1">
+      <c r="BG15" s="2">
         <v>9.7587131367292</v>
       </c>
-      <c r="BH15" s="1">
+      <c r="BH15" s="2">
         <v>12.3190348525469</v>
       </c>
-      <c r="BI15" s="1">
+      <c r="BI15" s="2">
         <v>83.71</v>
       </c>
-      <c r="BJ15" s="1">
+      <c r="BJ15" s="2">
         <v>84.99</v>
       </c>
-      <c r="BK15" s="1">
+      <c r="BK15" s="2">
         <v>80.96</v>
       </c>
-      <c r="BL15" s="1">
+      <c r="BL15" s="2">
         <v>82.38</v>
       </c>
-      <c r="BM15" s="1">
+      <c r="BM15" s="2">
         <v>415549984</v>
       </c>
-      <c r="BN15" s="1">
+      <c r="BN15" s="2">
         <v>12.2117962466488</v>
       </c>
-      <c r="BO15" s="1">
+      <c r="BO15" s="2">
         <v>13.9276139410188</v>
       </c>
-      <c r="BP15" s="1">
+      <c r="BP15" s="2">
         <v>8.5254691689008</v>
       </c>
-      <c r="BQ15" s="1">
+      <c r="BQ15" s="2">
         <v>10.4289544235925</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" spans="1:69">
-      <c r="A16" s="1" t="s">
+    <row r="16" s="2" customFormat="1" spans="1:69">
+      <c r="A16" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="2">
         <v>21.49</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="2">
         <v>12.6846097066667</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="2">
         <v>-0.0816239316239316</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="2">
         <v>0.0738317757009345</v>
       </c>
-      <c r="G16" s="1">
-        <v>1</v>
-      </c>
-      <c r="H16" s="1">
-        <v>1</v>
-      </c>
-      <c r="I16" s="1">
+      <c r="G16" s="2">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1</v>
+      </c>
+      <c r="I16" s="2">
         <v>0.951365929236641</v>
       </c>
-      <c r="J16" s="1">
-        <v>1</v>
-      </c>
-      <c r="K16" s="1">
+      <c r="J16" s="2">
+        <v>1</v>
+      </c>
+      <c r="K16" s="2">
         <v>3</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L16" s="2">
         <v>4</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M16" s="2">
         <v>6.706</v>
       </c>
-      <c r="N16" s="1">
+      <c r="N16" s="2">
         <v>2.447</v>
       </c>
-      <c r="O16" s="1">
+      <c r="O16" s="2">
         <v>1.337</v>
       </c>
-      <c r="P16" s="1">
+      <c r="P16" s="2">
         <v>1.896</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="Q16" s="2">
         <v>49</v>
       </c>
-      <c r="R16" s="1">
+      <c r="R16" s="2">
         <v>80</v>
       </c>
-      <c r="S16" s="1">
+      <c r="S16" s="2">
         <v>31.525025</v>
       </c>
-      <c r="T16" s="1">
+      <c r="T16" s="2">
         <v>100</v>
       </c>
-      <c r="U16" s="1">
+      <c r="U16" s="2">
         <v>31.3569682151589</v>
       </c>
-      <c r="V16" s="1">
-        <v>0</v>
-      </c>
-      <c r="W16" s="1">
+      <c r="V16" s="2">
+        <v>0</v>
+      </c>
+      <c r="W16" s="2">
         <v>81.0282404055033</v>
       </c>
-      <c r="X16" s="1">
+      <c r="X16" s="2">
         <v>100</v>
       </c>
-      <c r="Y16" s="1">
+      <c r="Y16" s="2">
         <v>28.1267</v>
       </c>
-      <c r="Z16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="1">
+      <c r="Z16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="2">
         <v>55.8452</v>
       </c>
-      <c r="AB16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="1">
+      <c r="AB16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="2">
         <v>83.4667</v>
       </c>
-      <c r="AD16" s="1">
+      <c r="AD16" s="2">
         <v>80</v>
       </c>
-      <c r="AE16" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="1">
+      <c r="AE16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="2">
         <v>22.72</v>
       </c>
-      <c r="AI16" s="1">
+      <c r="AI16" s="2">
         <v>22.98</v>
       </c>
-      <c r="AJ16" s="1">
+      <c r="AJ16" s="2">
         <v>21.4</v>
       </c>
-      <c r="AK16" s="1">
+      <c r="AK16" s="2">
         <v>21.49</v>
       </c>
-      <c r="AL16" s="1">
+      <c r="AL16" s="2">
         <v>1120959360</v>
       </c>
-      <c r="AM16" s="1">
+      <c r="AM16" s="2">
         <v>5.72359236854349</v>
       </c>
-      <c r="AN16" s="1">
+      <c r="AN16" s="2">
         <v>6.93345742205676</v>
       </c>
-      <c r="AO16" s="1">
+      <c r="AO16" s="2">
         <v>-0.418799441600744</v>
       </c>
-      <c r="AP16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ16" s="1">
+      <c r="AP16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="2">
         <v>21.61</v>
       </c>
-      <c r="AR16" s="1">
+      <c r="AR16" s="2">
         <v>23.6</v>
       </c>
-      <c r="AS16" s="1">
+      <c r="AS16" s="2">
         <v>20.9</v>
       </c>
-      <c r="AT16" s="1">
+      <c r="AT16" s="2">
         <v>22.97</v>
       </c>
-      <c r="AU16" s="1">
+      <c r="AU16" s="2">
         <v>1137195648</v>
       </c>
-      <c r="AV16" s="1">
+      <c r="AV16" s="2">
         <v>0.558399255467647</v>
       </c>
-      <c r="AW16" s="1">
+      <c r="AW16" s="2">
         <v>9.81852024197301</v>
       </c>
-      <c r="AX16" s="1">
+      <c r="AX16" s="2">
         <v>-2.74546300604932</v>
       </c>
-      <c r="AY16" s="1">
+      <c r="AY16" s="2">
         <v>6.88692415076779</v>
       </c>
-      <c r="AZ16" s="1">
+      <c r="AZ16" s="2">
         <v>23.01</v>
       </c>
-      <c r="BA16" s="1">
+      <c r="BA16" s="2">
         <v>24.2</v>
       </c>
-      <c r="BB16" s="1">
+      <c r="BB16" s="2">
         <v>22.13</v>
       </c>
-      <c r="BC16" s="1">
+      <c r="BC16" s="2">
         <v>22.31</v>
       </c>
-      <c r="BD16" s="1">
+      <c r="BD16" s="2">
         <v>1120456192</v>
       </c>
-      <c r="BE16" s="1">
+      <c r="BE16" s="2">
         <v>7.07305723592368</v>
       </c>
-      <c r="BF16" s="1">
+      <c r="BF16" s="2">
         <v>12.6105165193113</v>
       </c>
-      <c r="BG16" s="1">
+      <c r="BG16" s="2">
         <v>2.97812936249417</v>
       </c>
-      <c r="BH16" s="1">
+      <c r="BH16" s="2">
         <v>3.81572824569566</v>
       </c>
-      <c r="BI16" s="1">
+      <c r="BI16" s="2">
         <v>22.55</v>
       </c>
-      <c r="BJ16" s="1">
+      <c r="BJ16" s="2">
         <v>22.75</v>
       </c>
-      <c r="BK16" s="1">
+      <c r="BK16" s="2">
         <v>21.26</v>
       </c>
-      <c r="BL16" s="1">
+      <c r="BL16" s="2">
         <v>21.43</v>
       </c>
-      <c r="BM16" s="1">
+      <c r="BM16" s="2">
         <v>806461760</v>
       </c>
-      <c r="BN16" s="1">
+      <c r="BN16" s="2">
         <v>4.93252675663098</v>
       </c>
-      <c r="BO16" s="1">
+      <c r="BO16" s="2">
         <v>5.86319218241041</v>
       </c>
-      <c r="BP16" s="1">
+      <c r="BP16" s="2">
         <v>-1.07026523964635</v>
       </c>
-      <c r="BQ16" s="1">
+      <c r="BQ16" s="2">
         <v>-0.27919962773384</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" spans="1:69">
-      <c r="A17" s="1" t="s">
+    <row r="17" s="2" customFormat="1" spans="1:69">
+      <c r="A17" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="2">
         <v>15.81</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="2">
         <v>8.8924864</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="2">
         <v>-0.0521582733812949</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="2">
         <v>0.0663265306122448</v>
       </c>
-      <c r="G17" s="1">
-        <v>1</v>
-      </c>
-      <c r="H17" s="1">
-        <v>1</v>
-      </c>
-      <c r="I17" s="1">
+      <c r="G17" s="2">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2">
         <v>0.321268690936637</v>
       </c>
-      <c r="J17" s="1">
-        <v>1</v>
-      </c>
-      <c r="K17" s="1">
+      <c r="J17" s="2">
+        <v>1</v>
+      </c>
+      <c r="K17" s="2">
         <v>4</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L17" s="2">
         <v>4</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M17" s="2">
         <v>1.448</v>
       </c>
-      <c r="N17" s="1">
+      <c r="N17" s="2">
         <v>2.101</v>
       </c>
-      <c r="O17" s="1">
+      <c r="O17" s="2">
         <v>1.033</v>
       </c>
-      <c r="P17" s="1">
+      <c r="P17" s="2">
         <v>0.864</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="Q17" s="2">
         <v>45</v>
       </c>
-      <c r="R17" s="1">
+      <c r="R17" s="2">
         <v>60</v>
       </c>
-      <c r="S17" s="1">
+      <c r="S17" s="2">
         <v>45.938748</v>
       </c>
-      <c r="T17" s="1">
+      <c r="T17" s="2">
         <v>100</v>
       </c>
-      <c r="U17" s="1">
+      <c r="U17" s="2">
         <v>9.03448275862069</v>
       </c>
-      <c r="V17" s="1">
-        <v>0</v>
-      </c>
-      <c r="W17" s="1">
+      <c r="V17" s="2">
+        <v>0</v>
+      </c>
+      <c r="W17" s="2">
         <v>52.051282051282</v>
       </c>
-      <c r="X17" s="1">
+      <c r="X17" s="2">
         <v>100</v>
       </c>
-      <c r="Y17" s="1">
+      <c r="Y17" s="2">
         <v>29.2965</v>
       </c>
-      <c r="Z17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="1">
+      <c r="Z17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="2">
         <v>59.969</v>
       </c>
-      <c r="AB17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="1">
+      <c r="AB17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="2">
         <v>85.2</v>
       </c>
-      <c r="AD17" s="1">
+      <c r="AD17" s="2">
         <v>80</v>
       </c>
-      <c r="AE17" s="1">
+      <c r="AE17" s="2">
         <v>-3.27</v>
       </c>
-      <c r="AF17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG17" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH17" s="1">
+      <c r="AF17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="2">
         <v>16.45</v>
       </c>
-      <c r="AI17" s="1">
+      <c r="AI17" s="2">
         <v>16.72</v>
       </c>
-      <c r="AJ17" s="1">
+      <c r="AJ17" s="2">
         <v>15.68</v>
       </c>
-      <c r="AK17" s="1">
+      <c r="AK17" s="2">
         <v>15.81</v>
       </c>
-      <c r="AL17" s="1">
+      <c r="AL17" s="2">
         <v>776375680</v>
       </c>
-      <c r="AM17" s="1">
+      <c r="AM17" s="2">
         <v>4.04807084123971</v>
       </c>
-      <c r="AN17" s="1">
+      <c r="AN17" s="2">
         <v>5.75585072738772</v>
       </c>
-      <c r="AO17" s="1">
+      <c r="AO17" s="2">
         <v>-0.822264389626823</v>
       </c>
-      <c r="AP17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ17" s="1">
+      <c r="AP17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="2">
         <v>15.82</v>
       </c>
-      <c r="AR17" s="1">
+      <c r="AR17" s="2">
         <v>16.18</v>
       </c>
-      <c r="AS17" s="1">
+      <c r="AS17" s="2">
         <v>15.59</v>
       </c>
-      <c r="AT17" s="1">
+      <c r="AT17" s="2">
         <v>15.72</v>
       </c>
-      <c r="AU17" s="1">
+      <c r="AU17" s="2">
         <v>541665536</v>
       </c>
-      <c r="AV17" s="1">
+      <c r="AV17" s="2">
         <v>0.0632511068943693</v>
       </c>
-      <c r="AW17" s="1">
+      <c r="AW17" s="2">
         <v>2.34029095509171</v>
       </c>
-      <c r="AX17" s="1">
+      <c r="AX17" s="2">
         <v>-1.39152435167616</v>
       </c>
-      <c r="AY17" s="1">
+      <c r="AY17" s="2">
         <v>-0.569259962049335</v>
       </c>
-      <c r="AZ17" s="1">
+      <c r="AZ17" s="2">
         <v>15.85</v>
       </c>
-      <c r="BA17" s="1">
+      <c r="BA17" s="2">
         <v>18.4</v>
       </c>
-      <c r="BB17" s="1">
+      <c r="BB17" s="2">
         <v>15.57</v>
       </c>
-      <c r="BC17" s="1">
+      <c r="BC17" s="2">
         <v>17.91</v>
       </c>
-      <c r="BD17" s="1">
+      <c r="BD17" s="2">
         <v>1316453248</v>
       </c>
-      <c r="BE17" s="1">
+      <c r="BE17" s="2">
         <v>0.253004427577477</v>
       </c>
-      <c r="BF17" s="1">
+      <c r="BF17" s="2">
         <v>16.382036685642</v>
       </c>
-      <c r="BG17" s="1">
+      <c r="BG17" s="2">
         <v>-1.5180265654649</v>
       </c>
-      <c r="BH17" s="1">
+      <c r="BH17" s="2">
         <v>13.2827324478178</v>
       </c>
-      <c r="BI17" s="1">
+      <c r="BI17" s="2">
         <v>17.56</v>
       </c>
-      <c r="BJ17" s="1">
+      <c r="BJ17" s="2">
         <v>18.57</v>
       </c>
-      <c r="BK17" s="1">
+      <c r="BK17" s="2">
         <v>17.12</v>
       </c>
-      <c r="BL17" s="1">
+      <c r="BL17" s="2">
         <v>17.75</v>
       </c>
-      <c r="BM17" s="1">
+      <c r="BM17" s="2">
         <v>1210873856</v>
       </c>
-      <c r="BN17" s="1">
+      <c r="BN17" s="2">
         <v>11.0689437065148</v>
       </c>
-      <c r="BO17" s="1">
+      <c r="BO17" s="2">
         <v>17.4573055028463</v>
       </c>
-      <c r="BP17" s="1">
+      <c r="BP17" s="2">
         <v>8.28589500316256</v>
       </c>
-      <c r="BQ17" s="1">
+      <c r="BQ17" s="2">
         <v>12.2707147375079</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" spans="1:69">
-      <c r="A18" s="1" t="s">
+    <row r="18" s="2" customFormat="1" spans="1:69">
+      <c r="A18" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="2">
         <v>12.37</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="2">
         <v>1.99753733333333</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="2">
         <v>0.00161943319838068</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="2">
         <v>0.0446280991735538</v>
       </c>
-      <c r="G18" s="1">
-        <v>1</v>
-      </c>
-      <c r="H18" s="1">
-        <v>1</v>
-      </c>
-      <c r="I18" s="1">
+      <c r="G18" s="2">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1</v>
+      </c>
+      <c r="I18" s="2">
         <v>0.222252609411142</v>
       </c>
-      <c r="J18" s="1">
-        <v>1</v>
-      </c>
-      <c r="K18" s="1">
+      <c r="J18" s="2">
+        <v>1</v>
+      </c>
+      <c r="K18" s="2">
         <v>2</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L18" s="2">
         <v>4</v>
       </c>
-      <c r="M18" s="1">
+      <c r="M18" s="2">
         <v>1.635</v>
       </c>
-      <c r="N18" s="1">
+      <c r="N18" s="2">
         <v>0.576</v>
       </c>
-      <c r="O18" s="1">
+      <c r="O18" s="2">
         <v>1.003</v>
       </c>
-      <c r="P18" s="1">
+      <c r="P18" s="2">
         <v>2.193</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="Q18" s="2">
         <v>20</v>
       </c>
-      <c r="R18" s="1">
-        <v>0</v>
-      </c>
-      <c r="S18" s="1">
+      <c r="R18" s="2">
+        <v>0</v>
+      </c>
+      <c r="S18" s="2">
         <v>23.945652</v>
       </c>
-      <c r="T18" s="1">
-        <v>0</v>
-      </c>
-      <c r="U18" s="1">
+      <c r="T18" s="2">
+        <v>0</v>
+      </c>
+      <c r="U18" s="2">
         <v>24.321608040201</v>
       </c>
-      <c r="V18" s="1">
-        <v>0</v>
-      </c>
-      <c r="W18" s="1">
+      <c r="V18" s="2">
+        <v>0</v>
+      </c>
+      <c r="W18" s="2">
         <v>54.9425287356322</v>
       </c>
-      <c r="X18" s="1">
+      <c r="X18" s="2">
         <v>100</v>
       </c>
-      <c r="Y18" s="1">
+      <c r="Y18" s="2">
         <v>21.1974</v>
       </c>
-      <c r="Z18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="1">
+      <c r="Z18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="2">
         <v>61.5731</v>
       </c>
-      <c r="AB18" s="1">
+      <c r="AB18" s="2">
         <v>50</v>
       </c>
-      <c r="AC18" s="1">
+      <c r="AC18" s="2">
         <v>75.3333</v>
       </c>
-      <c r="AD18" s="1">
+      <c r="AD18" s="2">
         <v>50</v>
       </c>
-      <c r="AE18" s="1">
+      <c r="AE18" s="2">
         <v>1.68</v>
       </c>
-      <c r="AF18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG18" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH18" s="1">
+      <c r="AF18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="2">
         <v>12.2</v>
       </c>
-      <c r="AI18" s="1">
+      <c r="AI18" s="2">
         <v>12.64</v>
       </c>
-      <c r="AJ18" s="1">
+      <c r="AJ18" s="2">
         <v>12.1</v>
       </c>
-      <c r="AK18" s="1">
+      <c r="AK18" s="2">
         <v>12.37</v>
       </c>
-      <c r="AL18" s="1">
+      <c r="AL18" s="2">
         <v>203049024</v>
       </c>
-      <c r="AM18" s="1">
+      <c r="AM18" s="2">
         <v>-1.37429264349232</v>
       </c>
-      <c r="AN18" s="1">
+      <c r="AN18" s="2">
         <v>2.18270008084074</v>
       </c>
-      <c r="AO18" s="1">
+      <c r="AO18" s="2">
         <v>-2.18270008084075</v>
       </c>
-      <c r="AP18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ18" s="1">
+      <c r="AP18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="2">
         <v>12.39</v>
       </c>
-      <c r="AR18" s="1">
+      <c r="AR18" s="2">
         <v>13.38</v>
       </c>
-      <c r="AS18" s="1">
+      <c r="AS18" s="2">
         <v>12.39</v>
       </c>
-      <c r="AT18" s="1">
+      <c r="AT18" s="2">
         <v>13.24</v>
       </c>
-      <c r="AU18" s="1">
+      <c r="AU18" s="2">
         <v>286354528</v>
       </c>
-      <c r="AV18" s="1">
+      <c r="AV18" s="2">
         <v>0.161681487469681</v>
       </c>
-      <c r="AW18" s="1">
+      <c r="AW18" s="2">
         <v>8.16491511721908</v>
       </c>
-      <c r="AX18" s="1">
+      <c r="AX18" s="2">
         <v>0.161681487469681</v>
       </c>
-      <c r="AY18" s="1">
+      <c r="AY18" s="2">
         <v>7.03314470493128</v>
       </c>
-      <c r="AZ18" s="1">
+      <c r="AZ18" s="2">
         <v>13.24</v>
       </c>
-      <c r="BA18" s="1">
+      <c r="BA18" s="2">
         <v>13.38</v>
       </c>
-      <c r="BB18" s="1">
+      <c r="BB18" s="2">
         <v>12.92</v>
       </c>
-      <c r="BC18" s="1">
+      <c r="BC18" s="2">
         <v>13.25</v>
       </c>
-      <c r="BD18" s="1">
+      <c r="BD18" s="2">
         <v>206325552</v>
       </c>
-      <c r="BE18" s="1">
+      <c r="BE18" s="2">
         <v>7.03314470493128</v>
       </c>
-      <c r="BF18" s="1">
+      <c r="BF18" s="2">
         <v>8.16491511721908</v>
       </c>
-      <c r="BG18" s="1">
+      <c r="BG18" s="2">
         <v>4.44624090541632</v>
       </c>
-      <c r="BH18" s="1">
+      <c r="BH18" s="2">
         <v>7.11398544866612</v>
       </c>
-      <c r="BI18" s="1">
+      <c r="BI18" s="2">
         <v>13.21</v>
       </c>
-      <c r="BJ18" s="1">
+      <c r="BJ18" s="2">
         <v>13.92</v>
       </c>
-      <c r="BK18" s="1">
+      <c r="BK18" s="2">
         <v>13</v>
       </c>
-      <c r="BL18" s="1">
+      <c r="BL18" s="2">
         <v>13.63</v>
       </c>
-      <c r="BM18" s="1">
+      <c r="BM18" s="2">
         <v>241982560</v>
       </c>
-      <c r="BN18" s="1">
+      <c r="BN18" s="2">
         <v>6.79062247372676</v>
       </c>
-      <c r="BO18" s="1">
+      <c r="BO18" s="2">
         <v>12.5303152789006</v>
       </c>
-      <c r="BP18" s="1">
+      <c r="BP18" s="2">
         <v>5.09296685529506</v>
       </c>
-      <c r="BQ18" s="1">
+      <c r="BQ18" s="2">
         <v>10.1859337105901</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" spans="1:69">
-      <c r="A19" s="1" t="s">
+    <row r="19" s="2" customFormat="1" spans="1:69">
+      <c r="A19" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="2">
         <v>12.3</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="2">
         <v>3.30400341333333</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="2">
         <v>0.0250000000000001</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="2">
         <v>0.0742954739538855</v>
       </c>
-      <c r="G19" s="1">
-        <v>1</v>
-      </c>
-      <c r="H19" s="1">
-        <v>1</v>
-      </c>
-      <c r="I19" s="1">
+      <c r="G19" s="2">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2">
         <v>0.471496109552108</v>
       </c>
-      <c r="J19" s="1">
-        <v>1</v>
-      </c>
-      <c r="K19" s="1">
+      <c r="J19" s="2">
+        <v>1</v>
+      </c>
+      <c r="K19" s="2">
         <v>8</v>
       </c>
-      <c r="L19" s="1">
+      <c r="L19" s="2">
         <v>8</v>
       </c>
-      <c r="M19" s="1">
+      <c r="M19" s="2">
         <v>0.739</v>
       </c>
-      <c r="N19" s="1">
+      <c r="N19" s="2">
         <v>1.149</v>
       </c>
-      <c r="O19" s="1">
+      <c r="O19" s="2">
         <v>5.496</v>
       </c>
-      <c r="P19" s="1">
+      <c r="P19" s="2">
         <v>5.068</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="Q19" s="2">
         <v>40</v>
       </c>
-      <c r="R19" s="1">
-        <v>0</v>
-      </c>
-      <c r="S19" s="1">
+      <c r="R19" s="2">
+        <v>0</v>
+      </c>
+      <c r="S19" s="2">
         <v>31.256881</v>
       </c>
-      <c r="T19" s="1">
+      <c r="T19" s="2">
         <v>100</v>
       </c>
-      <c r="U19" s="1">
+      <c r="U19" s="2">
         <v>38.8261851015802</v>
       </c>
-      <c r="V19" s="1">
-        <v>0</v>
-      </c>
-      <c r="W19" s="1">
+      <c r="V19" s="2">
+        <v>0</v>
+      </c>
+      <c r="W19" s="2">
         <v>71.0292249047014</v>
       </c>
-      <c r="X19" s="1">
+      <c r="X19" s="2">
         <v>100</v>
       </c>
-      <c r="Y19" s="1">
+      <c r="Y19" s="2">
         <v>18.4493</v>
       </c>
-      <c r="Z19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="1">
+      <c r="Z19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="2">
         <v>70.5163</v>
       </c>
-      <c r="AB19" s="1">
+      <c r="AB19" s="2">
         <v>100</v>
       </c>
-      <c r="AC19" s="1">
+      <c r="AC19" s="2">
         <v>75.4667</v>
       </c>
-      <c r="AD19" s="1">
+      <c r="AD19" s="2">
         <v>50</v>
       </c>
-      <c r="AE19" s="1">
+      <c r="AE19" s="2">
         <v>1.3</v>
       </c>
-      <c r="AF19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG19" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH19" s="1">
+      <c r="AF19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="2">
         <v>11.89</v>
       </c>
-      <c r="AI19" s="1">
+      <c r="AI19" s="2">
         <v>12.58</v>
       </c>
-      <c r="AJ19" s="1">
+      <c r="AJ19" s="2">
         <v>11.71</v>
       </c>
-      <c r="AK19" s="1">
+      <c r="AK19" s="2">
         <v>12.3</v>
       </c>
-      <c r="AL19" s="1">
+      <c r="AL19" s="2">
         <v>376220768</v>
       </c>
-      <c r="AM19" s="1">
+      <c r="AM19" s="2">
         <v>-3.33333333333333</v>
       </c>
-      <c r="AN19" s="1">
+      <c r="AN19" s="2">
         <v>2.27642276422764</v>
       </c>
-      <c r="AO19" s="1">
+      <c r="AO19" s="2">
         <v>-4.79674796747967</v>
       </c>
-      <c r="AP19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ19" s="1">
+      <c r="AP19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="2">
         <v>12.31</v>
       </c>
-      <c r="AR19" s="1">
+      <c r="AR19" s="2">
         <v>12.69</v>
       </c>
-      <c r="AS19" s="1">
+      <c r="AS19" s="2">
         <v>11.92</v>
       </c>
-      <c r="AT19" s="1">
+      <c r="AT19" s="2">
         <v>12.22</v>
       </c>
-      <c r="AU19" s="1">
+      <c r="AU19" s="2">
         <v>278896768</v>
       </c>
-      <c r="AV19" s="1">
+      <c r="AV19" s="2">
         <v>0.0813008130081283</v>
       </c>
-      <c r="AW19" s="1">
+      <c r="AW19" s="2">
         <v>3.17073170731706</v>
       </c>
-      <c r="AX19" s="1">
+      <c r="AX19" s="2">
         <v>-3.08943089430895</v>
       </c>
-      <c r="AY19" s="1">
+      <c r="AY19" s="2">
         <v>-0.650406504065041</v>
       </c>
-      <c r="AZ19" s="1">
+      <c r="AZ19" s="2">
         <v>12.27</v>
       </c>
-      <c r="BA19" s="1">
+      <c r="BA19" s="2">
         <v>13.95</v>
       </c>
-      <c r="BB19" s="1">
+      <c r="BB19" s="2">
         <v>12.02</v>
       </c>
-      <c r="BC19" s="1">
+      <c r="BC19" s="2">
         <v>13.08</v>
       </c>
-      <c r="BD19" s="1">
+      <c r="BD19" s="2">
         <v>472899776</v>
       </c>
-      <c r="BE19" s="1">
+      <c r="BE19" s="2">
         <v>-0.2439024390244</v>
       </c>
-      <c r="BF19" s="1">
+      <c r="BF19" s="2">
         <v>13.4146341463415</v>
       </c>
-      <c r="BG19" s="1">
+      <c r="BG19" s="2">
         <v>-2.27642276422765</v>
       </c>
-      <c r="BH19" s="1">
+      <c r="BH19" s="2">
         <v>6.34146341463414</v>
       </c>
-      <c r="BI19" s="1">
+      <c r="BI19" s="2">
         <v>13.05</v>
       </c>
-      <c r="BJ19" s="1">
+      <c r="BJ19" s="2">
         <v>13.11</v>
       </c>
-      <c r="BK19" s="1">
+      <c r="BK19" s="2">
         <v>12.36</v>
       </c>
-      <c r="BL19" s="1">
+      <c r="BL19" s="2">
         <v>12.73</v>
       </c>
-      <c r="BM19" s="1">
+      <c r="BM19" s="2">
         <v>309704000</v>
       </c>
-      <c r="BN19" s="1">
+      <c r="BN19" s="2">
         <v>6.09756097560976</v>
       </c>
-      <c r="BO19" s="1">
+      <c r="BO19" s="2">
         <v>6.58536585365853</v>
       </c>
-      <c r="BP19" s="1">
+      <c r="BP19" s="2">
         <v>0.48780487804877</v>
       </c>
-      <c r="BQ19" s="1">
+      <c r="BQ19" s="2">
         <v>3.49593495934959</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" spans="1:69">
-      <c r="A20" s="1" t="s">
+    <row r="20" s="2" customFormat="1" spans="1:69">
+      <c r="A20" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="2">
         <v>17.4</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="2">
         <v>5.96020704</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="2">
         <v>-0.0252100840336134</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="2">
         <v>0.094274146905726</v>
       </c>
-      <c r="G20" s="1">
-        <v>1</v>
-      </c>
-      <c r="H20" s="1">
-        <v>1</v>
-      </c>
-      <c r="I20" s="1">
+      <c r="G20" s="2">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1</v>
+      </c>
+      <c r="I20" s="2">
         <v>0.449581458088202</v>
       </c>
-      <c r="J20" s="1">
-        <v>1</v>
-      </c>
-      <c r="K20" s="1">
+      <c r="J20" s="2">
+        <v>1</v>
+      </c>
+      <c r="K20" s="2">
         <v>4</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L20" s="2">
         <v>9</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M20" s="2">
         <v>1.504</v>
       </c>
-      <c r="N20" s="1">
+      <c r="N20" s="2">
         <v>1.042</v>
       </c>
-      <c r="O20" s="1">
+      <c r="O20" s="2">
         <v>2.294</v>
       </c>
-      <c r="P20" s="1">
+      <c r="P20" s="2">
         <v>2.962</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="Q20" s="2">
         <v>32</v>
       </c>
-      <c r="R20" s="1">
+      <c r="R20" s="2">
         <v>60</v>
       </c>
-      <c r="S20" s="1">
+      <c r="S20" s="2">
         <v>25.467338</v>
       </c>
-      <c r="T20" s="1">
-        <v>0</v>
-      </c>
-      <c r="U20" s="1">
+      <c r="T20" s="2">
+        <v>0</v>
+      </c>
+      <c r="U20" s="2">
         <v>25.5411255411256</v>
       </c>
-      <c r="V20" s="1">
-        <v>0</v>
-      </c>
-      <c r="W20" s="1">
+      <c r="V20" s="2">
+        <v>0</v>
+      </c>
+      <c r="W20" s="2">
         <v>57.2107765451664</v>
       </c>
-      <c r="X20" s="1">
+      <c r="X20" s="2">
         <v>100</v>
       </c>
-      <c r="Y20" s="1">
+      <c r="Y20" s="2">
         <v>28.6435</v>
       </c>
-      <c r="Z20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="1">
+      <c r="Z20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="2">
         <v>60.9887</v>
       </c>
-      <c r="AB20" s="1">
+      <c r="AB20" s="2">
         <v>50</v>
       </c>
-      <c r="AC20" s="1">
+      <c r="AC20" s="2">
         <v>77.0667</v>
       </c>
-      <c r="AD20" s="1">
+      <c r="AD20" s="2">
         <v>50</v>
       </c>
-      <c r="AE20" s="1">
+      <c r="AE20" s="2">
         <v>-2.72</v>
       </c>
-      <c r="AF20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG20" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH20" s="1">
+      <c r="AF20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="2">
         <v>17.89</v>
       </c>
-      <c r="AI20" s="1">
+      <c r="AI20" s="2">
         <v>18.92</v>
       </c>
-      <c r="AJ20" s="1">
+      <c r="AJ20" s="2">
         <v>17.29</v>
       </c>
-      <c r="AK20" s="1">
+      <c r="AK20" s="2">
         <v>17.4</v>
       </c>
-      <c r="AL20" s="1">
+      <c r="AL20" s="2">
         <v>465310944</v>
       </c>
-      <c r="AM20" s="1">
+      <c r="AM20" s="2">
         <v>2.81609195402298</v>
       </c>
-      <c r="AN20" s="1">
+      <c r="AN20" s="2">
         <v>8.73563218390804</v>
       </c>
-      <c r="AO20" s="1">
+      <c r="AO20" s="2">
         <v>-0.632183908045994</v>
       </c>
-      <c r="AP20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ20" s="1">
+      <c r="AP20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="2">
         <v>17.73</v>
       </c>
-      <c r="AR20" s="1">
+      <c r="AR20" s="2">
         <v>17.88</v>
       </c>
-      <c r="AS20" s="1">
+      <c r="AS20" s="2">
         <v>16.93</v>
       </c>
-      <c r="AT20" s="1">
+      <c r="AT20" s="2">
         <v>17.12</v>
       </c>
-      <c r="AU20" s="1">
+      <c r="AU20" s="2">
         <v>342165312</v>
       </c>
-      <c r="AV20" s="1">
+      <c r="AV20" s="2">
         <v>1.89655172413792</v>
       </c>
-      <c r="AW20" s="1">
+      <c r="AW20" s="2">
         <v>2.75862068965515</v>
       </c>
-      <c r="AX20" s="1">
+      <c r="AX20" s="2">
         <v>-2.70114942528737</v>
       </c>
-      <c r="AY20" s="1">
+      <c r="AY20" s="2">
         <v>-1.60919540229886</v>
       </c>
-      <c r="AZ20" s="1">
+      <c r="AZ20" s="2">
         <v>17.25</v>
       </c>
-      <c r="BA20" s="1">
+      <c r="BA20" s="2">
         <v>17.26</v>
       </c>
-      <c r="BB20" s="1">
+      <c r="BB20" s="2">
         <v>16.64</v>
       </c>
-      <c r="BC20" s="1">
+      <c r="BC20" s="2">
         <v>16.8</v>
       </c>
-      <c r="BD20" s="1">
+      <c r="BD20" s="2">
         <v>256842352</v>
       </c>
-      <c r="BE20" s="1">
+      <c r="BE20" s="2">
         <v>-0.862068965517254</v>
       </c>
-      <c r="BF20" s="1">
+      <c r="BF20" s="2">
         <v>-0.804597701149428</v>
       </c>
-      <c r="BG20" s="1">
+      <c r="BG20" s="2">
         <v>-4.36781609195403</v>
       </c>
-      <c r="BH20" s="1">
+      <c r="BH20" s="2">
         <v>-3.44827586206897</v>
       </c>
-      <c r="BI20" s="1">
+      <c r="BI20" s="2">
         <v>16.81</v>
       </c>
-      <c r="BJ20" s="1">
+      <c r="BJ20" s="2">
         <v>18.34</v>
       </c>
-      <c r="BK20" s="1">
+      <c r="BK20" s="2">
         <v>16.69</v>
       </c>
-      <c r="BL20" s="1">
+      <c r="BL20" s="2">
         <v>17.94</v>
       </c>
-      <c r="BM20" s="1">
+      <c r="BM20" s="2">
         <v>462371840</v>
       </c>
-      <c r="BN20" s="1">
+      <c r="BN20" s="2">
         <v>-3.39080459770117</v>
       </c>
-      <c r="BO20" s="1">
+      <c r="BO20" s="2">
         <v>5.4022988505747</v>
       </c>
-      <c r="BP20" s="1">
+      <c r="BP20" s="2">
         <v>-4.08045977011495</v>
       </c>
-      <c r="BQ20" s="1">
+      <c r="BQ20" s="2">
         <v>3.10344827586206</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" spans="1:69">
-      <c r="A21" s="1" t="s">
+    <row r="21" s="2" customFormat="1" spans="1:69">
+      <c r="A21" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="2">
         <v>37.1</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="2">
         <v>16.8544418133333</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="2">
         <v>-0.0516359918200408</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="2">
         <v>0.120923913043478</v>
       </c>
-      <c r="G21" s="1">
-        <v>1</v>
-      </c>
-      <c r="H21" s="1">
-        <v>1</v>
-      </c>
-      <c r="I21" s="1">
+      <c r="G21" s="2">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1</v>
+      </c>
+      <c r="I21" s="2">
         <v>4.78507109926756</v>
       </c>
-      <c r="J21" s="1">
-        <v>1</v>
-      </c>
-      <c r="K21" s="1">
+      <c r="J21" s="2">
+        <v>1</v>
+      </c>
+      <c r="K21" s="2">
         <v>7</v>
       </c>
-      <c r="L21" s="1">
+      <c r="L21" s="2">
         <v>7</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M21" s="2">
         <v>1.281</v>
       </c>
-      <c r="N21" s="1">
+      <c r="N21" s="2">
         <v>3.94</v>
       </c>
-      <c r="O21" s="1">
+      <c r="O21" s="2">
         <v>7.537</v>
       </c>
-      <c r="P21" s="1">
+      <c r="P21" s="2">
         <v>7.318</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="Q21" s="2">
         <v>76</v>
       </c>
-      <c r="R21" s="1">
+      <c r="R21" s="2">
         <v>100</v>
       </c>
-      <c r="S21" s="1">
+      <c r="S21" s="2">
         <v>34.576893</v>
       </c>
-      <c r="T21" s="1">
+      <c r="T21" s="2">
         <v>100</v>
       </c>
-      <c r="U21" s="1">
+      <c r="U21" s="2">
         <v>147.498332221481</v>
       </c>
-      <c r="V21" s="1">
+      <c r="V21" s="2">
         <v>100</v>
       </c>
-      <c r="W21" s="1">
+      <c r="W21" s="2">
         <v>216.820276497696</v>
       </c>
-      <c r="X21" s="1">
+      <c r="X21" s="2">
         <v>100</v>
       </c>
-      <c r="Y21" s="1">
+      <c r="Y21" s="2">
         <v>34.8802</v>
       </c>
-      <c r="Z21" s="1">
+      <c r="Z21" s="2">
         <v>80</v>
       </c>
-      <c r="AA21" s="1">
+      <c r="AA21" s="2">
         <v>61.3347</v>
       </c>
-      <c r="AB21" s="1">
+      <c r="AB21" s="2">
         <v>50</v>
       </c>
-      <c r="AC21" s="1">
+      <c r="AC21" s="2">
         <v>86.8</v>
       </c>
-      <c r="AD21" s="1">
+      <c r="AD21" s="2">
         <v>80</v>
       </c>
-      <c r="AE21" s="1">
+      <c r="AE21" s="2">
         <v>-2.37</v>
       </c>
-      <c r="AF21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG21" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH21" s="1">
+      <c r="AF21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="2">
         <v>37.4</v>
       </c>
-      <c r="AI21" s="1">
+      <c r="AI21" s="2">
         <v>41.25</v>
       </c>
-      <c r="AJ21" s="1">
+      <c r="AJ21" s="2">
         <v>36.8</v>
       </c>
-      <c r="AK21" s="1">
+      <c r="AK21" s="2">
         <v>37.1</v>
       </c>
-      <c r="AL21" s="1">
+      <c r="AL21" s="2">
         <v>1566262912</v>
       </c>
-      <c r="AM21" s="1">
+      <c r="AM21" s="2">
         <v>0.808625336927216</v>
       </c>
-      <c r="AN21" s="1">
+      <c r="AN21" s="2">
         <v>11.1859838274933</v>
       </c>
-      <c r="AO21" s="1">
+      <c r="AO21" s="2">
         <v>-0.808625336927216</v>
       </c>
-      <c r="AP21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ21" s="1">
+      <c r="AP21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="2">
         <v>38.21</v>
       </c>
-      <c r="AR21" s="1">
+      <c r="AR21" s="2">
         <v>40.5</v>
       </c>
-      <c r="AS21" s="1">
+      <c r="AS21" s="2">
         <v>36.34</v>
       </c>
-      <c r="AT21" s="1">
+      <c r="AT21" s="2">
         <v>39.86</v>
       </c>
-      <c r="AU21" s="1">
+      <c r="AU21" s="2">
         <v>1526584704</v>
       </c>
-      <c r="AV21" s="1">
+      <c r="AV21" s="2">
         <v>2.99191374663073</v>
       </c>
-      <c r="AW21" s="1">
+      <c r="AW21" s="2">
         <v>9.1644204851752</v>
       </c>
-      <c r="AX21" s="1">
+      <c r="AX21" s="2">
         <v>-2.04851752021563</v>
       </c>
-      <c r="AY21" s="1">
+      <c r="AY21" s="2">
         <v>7.43935309973045</v>
       </c>
-      <c r="AZ21" s="1">
+      <c r="AZ21" s="2">
         <v>40</v>
       </c>
-      <c r="BA21" s="1">
+      <c r="BA21" s="2">
         <v>40.6</v>
       </c>
-      <c r="BB21" s="1">
+      <c r="BB21" s="2">
         <v>37.02</v>
       </c>
-      <c r="BC21" s="1">
+      <c r="BC21" s="2">
         <v>38.6</v>
       </c>
-      <c r="BD21" s="1">
+      <c r="BD21" s="2">
         <v>1302598528</v>
       </c>
-      <c r="BE21" s="1">
+      <c r="BE21" s="2">
         <v>7.81671159029649</v>
       </c>
-      <c r="BF21" s="1">
+      <c r="BF21" s="2">
         <v>9.43396226415094</v>
       </c>
-      <c r="BG21" s="1">
+      <c r="BG21" s="2">
         <v>-0.215633423180588</v>
       </c>
-      <c r="BH21" s="1">
+      <c r="BH21" s="2">
         <v>4.04312668463612</v>
       </c>
-      <c r="BI21" s="1">
+      <c r="BI21" s="2">
         <v>37.96</v>
       </c>
-      <c r="BJ21" s="1">
+      <c r="BJ21" s="2">
         <v>46.21</v>
       </c>
-      <c r="BK21" s="1">
+      <c r="BK21" s="2">
         <v>37.73</v>
       </c>
-      <c r="BL21" s="1">
+      <c r="BL21" s="2">
         <v>43.61</v>
       </c>
-      <c r="BM21" s="1">
+      <c r="BM21" s="2">
         <v>1960251264</v>
       </c>
-      <c r="BN21" s="1">
+      <c r="BN21" s="2">
         <v>2.31805929919137</v>
       </c>
-      <c r="BO21" s="1">
+      <c r="BO21" s="2">
         <v>24.55525606469</v>
       </c>
-      <c r="BP21" s="1">
+      <c r="BP21" s="2">
         <v>1.69811320754718</v>
       </c>
-      <c r="BQ21" s="1">
+      <c r="BQ21" s="2">
         <v>17.5471698113207</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" spans="1:69">
-      <c r="A22" s="1" t="s">
+    <row r="22" s="2" customFormat="1" spans="1:69">
+      <c r="A22" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="2">
         <v>153.01</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="2">
         <v>6.24356778666667</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="2">
         <v>0.019862694127841</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="2">
         <v>0.0541095890410959</v>
       </c>
-      <c r="G22" s="1">
-        <v>1</v>
-      </c>
-      <c r="H22" s="1">
-        <v>1</v>
-      </c>
-      <c r="I22" s="1">
+      <c r="G22" s="2">
+        <v>1</v>
+      </c>
+      <c r="H22" s="2">
+        <v>1</v>
+      </c>
+      <c r="I22" s="2">
         <v>3.35853835649934</v>
       </c>
-      <c r="J22" s="1">
-        <v>1</v>
-      </c>
-      <c r="K22" s="1">
+      <c r="J22" s="2">
+        <v>1</v>
+      </c>
+      <c r="K22" s="2">
         <v>19</v>
       </c>
-      <c r="L22" s="1">
+      <c r="L22" s="2">
         <v>10</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M22" s="2">
         <v>0.672</v>
       </c>
-      <c r="N22" s="1">
+      <c r="N22" s="2">
         <v>1.304</v>
       </c>
-      <c r="O22" s="1">
+      <c r="O22" s="2">
         <v>1.644</v>
       </c>
-      <c r="P22" s="1">
+      <c r="P22" s="2">
         <v>1.84</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="Q22" s="2">
         <v>65</v>
       </c>
-      <c r="R22" s="1">
+      <c r="R22" s="2">
         <v>60</v>
       </c>
-      <c r="S22" s="1">
+      <c r="S22" s="2">
         <v>134.94886</v>
       </c>
-      <c r="T22" s="1">
+      <c r="T22" s="2">
         <v>100</v>
       </c>
-      <c r="U22" s="1">
+      <c r="U22" s="2">
         <v>53.3627342888644</v>
       </c>
-      <c r="V22" s="1">
+      <c r="V22" s="2">
         <v>50</v>
       </c>
-      <c r="W22" s="1">
+      <c r="W22" s="2">
         <v>81.2784904060214</v>
       </c>
-      <c r="X22" s="1">
+      <c r="X22" s="2">
         <v>100</v>
       </c>
-      <c r="Y22" s="1">
+      <c r="Y22" s="2">
         <v>31.8787</v>
       </c>
-      <c r="Z22" s="1">
+      <c r="Z22" s="2">
         <v>80</v>
       </c>
-      <c r="AA22" s="1">
+      <c r="AA22" s="2">
         <v>70.0959</v>
       </c>
-      <c r="AB22" s="1">
+      <c r="AB22" s="2">
         <v>100</v>
       </c>
-      <c r="AC22" s="1">
+      <c r="AC22" s="2">
         <v>77.6</v>
       </c>
-      <c r="AD22" s="1">
+      <c r="AD22" s="2">
         <v>50</v>
       </c>
-      <c r="AE22" s="1">
+      <c r="AE22" s="2">
         <v>-1.05</v>
       </c>
-      <c r="AF22" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG22" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH22" s="1">
+      <c r="AF22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="2">
         <v>146.41</v>
       </c>
-      <c r="AI22" s="1">
+      <c r="AI22" s="2">
         <v>153.9</v>
       </c>
-      <c r="AJ22" s="1">
+      <c r="AJ22" s="2">
         <v>146</v>
       </c>
-      <c r="AK22" s="1">
+      <c r="AK22" s="2">
         <v>153.01</v>
       </c>
-      <c r="AL22" s="1">
+      <c r="AL22" s="2">
         <v>430932864</v>
       </c>
-      <c r="AM22" s="1">
+      <c r="AM22" s="2">
         <v>-4.31344356578001</v>
       </c>
-      <c r="AN22" s="1">
+      <c r="AN22" s="2">
         <v>0.58166132932489</v>
       </c>
-      <c r="AO22" s="1">
+      <c r="AO22" s="2">
         <v>-4.58139990850271</v>
       </c>
-      <c r="AP22" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ22" s="1">
+      <c r="AP22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ22" s="2">
         <v>149.95</v>
       </c>
-      <c r="AR22" s="1">
+      <c r="AR22" s="2">
         <v>153.36</v>
       </c>
-      <c r="AS22" s="1">
+      <c r="AS22" s="2">
         <v>149.01</v>
       </c>
-      <c r="AT22" s="1">
+      <c r="AT22" s="2">
         <v>151.2</v>
       </c>
-      <c r="AU22" s="1">
+      <c r="AU22" s="2">
         <v>373403136</v>
       </c>
-      <c r="AV22" s="1">
+      <c r="AV22" s="2">
         <v>-1.9998692895889</v>
       </c>
-      <c r="AW22" s="1">
+      <c r="AW22" s="2">
         <v>0.22874321939744</v>
       </c>
-      <c r="AX22" s="1">
+      <c r="AX22" s="2">
         <v>-2.61420822168486</v>
       </c>
-      <c r="AY22" s="1">
+      <c r="AY22" s="2">
         <v>-1.18292922031238</v>
       </c>
-      <c r="AZ22" s="1">
+      <c r="AZ22" s="2">
         <v>151.2</v>
       </c>
-      <c r="BA22" s="1">
+      <c r="BA22" s="2">
         <v>156.88</v>
       </c>
-      <c r="BB22" s="1">
+      <c r="BB22" s="2">
         <v>147.84</v>
       </c>
-      <c r="BC22" s="1">
+      <c r="BC22" s="2">
         <v>155.79</v>
       </c>
-      <c r="BD22" s="1">
+      <c r="BD22" s="2">
         <v>406053920</v>
       </c>
-      <c r="BE22" s="1">
+      <c r="BE22" s="2">
         <v>-1.18292922031238</v>
       </c>
-      <c r="BF22" s="1">
+      <c r="BF22" s="2">
         <v>2.5292464544801</v>
       </c>
-      <c r="BG22" s="1">
+      <c r="BG22" s="2">
         <v>-3.37886412652767</v>
       </c>
-      <c r="BH22" s="1">
+      <c r="BH22" s="2">
         <v>1.81687471407098</v>
       </c>
-      <c r="BI22" s="1">
+      <c r="BI22" s="2">
         <v>155</v>
       </c>
-      <c r="BJ22" s="1">
+      <c r="BJ22" s="2">
         <v>160.5</v>
       </c>
-      <c r="BK22" s="1">
+      <c r="BK22" s="2">
         <v>154.06</v>
       </c>
-      <c r="BL22" s="1">
+      <c r="BL22" s="2">
         <v>156.59</v>
       </c>
-      <c r="BM22" s="1">
+      <c r="BM22" s="2">
         <v>405178976</v>
       </c>
-      <c r="BN22" s="1">
+      <c r="BN22" s="2">
         <v>1.30056859028822</v>
       </c>
-      <c r="BO22" s="1">
+      <c r="BO22" s="2">
         <v>4.8951048951049</v>
       </c>
-      <c r="BP22" s="1">
+      <c r="BP22" s="2">
         <v>0.686229658192282</v>
       </c>
-      <c r="BQ22" s="1">
+      <c r="BQ22" s="2">
         <v>2.33971635840795</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" spans="1:69">
-      <c r="A23" s="1" t="s">
+    <row r="23" s="2" customFormat="1" spans="1:69">
+      <c r="A23" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="2">
         <v>17.57</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="2">
         <v>4.21850613333333</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="2">
         <v>-0.109477952356817</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="2">
         <v>0.0900173110213502</v>
       </c>
-      <c r="G23" s="1">
-        <v>1</v>
-      </c>
-      <c r="H23" s="1">
-        <v>1</v>
-      </c>
-      <c r="I23" s="1">
+      <c r="G23" s="2">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2">
+        <v>1</v>
+      </c>
+      <c r="I23" s="2">
         <v>0.683779189558074</v>
       </c>
-      <c r="J23" s="1">
-        <v>1</v>
-      </c>
-      <c r="K23" s="1">
+      <c r="J23" s="2">
+        <v>1</v>
+      </c>
+      <c r="K23" s="2">
         <v>5</v>
       </c>
-      <c r="L23" s="1">
+      <c r="L23" s="2">
         <v>8</v>
       </c>
-      <c r="M23" s="1">
+      <c r="M23" s="2">
         <v>1.264</v>
       </c>
-      <c r="N23" s="1">
+      <c r="N23" s="2">
         <v>1.261</v>
       </c>
-      <c r="O23" s="1">
+      <c r="O23" s="2">
         <v>1.261</v>
       </c>
-      <c r="P23" s="1">
+      <c r="P23" s="2">
         <v>1.864</v>
       </c>
-      <c r="Q23" s="1">
+      <c r="Q23" s="2">
         <v>38</v>
       </c>
-      <c r="R23" s="1">
-        <v>0</v>
-      </c>
-      <c r="S23" s="1">
+      <c r="R23" s="2">
+        <v>0</v>
+      </c>
+      <c r="S23" s="2">
         <v>28.460045</v>
       </c>
-      <c r="T23" s="1">
-        <v>0</v>
-      </c>
-      <c r="U23" s="1">
+      <c r="T23" s="2">
+        <v>0</v>
+      </c>
+      <c r="U23" s="2">
         <v>62.2345337026778</v>
       </c>
-      <c r="V23" s="1">
+      <c r="V23" s="2">
         <v>100</v>
       </c>
-      <c r="W23" s="1">
+      <c r="W23" s="2">
         <v>107.903055848261</v>
       </c>
-      <c r="X23" s="1">
+      <c r="X23" s="2">
         <v>100</v>
       </c>
-      <c r="Y23" s="1">
+      <c r="Y23" s="2">
         <v>24.8223</v>
       </c>
-      <c r="Z23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="1">
+      <c r="Z23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="2">
         <v>69.7635</v>
       </c>
-      <c r="AB23" s="1">
+      <c r="AB23" s="2">
         <v>100</v>
       </c>
-      <c r="AC23" s="1">
+      <c r="AC23" s="2">
         <v>80.2667</v>
       </c>
-      <c r="AD23" s="1">
+      <c r="AD23" s="2">
         <v>80</v>
       </c>
-      <c r="AE23" s="1">
+      <c r="AE23" s="2">
         <v>-1.12</v>
       </c>
-      <c r="AF23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG23" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH23" s="1">
+      <c r="AF23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="2">
         <v>18.57</v>
       </c>
-      <c r="AI23" s="1">
+      <c r="AI23" s="2">
         <v>18.89</v>
       </c>
-      <c r="AJ23" s="1">
+      <c r="AJ23" s="2">
         <v>17.33</v>
       </c>
-      <c r="AK23" s="1">
+      <c r="AK23" s="2">
         <v>17.57</v>
       </c>
-      <c r="AL23" s="1">
+      <c r="AL23" s="2">
         <v>521372384</v>
       </c>
-      <c r="AM23" s="1">
+      <c r="AM23" s="2">
         <v>5.69151963574274</v>
       </c>
-      <c r="AN23" s="1">
+      <c r="AN23" s="2">
         <v>7.51280591918042</v>
       </c>
-      <c r="AO23" s="1">
+      <c r="AO23" s="2">
         <v>-1.36596471257825</v>
       </c>
-      <c r="AP23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ23" s="1">
+      <c r="AP23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ23" s="2">
         <v>17.56</v>
       </c>
-      <c r="AR23" s="1">
+      <c r="AR23" s="2">
         <v>19.42</v>
       </c>
-      <c r="AS23" s="1">
+      <c r="AS23" s="2">
         <v>17.39</v>
       </c>
-      <c r="AT23" s="1">
+      <c r="AT23" s="2">
         <v>18.83</v>
       </c>
-      <c r="AU23" s="1">
+      <c r="AU23" s="2">
         <v>495602912</v>
       </c>
-      <c r="AV23" s="1">
+      <c r="AV23" s="2">
         <v>-0.0569151963574363</v>
       </c>
-      <c r="AW23" s="1">
+      <c r="AW23" s="2">
         <v>10.5293113261241</v>
       </c>
-      <c r="AX23" s="1">
+      <c r="AX23" s="2">
         <v>-1.02447353443369</v>
       </c>
-      <c r="AY23" s="1">
+      <c r="AY23" s="2">
         <v>7.17131474103587</v>
       </c>
-      <c r="AZ23" s="1">
+      <c r="AZ23" s="2">
         <v>19.2</v>
       </c>
-      <c r="BA23" s="1">
+      <c r="BA23" s="2">
         <v>19.29</v>
       </c>
-      <c r="BB23" s="1">
+      <c r="BB23" s="2">
         <v>17.9</v>
       </c>
-      <c r="BC23" s="1">
+      <c r="BC23" s="2">
         <v>18.46</v>
       </c>
-      <c r="BD23" s="1">
+      <c r="BD23" s="2">
         <v>387910176</v>
       </c>
-      <c r="BE23" s="1">
+      <c r="BE23" s="2">
         <v>9.27717700626067</v>
       </c>
-      <c r="BF23" s="1">
+      <c r="BF23" s="2">
         <v>9.78941377347751</v>
       </c>
-      <c r="BG23" s="1">
+      <c r="BG23" s="2">
         <v>1.87820147979512</v>
       </c>
-      <c r="BH23" s="1">
+      <c r="BH23" s="2">
         <v>5.06545247581105</v>
       </c>
-      <c r="BI23" s="1">
+      <c r="BI23" s="2">
         <v>18.02</v>
       </c>
-      <c r="BJ23" s="1">
+      <c r="BJ23" s="2">
         <v>18.77</v>
       </c>
-      <c r="BK23" s="1">
+      <c r="BK23" s="2">
         <v>17.73</v>
       </c>
-      <c r="BL23" s="1">
+      <c r="BL23" s="2">
         <v>18.19</v>
       </c>
-      <c r="BM23" s="1">
+      <c r="BM23" s="2">
         <v>299701696</v>
       </c>
-      <c r="BN23" s="1">
+      <c r="BN23" s="2">
         <v>2.56118383608423</v>
       </c>
-      <c r="BO23" s="1">
+      <c r="BO23" s="2">
         <v>6.82982356289129</v>
       </c>
-      <c r="BP23" s="1">
+      <c r="BP23" s="2">
         <v>0.91064314171884</v>
       </c>
-      <c r="BQ23" s="1">
+      <c r="BQ23" s="2">
         <v>3.52874217416051</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" spans="1:69">
-      <c r="A24" s="1" t="s">
+    <row r="24" s="2" customFormat="1" spans="1:69">
+      <c r="A24" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="2">
         <v>60.98</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="2">
         <v>1.38177064</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="2">
         <v>0.00296052631578947</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="2">
         <v>0.039695945945946</v>
       </c>
-      <c r="G24" s="1">
-        <v>1</v>
-      </c>
-      <c r="H24" s="1">
-        <v>1</v>
-      </c>
-      <c r="I24" s="1">
+      <c r="G24" s="2">
+        <v>1</v>
+      </c>
+      <c r="H24" s="2">
+        <v>1</v>
+      </c>
+      <c r="I24" s="2">
         <v>0.59198006173089</v>
       </c>
-      <c r="J24" s="1">
-        <v>1</v>
-      </c>
-      <c r="K24" s="1">
+      <c r="J24" s="2">
+        <v>1</v>
+      </c>
+      <c r="K24" s="2">
         <v>3</v>
       </c>
-      <c r="L24" s="1">
+      <c r="L24" s="2">
         <v>5</v>
       </c>
-      <c r="M24" s="1">
+      <c r="M24" s="2">
         <v>1.873</v>
       </c>
-      <c r="N24" s="1">
+      <c r="N24" s="2">
         <v>1.063</v>
       </c>
-      <c r="O24" s="1">
+      <c r="O24" s="2">
         <v>0.845</v>
       </c>
-      <c r="P24" s="1">
+      <c r="P24" s="2">
         <v>0.998</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="Q24" s="2">
         <v>25</v>
       </c>
-      <c r="R24" s="1">
-        <v>0</v>
-      </c>
-      <c r="S24" s="1">
+      <c r="R24" s="2">
+        <v>0</v>
+      </c>
+      <c r="S24" s="2">
         <v>26.24101</v>
       </c>
-      <c r="T24" s="1">
-        <v>0</v>
-      </c>
-      <c r="U24" s="1">
+      <c r="T24" s="2">
+        <v>0</v>
+      </c>
+      <c r="U24" s="2">
         <v>35.7524487978629</v>
       </c>
-      <c r="V24" s="1">
-        <v>0</v>
-      </c>
-      <c r="W24" s="1">
+      <c r="V24" s="2">
+        <v>0</v>
+      </c>
+      <c r="W24" s="2">
         <v>53.0434782608696</v>
       </c>
-      <c r="X24" s="1">
+      <c r="X24" s="2">
         <v>100</v>
       </c>
-      <c r="Y24" s="1">
+      <c r="Y24" s="2">
         <v>21.0617</v>
       </c>
-      <c r="Z24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="1">
+      <c r="Z24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="2">
         <v>68.2369</v>
       </c>
-      <c r="AB24" s="1">
+      <c r="AB24" s="2">
         <v>100</v>
       </c>
-      <c r="AC24" s="1">
+      <c r="AC24" s="2">
         <v>71.6</v>
       </c>
-      <c r="AD24" s="1">
+      <c r="AD24" s="2">
         <v>50</v>
       </c>
-      <c r="AE24" s="1">
+      <c r="AE24" s="2">
         <v>-1.06</v>
       </c>
-      <c r="AF24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG24" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH24" s="1">
+      <c r="AF24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="2">
         <v>60.7</v>
       </c>
-      <c r="AI24" s="1">
+      <c r="AI24" s="2">
         <v>61.55</v>
       </c>
-      <c r="AJ24" s="1">
+      <c r="AJ24" s="2">
         <v>59.2</v>
       </c>
-      <c r="AK24" s="1">
+      <c r="AK24" s="2">
         <v>60.98</v>
       </c>
-      <c r="AL24" s="1">
+      <c r="AL24" s="2">
         <v>74416200</v>
       </c>
-      <c r="AM24" s="1">
+      <c r="AM24" s="2">
         <v>-0.459166939980323</v>
       </c>
-      <c r="AN24" s="1">
+      <c r="AN24" s="2">
         <v>0.934732699245655</v>
       </c>
-      <c r="AO24" s="1">
+      <c r="AO24" s="2">
         <v>-2.91898983273204</v>
       </c>
-      <c r="AP24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ24" s="1">
+      <c r="AP24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ24" s="2">
         <v>60.97</v>
       </c>
-      <c r="AR24" s="1">
+      <c r="AR24" s="2">
         <v>62.58</v>
       </c>
-      <c r="AS24" s="1">
+      <c r="AS24" s="2">
         <v>58.3</v>
       </c>
-      <c r="AT24" s="1">
+      <c r="AT24" s="2">
         <v>61.98</v>
       </c>
-      <c r="AU24" s="1">
+      <c r="AU24" s="2">
         <v>91002112</v>
       </c>
-      <c r="AV24" s="1">
+      <c r="AV24" s="2">
         <v>-0.0163988192850199</v>
       </c>
-      <c r="AW24" s="1">
+      <c r="AW24" s="2">
         <v>2.62381108560183</v>
       </c>
-      <c r="AX24" s="1">
+      <c r="AX24" s="2">
         <v>-4.39488356838308</v>
       </c>
-      <c r="AY24" s="1">
+      <c r="AY24" s="2">
         <v>1.63988192850115</v>
       </c>
-      <c r="AZ24" s="1">
+      <c r="AZ24" s="2">
         <v>61.61</v>
       </c>
-      <c r="BA24" s="1">
+      <c r="BA24" s="2">
         <v>62.1</v>
       </c>
-      <c r="BB24" s="1">
+      <c r="BB24" s="2">
         <v>60</v>
       </c>
-      <c r="BC24" s="1">
+      <c r="BC24" s="2">
         <v>61.86</v>
       </c>
-      <c r="BD24" s="1">
+      <c r="BD24" s="2">
         <v>58689272</v>
       </c>
-      <c r="BE24" s="1">
+      <c r="BE24" s="2">
         <v>1.03312561495572</v>
       </c>
-      <c r="BF24" s="1">
+      <c r="BF24" s="2">
         <v>1.83666775992128</v>
       </c>
-      <c r="BG24" s="1">
+      <c r="BG24" s="2">
         <v>-1.60708428993113</v>
       </c>
-      <c r="BH24" s="1">
+      <c r="BH24" s="2">
         <v>1.443096097081</v>
       </c>
-      <c r="BI24" s="1">
+      <c r="BI24" s="2">
         <v>61.87</v>
       </c>
-      <c r="BJ24" s="1">
+      <c r="BJ24" s="2">
         <v>63.9</v>
       </c>
-      <c r="BK24" s="1">
+      <c r="BK24" s="2">
         <v>61.5</v>
       </c>
-      <c r="BL24" s="1">
+      <c r="BL24" s="2">
         <v>62.5</v>
       </c>
-      <c r="BM24" s="1">
+      <c r="BM24" s="2">
         <v>98096096</v>
       </c>
-      <c r="BN24" s="1">
+      <c r="BN24" s="2">
         <v>1.45949491636602</v>
       </c>
-      <c r="BO24" s="1">
+      <c r="BO24" s="2">
         <v>4.78845523122334</v>
       </c>
-      <c r="BP24" s="1">
+      <c r="BP24" s="2">
         <v>0.85273860282059</v>
       </c>
-      <c r="BQ24" s="1">
+      <c r="BQ24" s="2">
         <v>2.49262053132174</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" spans="1:69">
-      <c r="A25" s="1" t="s">
+    <row r="25" s="2" customFormat="1" spans="1:69">
+      <c r="A25" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="2">
         <v>22.28</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="2">
         <v>1.26153853333333</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="2">
         <v>0.0104308390022676</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="2">
         <v>0.0347985347985349</v>
       </c>
-      <c r="G25" s="1">
-        <v>1</v>
-      </c>
-      <c r="H25" s="1">
-        <v>1</v>
-      </c>
-      <c r="I25" s="1">
+      <c r="G25" s="2">
+        <v>1</v>
+      </c>
+      <c r="H25" s="2">
+        <v>1</v>
+      </c>
+      <c r="I25" s="2">
         <v>0.273753407920501</v>
       </c>
-      <c r="J25" s="1">
-        <v>1</v>
-      </c>
-      <c r="K25" s="1">
+      <c r="J25" s="2">
+        <v>1</v>
+      </c>
+      <c r="K25" s="2">
         <v>3</v>
       </c>
-      <c r="L25" s="1">
+      <c r="L25" s="2">
         <v>6</v>
       </c>
-      <c r="M25" s="1">
+      <c r="M25" s="2">
         <v>1.654</v>
       </c>
-      <c r="N25" s="1">
+      <c r="N25" s="2">
         <v>0.515</v>
       </c>
-      <c r="O25" s="1">
+      <c r="O25" s="2">
         <v>0.693</v>
       </c>
-      <c r="P25" s="1">
+      <c r="P25" s="2">
         <v>1.524</v>
       </c>
-      <c r="Q25" s="1">
+      <c r="Q25" s="2">
         <v>20</v>
       </c>
-      <c r="R25" s="1">
-        <v>0</v>
-      </c>
-      <c r="S25" s="1">
+      <c r="R25" s="2">
+        <v>0</v>
+      </c>
+      <c r="S25" s="2">
         <v>11.0139181</v>
       </c>
-      <c r="T25" s="1">
-        <v>0</v>
-      </c>
-      <c r="U25" s="1">
+      <c r="T25" s="2">
+        <v>0</v>
+      </c>
+      <c r="U25" s="2">
         <v>38.5572139303482</v>
       </c>
-      <c r="V25" s="1">
-        <v>0</v>
-      </c>
-      <c r="W25" s="1">
+      <c r="V25" s="2">
+        <v>0</v>
+      </c>
+      <c r="W25" s="2">
         <v>81.5480844409695</v>
       </c>
-      <c r="X25" s="1">
+      <c r="X25" s="2">
         <v>100</v>
       </c>
-      <c r="Y25" s="1">
+      <c r="Y25" s="2">
         <v>25.2077</v>
       </c>
-      <c r="Z25" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="1">
+      <c r="Z25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="2">
         <v>68.9536</v>
       </c>
-      <c r="AB25" s="1">
+      <c r="AB25" s="2">
         <v>100</v>
       </c>
-      <c r="AC25" s="1">
+      <c r="AC25" s="2">
         <v>69.6</v>
       </c>
-      <c r="AD25" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE25" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF25" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG25" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH25" s="1">
+      <c r="AD25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="2">
         <v>22.04</v>
       </c>
-      <c r="AI25" s="1">
+      <c r="AI25" s="2">
         <v>22.6</v>
       </c>
-      <c r="AJ25" s="1">
+      <c r="AJ25" s="2">
         <v>21.84</v>
       </c>
-      <c r="AK25" s="1">
+      <c r="AK25" s="2">
         <v>22.28</v>
       </c>
-      <c r="AL25" s="1">
+      <c r="AL25" s="2">
         <v>127301016</v>
       </c>
-      <c r="AM25" s="1">
+      <c r="AM25" s="2">
         <v>-1.07719928186715</v>
       </c>
-      <c r="AN25" s="1">
+      <c r="AN25" s="2">
         <v>1.4362657091562</v>
       </c>
-      <c r="AO25" s="1">
+      <c r="AO25" s="2">
         <v>-1.97486535008977</v>
       </c>
-      <c r="AP25" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ25" s="1">
+      <c r="AP25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ25" s="2">
         <v>22.57</v>
       </c>
-      <c r="AR25" s="1">
+      <c r="AR25" s="2">
         <v>25.1</v>
       </c>
-      <c r="AS25" s="1">
+      <c r="AS25" s="2">
         <v>22.46</v>
       </c>
-      <c r="AT25" s="1">
+      <c r="AT25" s="2">
         <v>24.77</v>
       </c>
-      <c r="AU25" s="1">
+      <c r="AU25" s="2">
         <v>235867600</v>
       </c>
-      <c r="AV25" s="1">
+      <c r="AV25" s="2">
         <v>1.3016157989228</v>
       </c>
-      <c r="AW25" s="1">
+      <c r="AW25" s="2">
         <v>12.657091561939</v>
       </c>
-      <c r="AX25" s="1">
+      <c r="AX25" s="2">
         <v>0.807899461400358</v>
       </c>
-      <c r="AY25" s="1">
+      <c r="AY25" s="2">
         <v>11.1759425493716</v>
       </c>
-      <c r="AZ25" s="1">
+      <c r="AZ25" s="2">
         <v>25</v>
       </c>
-      <c r="BA25" s="1">
+      <c r="BA25" s="2">
         <v>26.5</v>
       </c>
-      <c r="BB25" s="1">
+      <c r="BB25" s="2">
         <v>23.89</v>
       </c>
-      <c r="BC25" s="1">
+      <c r="BC25" s="2">
         <v>24.45</v>
       </c>
-      <c r="BD25" s="1">
+      <c r="BD25" s="2">
         <v>239510944</v>
       </c>
-      <c r="BE25" s="1">
+      <c r="BE25" s="2">
         <v>12.2082585278276</v>
       </c>
-      <c r="BF25" s="1">
+      <c r="BF25" s="2">
         <v>18.9407540394973</v>
       </c>
-      <c r="BG25" s="1">
+      <c r="BG25" s="2">
         <v>7.2262118491921</v>
       </c>
-      <c r="BH25" s="1">
+      <c r="BH25" s="2">
         <v>9.73967684021543</v>
       </c>
-      <c r="BI25" s="1">
+      <c r="BI25" s="2">
         <v>24.44</v>
       </c>
-      <c r="BJ25" s="1">
+      <c r="BJ25" s="2">
         <v>24.85</v>
       </c>
-      <c r="BK25" s="1">
+      <c r="BK25" s="2">
         <v>23.63</v>
       </c>
-      <c r="BL25" s="1">
+      <c r="BL25" s="2">
         <v>23.76</v>
       </c>
-      <c r="BM25" s="1">
+      <c r="BM25" s="2">
         <v>140351360</v>
       </c>
-      <c r="BN25" s="1">
+      <c r="BN25" s="2">
         <v>9.69479353680431</v>
       </c>
-      <c r="BO25" s="1">
+      <c r="BO25" s="2">
         <v>11.5350089766607</v>
       </c>
-      <c r="BP25" s="1">
+      <c r="BP25" s="2">
         <v>6.05924596050268</v>
       </c>
-      <c r="BQ25" s="1">
+      <c r="BQ25" s="2">
         <v>6.6427289048474</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" spans="1:69">
-      <c r="A26" s="1" t="s">
+    <row r="26" s="2" customFormat="1" spans="1:69">
+      <c r="A26" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="2">
         <v>32.66</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="2">
         <v>1.41167786666667</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="2">
         <v>0.199853049228509</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="2">
         <v>0.186342172175808</v>
       </c>
-      <c r="G26" s="1">
-        <v>1</v>
-      </c>
-      <c r="H26" s="1">
-        <v>1</v>
-      </c>
-      <c r="I26" s="1">
+      <c r="G26" s="2">
+        <v>1</v>
+      </c>
+      <c r="H26" s="2">
+        <v>1</v>
+      </c>
+      <c r="I26" s="2">
         <v>1.43312665233214</v>
       </c>
-      <c r="J26" s="1">
-        <v>1</v>
-      </c>
-      <c r="K26" s="1">
-        <v>1</v>
-      </c>
-      <c r="L26" s="1">
-        <v>1</v>
-      </c>
-      <c r="M26" s="1">
+      <c r="J26" s="2">
+        <v>1</v>
+      </c>
+      <c r="K26" s="2">
+        <v>1</v>
+      </c>
+      <c r="L26" s="2">
+        <v>1</v>
+      </c>
+      <c r="M26" s="2">
         <v>4.312</v>
       </c>
-      <c r="N26" s="1">
+      <c r="N26" s="2">
         <v>2.612</v>
       </c>
-      <c r="O26" s="1">
+      <c r="O26" s="2">
         <v>2.121</v>
       </c>
-      <c r="P26" s="1">
+      <c r="P26" s="2">
         <v>1.388</v>
       </c>
-      <c r="Q26" s="1">
+      <c r="Q26" s="2">
         <v>25</v>
       </c>
-      <c r="R26" s="1">
-        <v>0</v>
-      </c>
-      <c r="S26" s="1">
+      <c r="R26" s="2">
+        <v>0</v>
+      </c>
+      <c r="S26" s="2">
         <v>18.48889</v>
       </c>
-      <c r="T26" s="1">
-        <v>0</v>
-      </c>
-      <c r="U26" s="1">
+      <c r="T26" s="2">
+        <v>0</v>
+      </c>
+      <c r="U26" s="2">
         <v>48.0507706255667</v>
       </c>
-      <c r="V26" s="1">
+      <c r="V26" s="2">
         <v>50</v>
       </c>
-      <c r="W26" s="1">
+      <c r="W26" s="2">
         <v>69.6623376623377</v>
       </c>
-      <c r="X26" s="1">
+      <c r="X26" s="2">
         <v>100</v>
       </c>
-      <c r="Y26" s="1">
+      <c r="Y26" s="2">
         <v>19.3693</v>
       </c>
-      <c r="Z26" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="1">
+      <c r="Z26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="2">
         <v>72.6723</v>
       </c>
-      <c r="AB26" s="1">
+      <c r="AB26" s="2">
         <v>100</v>
       </c>
-      <c r="AC26" s="1">
+      <c r="AC26" s="2">
         <v>64.8</v>
       </c>
-      <c r="AD26" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE26" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF26" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG26" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH26" s="1">
+      <c r="AD26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="2">
         <v>27.53</v>
       </c>
-      <c r="AI26" s="1">
+      <c r="AI26" s="2">
         <v>32.66</v>
       </c>
-      <c r="AJ26" s="1">
+      <c r="AJ26" s="2">
         <v>27.53</v>
       </c>
-      <c r="AK26" s="1">
+      <c r="AK26" s="2">
         <v>32.66</v>
       </c>
-      <c r="AL26" s="1">
+      <c r="AL26" s="2">
         <v>242228576</v>
       </c>
-      <c r="AM26" s="1">
+      <c r="AM26" s="2">
         <v>-15.7072872014697</v>
       </c>
-      <c r="AN26" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO26" s="1">
+      <c r="AN26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO26" s="2">
         <v>-15.7072872014697</v>
       </c>
-      <c r="AP26" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ26" s="1">
+      <c r="AP26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ26" s="2">
         <v>32.04</v>
       </c>
-      <c r="AR26" s="1">
+      <c r="AR26" s="2">
         <v>32.6</v>
       </c>
-      <c r="AS26" s="1">
+      <c r="AS26" s="2">
         <v>30.11</v>
       </c>
-      <c r="AT26" s="1">
+      <c r="AT26" s="2">
         <v>32.6</v>
       </c>
-      <c r="AU26" s="1">
+      <c r="AU26" s="2">
         <v>346256288</v>
       </c>
-      <c r="AV26" s="1">
+      <c r="AV26" s="2">
         <v>-1.89834660134723</v>
       </c>
-      <c r="AW26" s="1">
+      <c r="AW26" s="2">
         <v>-0.183710961420705</v>
       </c>
-      <c r="AX26" s="1">
+      <c r="AX26" s="2">
         <v>-7.80771586037968</v>
       </c>
-      <c r="AY26" s="1">
+      <c r="AY26" s="2">
         <v>-0.183710961420705</v>
       </c>
-      <c r="AZ26" s="1">
+      <c r="AZ26" s="2">
         <v>31.79</v>
       </c>
-      <c r="BA26" s="1">
+      <c r="BA26" s="2">
         <v>31.79</v>
       </c>
-      <c r="BB26" s="1">
+      <c r="BB26" s="2">
         <v>30.13</v>
       </c>
-      <c r="BC26" s="1">
+      <c r="BC26" s="2">
         <v>30.21</v>
       </c>
-      <c r="BD26" s="1">
+      <c r="BD26" s="2">
         <v>212389968</v>
       </c>
-      <c r="BE26" s="1">
+      <c r="BE26" s="2">
         <v>-2.66380894060014</v>
       </c>
-      <c r="BF26" s="1">
+      <c r="BF26" s="2">
         <v>-2.66380894060014</v>
       </c>
-      <c r="BG26" s="1">
+      <c r="BG26" s="2">
         <v>-7.74647887323945</v>
       </c>
-      <c r="BH26" s="1">
+      <c r="BH26" s="2">
         <v>-7.50153092467851</v>
       </c>
-      <c r="BI26" s="1">
+      <c r="BI26" s="2">
         <v>29.51</v>
       </c>
-      <c r="BJ26" s="1">
+      <c r="BJ26" s="2">
         <v>31.3</v>
       </c>
-      <c r="BK26" s="1">
+      <c r="BK26" s="2">
         <v>28.88</v>
       </c>
-      <c r="BL26" s="1">
+      <c r="BL26" s="2">
         <v>30.46</v>
       </c>
-      <c r="BM26" s="1">
+      <c r="BM26" s="2">
         <v>195789152</v>
       </c>
-      <c r="BN26" s="1">
+      <c r="BN26" s="2">
         <v>-9.64482547458666</v>
       </c>
-      <c r="BO26" s="1">
+      <c r="BO26" s="2">
         <v>-4.16411512553583</v>
       </c>
-      <c r="BP26" s="1">
+      <c r="BP26" s="2">
         <v>-11.573790569504</v>
       </c>
-      <c r="BQ26" s="1">
+      <c r="BQ26" s="2">
         <v>-6.7360685854256</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" spans="1:69">
-      <c r="A27" s="1" t="s">
+    <row r="27" s="2" customFormat="1" spans="1:69">
+      <c r="A27" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="2">
         <v>15.44</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="2">
         <v>0.53828832</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="2">
         <v>-0.00834938985228008</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="2">
         <v>0.0214564369310793</v>
       </c>
-      <c r="G27" s="1">
-        <v>1</v>
-      </c>
-      <c r="H27" s="1">
-        <v>1</v>
-      </c>
-      <c r="I27" s="1">
+      <c r="G27" s="2">
+        <v>1</v>
+      </c>
+      <c r="H27" s="2">
+        <v>1</v>
+      </c>
+      <c r="I27" s="2">
         <v>0.242321895677748</v>
       </c>
-      <c r="J27" s="1">
-        <v>1</v>
-      </c>
-      <c r="K27" s="1">
+      <c r="J27" s="2">
+        <v>1</v>
+      </c>
+      <c r="K27" s="2">
         <v>2</v>
       </c>
-      <c r="L27" s="1">
+      <c r="L27" s="2">
         <v>2</v>
       </c>
-      <c r="M27" s="1">
+      <c r="M27" s="2">
         <v>1.045</v>
       </c>
-      <c r="N27" s="1">
+      <c r="N27" s="2">
         <v>1.011</v>
       </c>
-      <c r="O27" s="1">
+      <c r="O27" s="2">
         <v>1.072</v>
       </c>
-      <c r="P27" s="1">
+      <c r="P27" s="2">
         <v>0.87</v>
       </c>
-      <c r="Q27" s="1">
+      <c r="Q27" s="2">
         <v>10</v>
       </c>
-      <c r="R27" s="1">
-        <v>0</v>
-      </c>
-      <c r="S27" s="1">
+      <c r="R27" s="2">
+        <v>0</v>
+      </c>
+      <c r="S27" s="2">
         <v>11.247127</v>
       </c>
-      <c r="T27" s="1">
-        <v>0</v>
-      </c>
-      <c r="U27" s="1">
+      <c r="T27" s="2">
+        <v>0</v>
+      </c>
+      <c r="U27" s="2">
         <v>20.625</v>
       </c>
-      <c r="V27" s="1">
-        <v>0</v>
-      </c>
-      <c r="W27" s="1">
+      <c r="V27" s="2">
+        <v>0</v>
+      </c>
+      <c r="W27" s="2">
         <v>42.9215509467989</v>
       </c>
-      <c r="X27" s="1">
+      <c r="X27" s="2">
         <v>50</v>
       </c>
-      <c r="Y27" s="1">
+      <c r="Y27" s="2">
         <v>12.7082</v>
       </c>
-      <c r="Z27" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="1">
+      <c r="Z27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="2">
         <v>61.8811</v>
       </c>
-      <c r="AB27" s="1">
+      <c r="AB27" s="2">
         <v>50</v>
       </c>
-      <c r="AC27" s="1">
+      <c r="AC27" s="2">
         <v>62.2667</v>
       </c>
-      <c r="AD27" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE27" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF27" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG27" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH27" s="1">
+      <c r="AD27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="2">
         <v>15.53</v>
       </c>
-      <c r="AI27" s="1">
+      <c r="AI27" s="2">
         <v>15.71</v>
       </c>
-      <c r="AJ27" s="1">
+      <c r="AJ27" s="2">
         <v>15.38</v>
       </c>
-      <c r="AK27" s="1">
+      <c r="AK27" s="2">
         <v>15.44</v>
       </c>
-      <c r="AL27" s="1">
+      <c r="AL27" s="2">
         <v>40938312</v>
       </c>
-      <c r="AM27" s="1">
+      <c r="AM27" s="2">
         <v>0.582901554404156</v>
       </c>
-      <c r="AN27" s="1">
+      <c r="AN27" s="2">
         <v>1.74870466321244</v>
       </c>
-      <c r="AO27" s="1">
+      <c r="AO27" s="2">
         <v>-0.388601036269422</v>
       </c>
-      <c r="AP27" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ27" s="1">
+      <c r="AP27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ27" s="2">
         <v>15.78</v>
       </c>
-      <c r="AR27" s="1">
+      <c r="AR27" s="2">
         <v>15.97</v>
       </c>
-      <c r="AS27" s="1">
+      <c r="AS27" s="2">
         <v>15.29</v>
       </c>
-      <c r="AT27" s="1">
+      <c r="AT27" s="2">
         <v>15.5</v>
       </c>
-      <c r="AU27" s="1">
+      <c r="AU27" s="2">
         <v>51427448</v>
       </c>
-      <c r="AV27" s="1">
+      <c r="AV27" s="2">
         <v>2.20207253886011</v>
       </c>
-      <c r="AW27" s="1">
+      <c r="AW27" s="2">
         <v>3.43264248704664</v>
       </c>
-      <c r="AX27" s="1">
+      <c r="AX27" s="2">
         <v>-0.971502590673566</v>
       </c>
-      <c r="AY27" s="1">
+      <c r="AY27" s="2">
         <v>0.388601036269433</v>
       </c>
-      <c r="AZ27" s="1">
+      <c r="AZ27" s="2">
         <v>15.74</v>
       </c>
-      <c r="BA27" s="1">
+      <c r="BA27" s="2">
         <v>16.25</v>
       </c>
-      <c r="BB27" s="1">
+      <c r="BB27" s="2">
         <v>15.31</v>
       </c>
-      <c r="BC27" s="1">
+      <c r="BC27" s="2">
         <v>15.9</v>
       </c>
-      <c r="BD27" s="1">
+      <c r="BD27" s="2">
         <v>100275344</v>
       </c>
-      <c r="BE27" s="1">
+      <c r="BE27" s="2">
         <v>1.94300518134715</v>
       </c>
-      <c r="BF27" s="1">
+      <c r="BF27" s="2">
         <v>5.24611398963731</v>
       </c>
-      <c r="BG27" s="1">
+      <c r="BG27" s="2">
         <v>-0.841968911917092</v>
       </c>
-      <c r="BH27" s="1">
+      <c r="BH27" s="2">
         <v>2.97927461139897</v>
       </c>
-      <c r="BI27" s="1">
+      <c r="BI27" s="2">
         <v>16.06</v>
       </c>
-      <c r="BJ27" s="1">
+      <c r="BJ27" s="2">
         <v>19.08</v>
       </c>
-      <c r="BK27" s="1">
+      <c r="BK27" s="2">
         <v>15.91</v>
       </c>
-      <c r="BL27" s="1">
+      <c r="BL27" s="2">
         <v>18.3</v>
       </c>
-      <c r="BM27" s="1">
+      <c r="BM27" s="2">
         <v>336745856</v>
       </c>
-      <c r="BN27" s="1">
+      <c r="BN27" s="2">
         <v>4.01554404145077</v>
       </c>
-      <c r="BO27" s="1">
+      <c r="BO27" s="2">
         <v>23.5751295336788</v>
       </c>
-      <c r="BP27" s="1">
+      <c r="BP27" s="2">
         <v>3.04404145077721</v>
       </c>
-      <c r="BQ27" s="1">
+      <c r="BQ27" s="2">
         <v>18.5233160621762</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" spans="1:69">
-      <c r="A28" s="1" t="s">
+    <row r="28" s="2" customFormat="1" spans="1:69">
+      <c r="A28" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="2">
         <v>45.45</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="2">
         <v>2.17424208</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="2">
         <v>-0.0644298065047344</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="2">
         <v>0.0734513274336283</v>
       </c>
-      <c r="G28" s="1">
-        <v>1</v>
-      </c>
-      <c r="H28" s="1">
-        <v>1</v>
-      </c>
-      <c r="I28" s="1">
+      <c r="G28" s="2">
+        <v>1</v>
+      </c>
+      <c r="H28" s="2">
+        <v>1</v>
+      </c>
+      <c r="I28" s="2">
         <v>3.30024770725811</v>
       </c>
-      <c r="J28" s="1">
-        <v>1</v>
-      </c>
-      <c r="K28" s="1">
+      <c r="J28" s="2">
+        <v>1</v>
+      </c>
+      <c r="K28" s="2">
         <v>6</v>
       </c>
-      <c r="L28" s="1">
+      <c r="L28" s="2">
         <v>6</v>
       </c>
-      <c r="M28" s="1">
+      <c r="M28" s="2">
         <v>1.142</v>
       </c>
-      <c r="N28" s="1">
+      <c r="N28" s="2">
         <v>2.027</v>
       </c>
-      <c r="O28" s="1">
+      <c r="O28" s="2">
         <v>2.144</v>
       </c>
-      <c r="P28" s="1">
+      <c r="P28" s="2">
         <v>1.995</v>
       </c>
-      <c r="Q28" s="1">
+      <c r="Q28" s="2">
         <v>38</v>
       </c>
-      <c r="R28" s="1">
-        <v>0</v>
-      </c>
-      <c r="S28" s="1">
+      <c r="R28" s="2">
+        <v>0</v>
+      </c>
+      <c r="S28" s="2">
         <v>26.60944</v>
       </c>
-      <c r="T28" s="1">
-        <v>0</v>
-      </c>
-      <c r="U28" s="1">
+      <c r="T28" s="2">
+        <v>0</v>
+      </c>
+      <c r="U28" s="2">
         <v>85.132382892057</v>
       </c>
-      <c r="V28" s="1">
+      <c r="V28" s="2">
         <v>100</v>
       </c>
-      <c r="W28" s="1">
+      <c r="W28" s="2">
         <v>139.655172413793</v>
       </c>
-      <c r="X28" s="1">
+      <c r="X28" s="2">
         <v>100</v>
       </c>
-      <c r="Y28" s="1">
+      <c r="Y28" s="2">
         <v>32.8934</v>
       </c>
-      <c r="Z28" s="1">
+      <c r="Z28" s="2">
         <v>80</v>
       </c>
-      <c r="AA28" s="1">
+      <c r="AA28" s="2">
         <v>65.9013</v>
       </c>
-      <c r="AB28" s="1">
+      <c r="AB28" s="2">
         <v>50</v>
       </c>
-      <c r="AC28" s="1">
+      <c r="AC28" s="2">
         <v>73.6</v>
       </c>
-      <c r="AD28" s="1">
+      <c r="AD28" s="2">
         <v>50</v>
       </c>
-      <c r="AE28" s="1">
+      <c r="AE28" s="2">
         <v>-3.49</v>
       </c>
-      <c r="AF28" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG28" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH28" s="1">
+      <c r="AF28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="2">
         <v>48</v>
       </c>
-      <c r="AI28" s="1">
+      <c r="AI28" s="2">
         <v>48.52</v>
       </c>
-      <c r="AJ28" s="1">
+      <c r="AJ28" s="2">
         <v>45.2</v>
       </c>
-      <c r="AK28" s="1">
+      <c r="AK28" s="2">
         <v>45.45</v>
       </c>
-      <c r="AL28" s="1">
+      <c r="AL28" s="2">
         <v>211036560</v>
       </c>
-      <c r="AM28" s="1">
+      <c r="AM28" s="2">
         <v>5.6105610561056</v>
       </c>
-      <c r="AN28" s="1">
+      <c r="AN28" s="2">
         <v>6.75467546754675</v>
       </c>
-      <c r="AO28" s="1">
+      <c r="AO28" s="2">
         <v>-0.55005500550055</v>
       </c>
-      <c r="AP28" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ28" s="1">
+      <c r="AP28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ28" s="2">
         <v>47.75</v>
       </c>
-      <c r="AR28" s="1">
+      <c r="AR28" s="2">
         <v>54.38</v>
       </c>
-      <c r="AS28" s="1">
+      <c r="AS28" s="2">
         <v>46.03</v>
       </c>
-      <c r="AT28" s="1">
+      <c r="AT28" s="2">
         <v>48.82</v>
       </c>
-      <c r="AU28" s="1">
+      <c r="AU28" s="2">
         <v>311600128</v>
       </c>
-      <c r="AV28" s="1">
+      <c r="AV28" s="2">
         <v>5.06050605060506</v>
       </c>
-      <c r="AW28" s="1">
+      <c r="AW28" s="2">
         <v>19.6479647964796</v>
       </c>
-      <c r="AX28" s="1">
+      <c r="AX28" s="2">
         <v>1.27612761276127</v>
       </c>
-      <c r="AY28" s="1">
+      <c r="AY28" s="2">
         <v>7.41474147414741</v>
       </c>
-      <c r="AZ28" s="1">
+      <c r="AZ28" s="2">
         <v>48.82</v>
       </c>
-      <c r="BA28" s="1">
+      <c r="BA28" s="2">
         <v>51.01</v>
       </c>
-      <c r="BB28" s="1">
+      <c r="BB28" s="2">
         <v>48</v>
       </c>
-      <c r="BC28" s="1">
+      <c r="BC28" s="2">
         <v>50.98</v>
       </c>
-      <c r="BD28" s="1">
+      <c r="BD28" s="2">
         <v>253064832</v>
       </c>
-      <c r="BE28" s="1">
+      <c r="BE28" s="2">
         <v>7.41474147414741</v>
       </c>
-      <c r="BF28" s="1">
+      <c r="BF28" s="2">
         <v>12.2332233223322</v>
       </c>
-      <c r="BG28" s="1">
+      <c r="BG28" s="2">
         <v>5.6105610561056</v>
       </c>
-      <c r="BH28" s="1">
+      <c r="BH28" s="2">
         <v>12.1672167216722</v>
       </c>
-      <c r="BI28" s="1">
+      <c r="BI28" s="2">
         <v>50</v>
       </c>
-      <c r="BJ28" s="1">
+      <c r="BJ28" s="2">
         <v>50.48</v>
       </c>
-      <c r="BK28" s="1">
+      <c r="BK28" s="2">
         <v>47.2</v>
       </c>
-      <c r="BL28" s="1">
+      <c r="BL28" s="2">
         <v>48.08</v>
       </c>
-      <c r="BM28" s="1">
+      <c r="BM28" s="2">
         <v>240500720</v>
       </c>
-      <c r="BN28" s="1">
+      <c r="BN28" s="2">
         <v>10.01100110011</v>
       </c>
-      <c r="BO28" s="1">
+      <c r="BO28" s="2">
         <v>11.0671067106711</v>
       </c>
-      <c r="BP28" s="1">
+      <c r="BP28" s="2">
         <v>3.85038503850385</v>
       </c>
-      <c r="BQ28" s="1">
+      <c r="BQ28" s="2">
         <v>5.78657865786578</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" spans="1:69">
-      <c r="A29" s="1" t="s">
+    <row r="29" s="2" customFormat="1" spans="1:69">
+      <c r="A29" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="2">
         <v>98.13</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="2">
         <v>6.56322901333333</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="2">
         <v>-0.0842665173572229</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="2">
         <v>0.119018151815181</v>
       </c>
-      <c r="G29" s="1">
-        <v>1</v>
-      </c>
-      <c r="H29" s="1">
-        <v>1</v>
-      </c>
-      <c r="I29" s="1">
+      <c r="G29" s="2">
+        <v>1</v>
+      </c>
+      <c r="H29" s="2">
+        <v>1</v>
+      </c>
+      <c r="I29" s="2">
         <v>7.01715377683135</v>
       </c>
-      <c r="J29" s="1">
-        <v>1</v>
-      </c>
-      <c r="K29" s="1">
+      <c r="J29" s="2">
+        <v>1</v>
+      </c>
+      <c r="K29" s="2">
         <v>17</v>
       </c>
-      <c r="L29" s="1">
+      <c r="L29" s="2">
         <v>10</v>
       </c>
-      <c r="M29" s="1">
+      <c r="M29" s="2">
         <v>0.946</v>
       </c>
-      <c r="N29" s="1">
+      <c r="N29" s="2">
         <v>1.513</v>
       </c>
-      <c r="O29" s="1">
+      <c r="O29" s="2">
         <v>2.098</v>
       </c>
-      <c r="P29" s="1">
+      <c r="P29" s="2">
         <v>2.499</v>
       </c>
-      <c r="Q29" s="1">
+      <c r="Q29" s="2">
         <v>45</v>
       </c>
-      <c r="R29" s="1">
+      <c r="R29" s="2">
         <v>60</v>
       </c>
-      <c r="S29" s="1">
+      <c r="S29" s="2">
         <v>9.0846</v>
       </c>
-      <c r="T29" s="1">
-        <v>0</v>
-      </c>
-      <c r="U29" s="1">
+      <c r="T29" s="2">
+        <v>0</v>
+      </c>
+      <c r="U29" s="2">
         <v>152.391975308642</v>
       </c>
-      <c r="V29" s="1">
+      <c r="V29" s="2">
         <v>100</v>
       </c>
-      <c r="W29" s="1">
+      <c r="W29" s="2">
         <v>213.175675675676</v>
       </c>
-      <c r="X29" s="1">
+      <c r="X29" s="2">
         <v>100</v>
       </c>
-      <c r="Y29" s="1">
+      <c r="Y29" s="2">
         <v>35.5524</v>
       </c>
-      <c r="Z29" s="1">
+      <c r="Z29" s="2">
         <v>80</v>
       </c>
-      <c r="AA29" s="1">
+      <c r="AA29" s="2">
         <v>55.6403</v>
       </c>
-      <c r="AB29" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC29" s="1">
+      <c r="AB29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="2">
         <v>74.8</v>
       </c>
-      <c r="AD29" s="1">
+      <c r="AD29" s="2">
         <v>50</v>
       </c>
-      <c r="AE29" s="1">
+      <c r="AE29" s="2">
         <v>-1.28</v>
       </c>
-      <c r="AF29" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG29" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH29" s="1">
+      <c r="AF29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH29" s="2">
         <v>102</v>
       </c>
-      <c r="AI29" s="1">
+      <c r="AI29" s="2">
         <v>108.5</v>
       </c>
-      <c r="AJ29" s="1">
+      <c r="AJ29" s="2">
         <v>96.96</v>
       </c>
-      <c r="AK29" s="1">
+      <c r="AK29" s="2">
         <v>98.13</v>
       </c>
-      <c r="AL29" s="1">
+      <c r="AL29" s="2">
         <v>634896448</v>
       </c>
-      <c r="AM29" s="1">
+      <c r="AM29" s="2">
         <v>3.94374808926934</v>
       </c>
-      <c r="AN29" s="1">
+      <c r="AN29" s="2">
         <v>10.5676143890757</v>
       </c>
-      <c r="AO29" s="1">
+      <c r="AO29" s="2">
         <v>-1.19229593396514</v>
       </c>
-      <c r="AP29" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ29" s="1">
+      <c r="AP29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ29" s="2">
         <v>98</v>
       </c>
-      <c r="AR29" s="1">
+      <c r="AR29" s="2">
         <v>98.96</v>
       </c>
-      <c r="AS29" s="1">
+      <c r="AS29" s="2">
         <v>95.41</v>
       </c>
-      <c r="AT29" s="1">
+      <c r="AT29" s="2">
         <v>98.74</v>
       </c>
-      <c r="AU29" s="1">
+      <c r="AU29" s="2">
         <v>333228160</v>
       </c>
-      <c r="AV29" s="1">
+      <c r="AV29" s="2">
         <v>-0.132477325996123</v>
       </c>
-      <c r="AW29" s="1">
+      <c r="AW29" s="2">
         <v>0.845816773667597</v>
       </c>
-      <c r="AX29" s="1">
+      <c r="AX29" s="2">
         <v>-2.77183328238051</v>
       </c>
-      <c r="AY29" s="1">
+      <c r="AY29" s="2">
         <v>0.621624375827997</v>
       </c>
-      <c r="AZ29" s="1">
+      <c r="AZ29" s="2">
         <v>98.96</v>
       </c>
-      <c r="BA29" s="1">
+      <c r="BA29" s="2">
         <v>99.03</v>
       </c>
-      <c r="BB29" s="1">
+      <c r="BB29" s="2">
         <v>96</v>
       </c>
-      <c r="BC29" s="1">
+      <c r="BC29" s="2">
         <v>97.83</v>
       </c>
-      <c r="BD29" s="1">
+      <c r="BD29" s="2">
         <v>317125408</v>
       </c>
-      <c r="BE29" s="1">
+      <c r="BE29" s="2">
         <v>0.845816773667597</v>
       </c>
-      <c r="BF29" s="1">
+      <c r="BF29" s="2">
         <v>0.917150718434735</v>
       </c>
-      <c r="BG29" s="1">
+      <c r="BG29" s="2">
         <v>-2.17059003362885</v>
       </c>
-      <c r="BH29" s="1">
+      <c r="BH29" s="2">
         <v>-0.305716906144907</v>
       </c>
-      <c r="BI29" s="1">
+      <c r="BI29" s="2">
         <v>97.84</v>
       </c>
-      <c r="BJ29" s="1">
+      <c r="BJ29" s="2">
         <v>99.68</v>
       </c>
-      <c r="BK29" s="1">
+      <c r="BK29" s="2">
         <v>94.01</v>
       </c>
-      <c r="BL29" s="1">
+      <c r="BL29" s="2">
         <v>96.3</v>
       </c>
-      <c r="BM29" s="1">
+      <c r="BM29" s="2">
         <v>394654240</v>
       </c>
-      <c r="BN29" s="1">
+      <c r="BN29" s="2">
         <v>-0.295526342606738</v>
       </c>
-      <c r="BO29" s="1">
+      <c r="BO29" s="2">
         <v>1.57953734841538</v>
       </c>
-      <c r="BP29" s="1">
+      <c r="BP29" s="2">
         <v>-4.19851217772342</v>
       </c>
-      <c r="BQ29" s="1">
+      <c r="BQ29" s="2">
         <v>-1.86487312748395</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" spans="1:69">
-      <c r="A30" s="1" t="s">
+    <row r="30" s="2" customFormat="1" spans="1:69">
+      <c r="A30" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="2">
         <v>28</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="2">
         <v>2.85289904</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="2">
         <v>-0.0828693088765149</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="2">
         <v>0.069717554522703</v>
       </c>
-      <c r="G30" s="1">
-        <v>1</v>
-      </c>
-      <c r="H30" s="1">
-        <v>1</v>
-      </c>
-      <c r="I30" s="1">
+      <c r="G30" s="2">
+        <v>1</v>
+      </c>
+      <c r="H30" s="2">
+        <v>1</v>
+      </c>
+      <c r="I30" s="2">
         <v>1.25061699009207</v>
       </c>
-      <c r="J30" s="1">
-        <v>1</v>
-      </c>
-      <c r="K30" s="1">
+      <c r="J30" s="2">
+        <v>1</v>
+      </c>
+      <c r="K30" s="2">
         <v>4</v>
       </c>
-      <c r="L30" s="1">
+      <c r="L30" s="2">
         <v>6</v>
       </c>
-      <c r="M30" s="1">
+      <c r="M30" s="2">
         <v>1.126</v>
       </c>
-      <c r="N30" s="1">
+      <c r="N30" s="2">
         <v>1.662</v>
       </c>
-      <c r="O30" s="1">
+      <c r="O30" s="2">
         <v>3.585</v>
       </c>
-      <c r="P30" s="1">
+      <c r="P30" s="2">
         <v>2.86</v>
       </c>
-      <c r="Q30" s="1">
+      <c r="Q30" s="2">
         <v>20</v>
       </c>
-      <c r="R30" s="1">
-        <v>0</v>
-      </c>
-      <c r="S30" s="1">
+      <c r="R30" s="2">
+        <v>0</v>
+      </c>
+      <c r="S30" s="2">
         <v>6.1182</v>
       </c>
-      <c r="T30" s="1">
-        <v>0</v>
-      </c>
-      <c r="U30" s="1">
+      <c r="T30" s="2">
+        <v>0</v>
+      </c>
+      <c r="U30" s="2">
         <v>36.3857769118363</v>
       </c>
-      <c r="V30" s="1">
-        <v>0</v>
-      </c>
-      <c r="W30" s="1">
+      <c r="V30" s="2">
+        <v>0</v>
+      </c>
+      <c r="W30" s="2">
         <v>77.5804661487236</v>
       </c>
-      <c r="X30" s="1">
+      <c r="X30" s="2">
         <v>100</v>
       </c>
-      <c r="Y30" s="1">
+      <c r="Y30" s="2">
         <v>18.5316</v>
       </c>
-      <c r="Z30" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA30" s="1">
+      <c r="Z30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="2">
         <v>61.6207</v>
       </c>
-      <c r="AB30" s="1">
+      <c r="AB30" s="2">
         <v>50</v>
       </c>
-      <c r="AC30" s="1">
+      <c r="AC30" s="2">
         <v>73.7333</v>
       </c>
-      <c r="AD30" s="1">
+      <c r="AD30" s="2">
         <v>50</v>
       </c>
-      <c r="AE30" s="1">
+      <c r="AE30" s="2">
         <v>-1.89</v>
       </c>
-      <c r="AF30" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG30" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH30" s="1">
+      <c r="AF30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH30" s="2">
         <v>29.88</v>
       </c>
-      <c r="AI30" s="1">
+      <c r="AI30" s="2">
         <v>29.92</v>
       </c>
-      <c r="AJ30" s="1">
+      <c r="AJ30" s="2">
         <v>27.97</v>
       </c>
-      <c r="AK30" s="1">
+      <c r="AK30" s="2">
         <v>28</v>
       </c>
-      <c r="AL30" s="1">
+      <c r="AL30" s="2">
         <v>197699280</v>
       </c>
-      <c r="AM30" s="1">
+      <c r="AM30" s="2">
         <v>6.71428571428571</v>
       </c>
-      <c r="AN30" s="1">
+      <c r="AN30" s="2">
         <v>6.85714285714286</v>
       </c>
-      <c r="AO30" s="1">
+      <c r="AO30" s="2">
         <v>-0.107142857142861</v>
       </c>
-      <c r="AP30" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ30" s="1">
+      <c r="AP30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ30" s="2">
         <v>27.98</v>
       </c>
-      <c r="AR30" s="1">
+      <c r="AR30" s="2">
         <v>28.32</v>
       </c>
-      <c r="AS30" s="1">
+      <c r="AS30" s="2">
         <v>27.5</v>
       </c>
-      <c r="AT30" s="1">
+      <c r="AT30" s="2">
         <v>27.79</v>
       </c>
-      <c r="AU30" s="1">
+      <c r="AU30" s="2">
         <v>125525128</v>
       </c>
-      <c r="AV30" s="1">
+      <c r="AV30" s="2">
         <v>-0.0714285714285699</v>
       </c>
-      <c r="AW30" s="1">
+      <c r="AW30" s="2">
         <v>1.14285714285714</v>
       </c>
-      <c r="AX30" s="1">
+      <c r="AX30" s="2">
         <v>-1.78571428571429</v>
       </c>
-      <c r="AY30" s="1">
+      <c r="AY30" s="2">
         <v>-0.750000000000003</v>
       </c>
-      <c r="AZ30" s="1">
+      <c r="AZ30" s="2">
         <v>28</v>
       </c>
-      <c r="BA30" s="1">
+      <c r="BA30" s="2">
         <v>33</v>
       </c>
-      <c r="BB30" s="1">
+      <c r="BB30" s="2">
         <v>27.39</v>
       </c>
-      <c r="BC30" s="1">
+      <c r="BC30" s="2">
         <v>31.39</v>
       </c>
-      <c r="BD30" s="1">
+      <c r="BD30" s="2">
         <v>363194368</v>
       </c>
-      <c r="BE30" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF30" s="1">
+      <c r="BE30" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF30" s="2">
         <v>17.8571428571429</v>
       </c>
-      <c r="BG30" s="1">
+      <c r="BG30" s="2">
         <v>-2.17857142857143</v>
       </c>
-      <c r="BH30" s="1">
+      <c r="BH30" s="2">
         <v>12.1071428571429</v>
       </c>
-      <c r="BI30" s="1">
+      <c r="BI30" s="2">
         <v>30.51</v>
       </c>
-      <c r="BJ30" s="1">
+      <c r="BJ30" s="2">
         <v>32.25</v>
       </c>
-      <c r="BK30" s="1">
+      <c r="BK30" s="2">
         <v>29.75</v>
       </c>
-      <c r="BL30" s="1">
+      <c r="BL30" s="2">
         <v>30.36</v>
       </c>
-      <c r="BM30" s="1">
+      <c r="BM30" s="2">
         <v>314447072</v>
       </c>
-      <c r="BN30" s="1">
+      <c r="BN30" s="2">
         <v>8.96428571428572</v>
       </c>
-      <c r="BO30" s="1">
+      <c r="BO30" s="2">
         <v>15.1785714285714</v>
       </c>
-      <c r="BP30" s="1">
+      <c r="BP30" s="2">
         <v>6.25</v>
       </c>
-      <c r="BQ30" s="1">
+      <c r="BQ30" s="2">
         <v>8.42857142857143</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" spans="1:69">
-      <c r="A31" s="1" t="s">
+    <row r="31" s="2" customFormat="1" spans="1:69">
+      <c r="A31" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="2">
         <v>35.61</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="2">
         <v>5.12573493333333</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="2">
         <v>0.0073550212164073</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="2">
         <v>0.078515962036238</v>
       </c>
-      <c r="G31" s="1">
-        <v>1</v>
-      </c>
-      <c r="H31" s="1">
-        <v>1</v>
-      </c>
-      <c r="I31" s="1">
+      <c r="G31" s="2">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2">
+        <v>1</v>
+      </c>
+      <c r="I31" s="2">
         <v>1.90482065309806</v>
       </c>
-      <c r="J31" s="1">
-        <v>1</v>
-      </c>
-      <c r="K31" s="1">
+      <c r="J31" s="2">
+        <v>1</v>
+      </c>
+      <c r="K31" s="2">
         <v>4</v>
       </c>
-      <c r="L31" s="1">
+      <c r="L31" s="2">
         <v>8</v>
       </c>
-      <c r="M31" s="1">
+      <c r="M31" s="2">
         <v>1.407</v>
       </c>
-      <c r="N31" s="1">
+      <c r="N31" s="2">
         <v>1.335</v>
       </c>
-      <c r="O31" s="1">
+      <c r="O31" s="2">
         <v>2.219</v>
       </c>
-      <c r="P31" s="1">
+      <c r="P31" s="2">
         <v>3.057</v>
       </c>
-      <c r="Q31" s="1">
+      <c r="Q31" s="2">
         <v>45</v>
       </c>
-      <c r="R31" s="1">
+      <c r="R31" s="2">
         <v>60</v>
       </c>
-      <c r="S31" s="1">
+      <c r="S31" s="2">
         <v>14.939886</v>
       </c>
-      <c r="T31" s="1">
-        <v>0</v>
-      </c>
-      <c r="U31" s="1">
+      <c r="T31" s="2">
+        <v>0</v>
+      </c>
+      <c r="U31" s="2">
         <v>46.66392092257</v>
       </c>
-      <c r="V31" s="1">
+      <c r="V31" s="2">
         <v>50</v>
       </c>
-      <c r="W31" s="1">
+      <c r="W31" s="2">
         <v>71.3574660633484</v>
       </c>
-      <c r="X31" s="1">
+      <c r="X31" s="2">
         <v>100</v>
       </c>
-      <c r="Y31" s="1">
+      <c r="Y31" s="2">
         <v>29.2619</v>
       </c>
-      <c r="Z31" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA31" s="1">
+      <c r="Z31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="2">
         <v>67.9035</v>
       </c>
-      <c r="AB31" s="1">
+      <c r="AB31" s="2">
         <v>100</v>
       </c>
-      <c r="AC31" s="1">
+      <c r="AC31" s="2">
         <v>80.4</v>
       </c>
-      <c r="AD31" s="1">
+      <c r="AD31" s="2">
         <v>80</v>
       </c>
-      <c r="AE31" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF31" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG31" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH31" s="1">
+      <c r="AE31" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH31" s="2">
         <v>34.77</v>
       </c>
-      <c r="AI31" s="1">
+      <c r="AI31" s="2">
         <v>37.5</v>
       </c>
-      <c r="AJ31" s="1">
+      <c r="AJ31" s="2">
         <v>34.77</v>
       </c>
-      <c r="AK31" s="1">
+      <c r="AK31" s="2">
         <v>35.61</v>
       </c>
-      <c r="AL31" s="1">
+      <c r="AL31" s="2">
         <v>407247616</v>
       </c>
-      <c r="AM31" s="1">
+      <c r="AM31" s="2">
         <v>-2.35888795282223</v>
       </c>
-      <c r="AN31" s="1">
+      <c r="AN31" s="2">
         <v>5.30749789385004</v>
       </c>
-      <c r="AO31" s="1">
+      <c r="AO31" s="2">
         <v>-2.35888795282223</v>
       </c>
-      <c r="AP31" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ31" s="1">
+      <c r="AP31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ31" s="2">
         <v>34.7</v>
       </c>
-      <c r="AR31" s="1">
+      <c r="AR31" s="2">
         <v>36.11</v>
       </c>
-      <c r="AS31" s="1">
+      <c r="AS31" s="2">
         <v>34.03</v>
       </c>
-      <c r="AT31" s="1">
+      <c r="AT31" s="2">
         <v>35.61</v>
       </c>
-      <c r="AU31" s="1">
+      <c r="AU31" s="2">
         <v>333941440</v>
       </c>
-      <c r="AV31" s="1">
+      <c r="AV31" s="2">
         <v>-2.55546194889075</v>
       </c>
-      <c r="AW31" s="1">
+      <c r="AW31" s="2">
         <v>1.404099971918</v>
       </c>
-      <c r="AX31" s="1">
+      <c r="AX31" s="2">
         <v>-4.43695591126088</v>
       </c>
-      <c r="AY31" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ31" s="1">
+      <c r="AY31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ31" s="2">
         <v>35.03</v>
       </c>
-      <c r="BA31" s="1">
+      <c r="BA31" s="2">
         <v>35.5</v>
       </c>
-      <c r="BB31" s="1">
+      <c r="BB31" s="2">
         <v>34.05</v>
       </c>
-      <c r="BC31" s="1">
+      <c r="BC31" s="2">
         <v>35.2</v>
       </c>
-      <c r="BD31" s="1">
+      <c r="BD31" s="2">
         <v>297984000</v>
       </c>
-      <c r="BE31" s="1">
+      <c r="BE31" s="2">
         <v>-1.62875596742488</v>
       </c>
-      <c r="BF31" s="1">
+      <c r="BF31" s="2">
         <v>-0.308901993821958</v>
       </c>
-      <c r="BG31" s="1">
+      <c r="BG31" s="2">
         <v>-4.38079191238417</v>
       </c>
-      <c r="BH31" s="1">
+      <c r="BH31" s="2">
         <v>-1.15136197697275</v>
       </c>
-      <c r="BI31" s="1">
+      <c r="BI31" s="2">
         <v>34.92</v>
       </c>
-      <c r="BJ31" s="1">
+      <c r="BJ31" s="2">
         <v>36.93</v>
       </c>
-      <c r="BK31" s="1">
+      <c r="BK31" s="2">
         <v>34.43</v>
       </c>
-      <c r="BL31" s="1">
+      <c r="BL31" s="2">
         <v>36.13</v>
       </c>
-      <c r="BM31" s="1">
+      <c r="BM31" s="2">
         <v>346194016</v>
       </c>
-      <c r="BN31" s="1">
+      <c r="BN31" s="2">
         <v>-1.93765796124683</v>
       </c>
-      <c r="BO31" s="1">
+      <c r="BO31" s="2">
         <v>3.70682392586352</v>
       </c>
-      <c r="BP31" s="1">
+      <c r="BP31" s="2">
         <v>-3.31367593372648</v>
       </c>
-      <c r="BQ31" s="1">
+      <c r="BQ31" s="2">
         <v>1.46026397079473</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" spans="1:69">
-      <c r="A32" s="1" t="s">
+    <row r="32" s="2" customFormat="1" spans="1:69">
+      <c r="A32" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="2">
         <v>22.14</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="2">
         <v>4.35716938666667</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="2">
         <v>-0.0658227848101265</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="2">
         <v>0.0633484162895927</v>
       </c>
-      <c r="G32" s="1">
-        <v>1</v>
-      </c>
-      <c r="H32" s="1">
-        <v>1</v>
-      </c>
-      <c r="I32" s="1">
+      <c r="G32" s="2">
+        <v>1</v>
+      </c>
+      <c r="H32" s="2">
+        <v>1</v>
+      </c>
+      <c r="I32" s="2">
         <v>0.61866899178346</v>
       </c>
-      <c r="J32" s="1">
-        <v>1</v>
-      </c>
-      <c r="K32" s="1">
+      <c r="J32" s="2">
+        <v>1</v>
+      </c>
+      <c r="K32" s="2">
         <v>3</v>
       </c>
-      <c r="L32" s="1">
+      <c r="L32" s="2">
         <v>8</v>
       </c>
-      <c r="M32" s="1">
+      <c r="M32" s="2">
         <v>1.531</v>
       </c>
-      <c r="N32" s="1">
+      <c r="N32" s="2">
         <v>1.336</v>
       </c>
-      <c r="O32" s="1">
+      <c r="O32" s="2">
         <v>1.594</v>
       </c>
-      <c r="P32" s="1">
+      <c r="P32" s="2">
         <v>1.222</v>
       </c>
-      <c r="Q32" s="1">
+      <c r="Q32" s="2">
         <v>20</v>
       </c>
-      <c r="R32" s="1">
-        <v>0</v>
-      </c>
-      <c r="S32" s="1">
+      <c r="R32" s="2">
+        <v>0</v>
+      </c>
+      <c r="S32" s="2">
         <v>9.1889537</v>
       </c>
-      <c r="T32" s="1">
-        <v>0</v>
-      </c>
-      <c r="U32" s="1">
+      <c r="T32" s="2">
+        <v>0</v>
+      </c>
+      <c r="U32" s="2">
         <v>17.0809095716552</v>
       </c>
-      <c r="V32" s="1">
-        <v>0</v>
-      </c>
-      <c r="W32" s="1">
+      <c r="V32" s="2">
+        <v>0</v>
+      </c>
+      <c r="W32" s="2">
         <v>55.7080474111042</v>
       </c>
-      <c r="X32" s="1">
+      <c r="X32" s="2">
         <v>100</v>
       </c>
-      <c r="Y32" s="1">
+      <c r="Y32" s="2">
         <v>24.4208</v>
       </c>
-      <c r="Z32" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="1">
+      <c r="Z32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="2">
         <v>60.707</v>
       </c>
-      <c r="AB32" s="1">
+      <c r="AB32" s="2">
         <v>50</v>
       </c>
-      <c r="AC32" s="1">
+      <c r="AC32" s="2">
         <v>74.9333</v>
       </c>
-      <c r="AD32" s="1">
+      <c r="AD32" s="2">
         <v>50</v>
       </c>
-      <c r="AE32" s="1">
+      <c r="AE32" s="2">
         <v>-1.43</v>
       </c>
-      <c r="AF32" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG32" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH32" s="1">
+      <c r="AF32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="2">
         <v>22.87</v>
       </c>
-      <c r="AI32" s="1">
+      <c r="AI32" s="2">
         <v>23.5</v>
       </c>
-      <c r="AJ32" s="1">
+      <c r="AJ32" s="2">
         <v>22.1</v>
       </c>
-      <c r="AK32" s="1">
+      <c r="AK32" s="2">
         <v>22.14</v>
       </c>
-      <c r="AL32" s="1">
+      <c r="AL32" s="2">
         <v>353479936</v>
       </c>
-      <c r="AM32" s="1">
+      <c r="AM32" s="2">
         <v>3.29719963866305</v>
       </c>
-      <c r="AN32" s="1">
+      <c r="AN32" s="2">
         <v>6.1427280939476</v>
       </c>
-      <c r="AO32" s="1">
+      <c r="AO32" s="2">
         <v>-0.180668473351396</v>
       </c>
-      <c r="AP32" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ32" s="1">
+      <c r="AP32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ32" s="2">
         <v>22.18</v>
       </c>
-      <c r="AR32" s="1">
+      <c r="AR32" s="2">
         <v>22.45</v>
       </c>
-      <c r="AS32" s="1">
+      <c r="AS32" s="2">
         <v>21.82</v>
       </c>
-      <c r="AT32" s="1">
+      <c r="AT32" s="2">
         <v>22.05</v>
       </c>
-      <c r="AU32" s="1">
+      <c r="AU32" s="2">
         <v>248297712</v>
       </c>
-      <c r="AV32" s="1">
+      <c r="AV32" s="2">
         <v>0.180668473351396</v>
       </c>
-      <c r="AW32" s="1">
+      <c r="AW32" s="2">
         <v>1.40018066847335</v>
       </c>
-      <c r="AX32" s="1">
+      <c r="AX32" s="2">
         <v>-1.4453477868112</v>
       </c>
-      <c r="AY32" s="1">
+      <c r="AY32" s="2">
         <v>-0.40650406504065</v>
       </c>
-      <c r="AZ32" s="1">
+      <c r="AZ32" s="2">
         <v>22.18</v>
       </c>
-      <c r="BA32" s="1">
+      <c r="BA32" s="2">
         <v>26.46</v>
       </c>
-      <c r="BB32" s="1">
+      <c r="BB32" s="2">
         <v>21.95</v>
       </c>
-      <c r="BC32" s="1">
+      <c r="BC32" s="2">
         <v>26.46</v>
       </c>
-      <c r="BD32" s="1">
+      <c r="BD32" s="2">
         <v>438233536</v>
       </c>
-      <c r="BE32" s="1">
+      <c r="BE32" s="2">
         <v>0.180668473351396</v>
       </c>
-      <c r="BF32" s="1">
+      <c r="BF32" s="2">
         <v>19.5121951219512</v>
       </c>
-      <c r="BG32" s="1">
+      <c r="BG32" s="2">
         <v>-0.858175248419157</v>
       </c>
-      <c r="BH32" s="1">
+      <c r="BH32" s="2">
         <v>19.5121951219512</v>
       </c>
-      <c r="BI32" s="1">
+      <c r="BI32" s="2">
         <v>26.34</v>
       </c>
-      <c r="BJ32" s="1">
+      <c r="BJ32" s="2">
         <v>30.75</v>
       </c>
-      <c r="BK32" s="1">
+      <c r="BK32" s="2">
         <v>25.91</v>
       </c>
-      <c r="BL32" s="1">
+      <c r="BL32" s="2">
         <v>28.31</v>
       </c>
-      <c r="BM32" s="1">
+      <c r="BM32" s="2">
         <v>811410240</v>
       </c>
-      <c r="BN32" s="1">
+      <c r="BN32" s="2">
         <v>18.970189701897</v>
       </c>
-      <c r="BO32" s="1">
+      <c r="BO32" s="2">
         <v>38.8888888888889</v>
       </c>
-      <c r="BP32" s="1">
+      <c r="BP32" s="2">
         <v>17.0280036133695</v>
       </c>
-      <c r="BQ32" s="1">
+      <c r="BQ32" s="2">
         <v>27.8681120144535</v>
       </c>
     </row>
